--- a/meta_spreadsheet.xlsx
+++ b/meta_spreadsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\Desktop\OneDrive - Florida State University\Florida State University\Research Projects\erp_suicide_meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\Desktop\OneDrive - Florida State University\Florida State University\Research Projects\meta_suicide_erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8E6750FF-024D-44B2-A4CD-E6A0E9A37F7D}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{77265382-3ABD-46E9-A3B5-54702412A994}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
   </bookViews>
@@ -2325,9 +2325,6 @@
     <t>Latent No-Go P3</t>
   </si>
   <si>
-    <t>Latnet Go P3</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
@@ -2698,6 +2695,9 @@
   </si>
   <si>
     <t>2019b</t>
+  </si>
+  <si>
+    <t>Latent Go P3</t>
   </si>
 </sst>
 </file>
@@ -8460,10 +8460,10 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8526,7 +8526,7 @@
         <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -8564,7 +8564,7 @@
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -8602,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
@@ -8640,7 +8640,7 @@
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
@@ -8678,7 +8678,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
@@ -8838,7 +8838,7 @@
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
@@ -8879,7 +8879,7 @@
         <v>7</v>
       </c>
       <c r="P11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
@@ -8946,7 +8946,7 @@
         <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
@@ -9048,7 +9048,7 @@
         <v>8</v>
       </c>
       <c r="P16" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
@@ -9086,7 +9086,7 @@
         <v>9</v>
       </c>
       <c r="P17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
@@ -9156,7 +9156,7 @@
         <v>11</v>
       </c>
       <c r="P19" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
@@ -9194,7 +9194,7 @@
         <v>10</v>
       </c>
       <c r="P20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -9284,13 +9284,13 @@
         <v>1</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O23" s="6">
         <v>12</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -9459,7 +9459,7 @@
         <v>13</v>
       </c>
       <c r="P28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
@@ -9497,7 +9497,7 @@
         <v>14</v>
       </c>
       <c r="P29" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -9605,7 +9605,7 @@
         <v>15</v>
       </c>
       <c r="P32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
@@ -9643,7 +9643,7 @@
         <v>16</v>
       </c>
       <c r="P33" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="P35" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
@@ -9864,7 +9864,7 @@
         <v>18</v>
       </c>
       <c r="P40" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
@@ -9905,7 +9905,7 @@
         <v>19</v>
       </c>
       <c r="P41" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
@@ -9946,7 +9946,7 @@
         <v>20</v>
       </c>
       <c r="P42" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
@@ -10108,7 +10108,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B48" t="s">
         <v>417</v>
@@ -10123,7 +10123,7 @@
         <v>346</v>
       </c>
       <c r="F48" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G48" t="s">
         <v>688</v>
@@ -10138,18 +10138,18 @@
         <v>688</v>
       </c>
       <c r="L48" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="O48">
         <v>21</v>
       </c>
       <c r="P48" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B49" t="s">
         <v>475</v>
@@ -10161,10 +10161,10 @@
         <v>1983</v>
       </c>
       <c r="E49" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F49" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
@@ -10179,7 +10179,7 @@
         <v>36</v>
       </c>
       <c r="P49" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
@@ -10190,10 +10190,10 @@
         <v>43</v>
       </c>
       <c r="D50" t="s">
+        <v>854</v>
+      </c>
+      <c r="F50" t="s">
         <v>855</v>
-      </c>
-      <c r="F50" t="s">
-        <v>856</v>
       </c>
       <c r="G50" t="s">
         <v>688</v>
@@ -10219,10 +10219,10 @@
         <v>43</v>
       </c>
       <c r="D51" t="s">
+        <v>854</v>
+      </c>
+      <c r="F51" t="s">
         <v>855</v>
-      </c>
-      <c r="F51" t="s">
-        <v>856</v>
       </c>
       <c r="G51" t="s">
         <v>688</v>
@@ -10254,9 +10254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E90853A-A82C-4185-AE1B-AC3373DE1028}">
   <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10286,7 +10286,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -10310,7 +10310,7 @@
         <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
@@ -10367,13 +10367,13 @@
         <v>711</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -10381,10 +10381,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -10446,10 +10446,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -10511,10 +10511,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -10576,10 +10576,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -10641,10 +10641,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -10706,10 +10706,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -10771,10 +10771,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -10836,10 +10836,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -10901,10 +10901,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -10966,10 +10966,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -11031,10 +11031,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -11096,10 +11096,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C13" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -11161,10 +11161,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -11226,10 +11226,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C15" t="s">
         <v>884</v>
-      </c>
-      <c r="C15" t="s">
-        <v>885</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -11313,10 +11313,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>883</v>
+      </c>
+      <c r="C16" t="s">
         <v>884</v>
-      </c>
-      <c r="C16" t="s">
-        <v>885</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -11400,10 +11400,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>883</v>
+      </c>
+      <c r="C17" t="s">
         <v>884</v>
-      </c>
-      <c r="C17" t="s">
-        <v>885</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -11487,10 +11487,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>883</v>
+      </c>
+      <c r="C18" t="s">
         <v>884</v>
-      </c>
-      <c r="C18" t="s">
-        <v>885</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -11574,10 +11574,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>883</v>
+      </c>
+      <c r="C19" t="s">
         <v>884</v>
-      </c>
-      <c r="C19" t="s">
-        <v>885</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -11661,10 +11661,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>883</v>
+      </c>
+      <c r="C20" t="s">
         <v>884</v>
-      </c>
-      <c r="C20" t="s">
-        <v>885</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -11748,10 +11748,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
+        <v>883</v>
+      </c>
+      <c r="C21" t="s">
         <v>884</v>
-      </c>
-      <c r="C21" t="s">
-        <v>885</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -11835,10 +11835,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>883</v>
+      </c>
+      <c r="C22" t="s">
         <v>884</v>
-      </c>
-      <c r="C22" t="s">
-        <v>885</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -11922,10 +11922,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>883</v>
+      </c>
+      <c r="C23" t="s">
         <v>884</v>
-      </c>
-      <c r="C23" t="s">
-        <v>885</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -12009,10 +12009,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>883</v>
+      </c>
+      <c r="C24" t="s">
         <v>884</v>
-      </c>
-      <c r="C24" t="s">
-        <v>885</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -12096,10 +12096,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>883</v>
+      </c>
+      <c r="C25" t="s">
         <v>884</v>
-      </c>
-      <c r="C25" t="s">
-        <v>885</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -12183,10 +12183,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>883</v>
+      </c>
+      <c r="C26" t="s">
         <v>884</v>
-      </c>
-      <c r="C26" t="s">
-        <v>885</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -12228,7 +12228,7 @@
         <v>724</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>762</v>
+        <v>886</v>
       </c>
       <c r="R26">
         <v>1.04</v>
@@ -12270,7 +12270,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C27">
         <v>2019</v>
@@ -12300,10 +12300,10 @@
         <v>748</v>
       </c>
       <c r="P27" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q27" t="s">
         <v>763</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>764</v>
       </c>
       <c r="V27">
         <v>56</v>
@@ -12335,7 +12335,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C28">
         <v>2019</v>
@@ -12365,10 +12365,10 @@
         <v>748</v>
       </c>
       <c r="P28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="V28">
         <v>56</v>
@@ -12400,7 +12400,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C29">
         <v>2019</v>
@@ -12430,10 +12430,10 @@
         <v>748</v>
       </c>
       <c r="P29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="V29">
         <v>56</v>
@@ -12465,7 +12465,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C30">
         <v>2019</v>
@@ -12498,7 +12498,7 @@
         <v>724</v>
       </c>
       <c r="Q30" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="V30">
         <v>56</v>
@@ -12530,7 +12530,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C31">
         <v>2019</v>
@@ -12563,7 +12563,7 @@
         <v>724</v>
       </c>
       <c r="Q31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="V31">
         <v>56</v>
@@ -12595,7 +12595,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C32">
         <v>2019</v>
@@ -12628,7 +12628,7 @@
         <v>724</v>
       </c>
       <c r="Q32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="V32">
         <v>56</v>
@@ -12660,7 +12660,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C33">
         <v>2019</v>
@@ -12693,7 +12693,7 @@
         <v>731</v>
       </c>
       <c r="Q33" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="V33">
         <v>56</v>
@@ -12725,7 +12725,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C34">
         <v>2019</v>
@@ -12758,7 +12758,7 @@
         <v>731</v>
       </c>
       <c r="Q34" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="V34">
         <v>56</v>
@@ -12790,7 +12790,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C35">
         <v>2019</v>
@@ -12823,7 +12823,7 @@
         <v>731</v>
       </c>
       <c r="Q35" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="V35">
         <v>56</v>
@@ -12855,7 +12855,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C36">
         <v>2019</v>
@@ -12888,7 +12888,7 @@
         <v>724</v>
       </c>
       <c r="Q36" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="V36">
         <v>56</v>
@@ -12920,7 +12920,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C37">
         <v>2019</v>
@@ -12953,7 +12953,7 @@
         <v>724</v>
       </c>
       <c r="Q37" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="V37">
         <v>56</v>
@@ -12985,7 +12985,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C38">
         <v>2019</v>
@@ -13018,7 +13018,7 @@
         <v>724</v>
       </c>
       <c r="Q38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="V38">
         <v>56</v>
@@ -13050,7 +13050,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C39">
         <v>2019</v>
@@ -13083,7 +13083,7 @@
         <v>704</v>
       </c>
       <c r="Q39" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="V39">
         <v>56</v>
@@ -13115,7 +13115,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C40">
         <v>2019</v>
@@ -13148,7 +13148,7 @@
         <v>704</v>
       </c>
       <c r="Q40" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="V40">
         <v>56</v>
@@ -13180,7 +13180,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C41">
         <v>2019</v>
@@ -13213,7 +13213,7 @@
         <v>704</v>
       </c>
       <c r="Q41" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="V41">
         <v>56</v>
@@ -13245,7 +13245,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C42">
         <v>2019</v>
@@ -13278,7 +13278,7 @@
         <v>704</v>
       </c>
       <c r="Q42" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="V42">
         <v>56</v>
@@ -13310,7 +13310,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C43">
         <v>2019</v>
@@ -13343,7 +13343,7 @@
         <v>704</v>
       </c>
       <c r="Q43" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="V43">
         <v>56</v>
@@ -13375,7 +13375,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C44">
         <v>2019</v>
@@ -13408,7 +13408,7 @@
         <v>704</v>
       </c>
       <c r="Q44" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="V44">
         <v>56</v>
@@ -13440,7 +13440,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C45">
         <v>2019</v>
@@ -13473,7 +13473,7 @@
         <v>724</v>
       </c>
       <c r="Q45" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="V45">
         <v>56</v>
@@ -13505,7 +13505,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C46">
         <v>2019</v>
@@ -13538,7 +13538,7 @@
         <v>724</v>
       </c>
       <c r="Q46" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V46">
         <v>56</v>
@@ -13570,7 +13570,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C47">
         <v>2019</v>
@@ -13603,7 +13603,7 @@
         <v>724</v>
       </c>
       <c r="Q47" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="V47">
         <v>56</v>
@@ -13635,7 +13635,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C48">
         <v>2019</v>
@@ -13668,7 +13668,7 @@
         <v>724</v>
       </c>
       <c r="Q48" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="V48">
         <v>56</v>
@@ -13700,7 +13700,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C49">
         <v>2019</v>
@@ -13733,7 +13733,7 @@
         <v>724</v>
       </c>
       <c r="Q49" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="V49">
         <v>56</v>
@@ -13765,7 +13765,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C50">
         <v>2019</v>
@@ -13798,7 +13798,7 @@
         <v>724</v>
       </c>
       <c r="Q50" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V50">
         <v>56</v>
@@ -13830,7 +13830,7 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C51">
         <v>2019</v>
@@ -13875,7 +13875,7 @@
         <v>704</v>
       </c>
       <c r="Q51" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="V51">
         <f>K51+L51</f>
@@ -13908,7 +13908,7 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C52">
         <v>2019</v>
@@ -13953,7 +13953,7 @@
         <v>704</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R52">
         <v>4.9800000000000004</v>
@@ -13995,7 +13995,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C53">
         <v>2019</v>
@@ -14040,7 +14040,7 @@
         <v>704</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="V53">
         <f t="shared" si="4"/>
@@ -14073,7 +14073,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C54">
         <v>2018</v>
@@ -14118,7 +14118,7 @@
         <v>724</v>
       </c>
       <c r="Q54" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="R54">
         <v>4.04</v>
@@ -14160,7 +14160,7 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C55">
         <v>2018</v>
@@ -14205,7 +14205,7 @@
         <v>724</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R55">
         <v>3.32</v>
@@ -14247,7 +14247,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C56">
         <v>2018</v>
@@ -14292,7 +14292,7 @@
         <v>724</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="R56">
         <v>0.02</v>
@@ -14334,7 +14334,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C57">
         <v>2018</v>
@@ -14379,7 +14379,7 @@
         <v>724</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="R57">
         <v>7.0000000000000007E-2</v>
@@ -14421,7 +14421,7 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C58">
         <v>2018</v>
@@ -14466,7 +14466,7 @@
         <v>724</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="R58">
         <v>0.18</v>
@@ -14508,7 +14508,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C59">
         <v>2018</v>
@@ -14553,7 +14553,7 @@
         <v>724</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R59">
         <v>0.88</v>
@@ -14595,7 +14595,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C60">
         <v>2017</v>
@@ -14640,7 +14640,7 @@
         <v>689</v>
       </c>
       <c r="Q60" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="R60">
         <v>2.98</v>
@@ -14682,7 +14682,7 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C61">
         <v>2017</v>
@@ -14727,7 +14727,7 @@
         <v>689</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="R61">
         <v>-0.64</v>
@@ -14769,7 +14769,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C62">
         <v>2017</v>
@@ -14814,7 +14814,7 @@
         <v>689</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R62">
         <v>3.49</v>
@@ -14856,7 +14856,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C63">
         <v>2018</v>
@@ -14889,7 +14889,7 @@
         <v>724</v>
       </c>
       <c r="Q63" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="V63">
         <v>44</v>
@@ -14921,7 +14921,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C64">
         <v>2016</v>
@@ -14954,7 +14954,7 @@
         <v>689</v>
       </c>
       <c r="Q64" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="V64">
         <v>177</v>
@@ -14986,7 +14986,7 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C65">
         <v>2016</v>
@@ -15019,7 +15019,7 @@
         <v>689</v>
       </c>
       <c r="Q65" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="V65">
         <v>177</v>
@@ -15051,7 +15051,7 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C66">
         <v>2016</v>
@@ -15084,7 +15084,7 @@
         <v>689</v>
       </c>
       <c r="Q66" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V66">
         <v>177</v>
@@ -15116,7 +15116,7 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C67">
         <v>2016</v>
@@ -15203,7 +15203,7 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C68">
         <v>2016</v>
@@ -15248,7 +15248,7 @@
         <v>689</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="R68">
         <v>6.54</v>
@@ -15290,7 +15290,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C69">
         <v>2016</v>
@@ -15335,7 +15335,7 @@
         <v>689</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="R69">
         <v>0.32</v>
@@ -15377,7 +15377,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C70">
         <v>2016</v>
@@ -15422,7 +15422,7 @@
         <v>689</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R70">
         <v>2.4</v>
@@ -15464,7 +15464,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C71">
         <v>2016</v>
@@ -15509,7 +15509,7 @@
         <v>689</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R71">
         <v>7.5</v>
@@ -15551,7 +15551,7 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C72">
         <v>2016</v>
@@ -15596,7 +15596,7 @@
         <v>689</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="R72">
         <v>8.4</v>
@@ -15638,7 +15638,7 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C73">
         <v>2016</v>
@@ -15683,7 +15683,7 @@
         <v>689</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R73">
         <v>-1.1499999999999999</v>
@@ -15725,7 +15725,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C74">
         <v>2016</v>
@@ -15770,7 +15770,7 @@
         <v>689</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="R74">
         <v>6.54</v>
@@ -15812,7 +15812,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C75">
         <v>2016</v>
@@ -15857,7 +15857,7 @@
         <v>689</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="R75">
         <v>11.5</v>
@@ -15899,7 +15899,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C76">
         <v>2015</v>
@@ -15926,7 +15926,7 @@
         <v>717</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P76" t="s">
         <v>720</v>
@@ -15964,7 +15964,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C77">
         <v>2015</v>
@@ -16000,7 +16000,7 @@
         <v>703</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P77" t="s">
         <v>720</v>
@@ -16047,7 +16047,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C78">
         <v>2014</v>
@@ -16071,7 +16071,7 @@
         <v>717</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P78" t="s">
         <v>720</v>
@@ -16109,7 +16109,7 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C79">
         <v>2014</v>
@@ -16133,7 +16133,7 @@
         <v>717</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P79" t="s">
         <v>720</v>
@@ -16171,7 +16171,7 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C80">
         <v>2013</v>
@@ -16204,7 +16204,7 @@
         <v>701</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P80" t="s">
         <v>720</v>
@@ -16251,7 +16251,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C81">
         <v>2012</v>
@@ -16287,7 +16287,7 @@
         <v>701</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P81" t="s">
         <v>720</v>
@@ -16334,7 +16334,7 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C82">
         <v>2012</v>
@@ -16361,7 +16361,7 @@
         <v>693</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P82" t="s">
         <v>720</v>
@@ -16399,7 +16399,7 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C83">
         <v>2012</v>
@@ -16426,7 +16426,7 @@
         <v>693</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P83" t="s">
         <v>720</v>
@@ -16464,7 +16464,7 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C84">
         <v>2010</v>
@@ -16509,7 +16509,7 @@
         <v>724</v>
       </c>
       <c r="Q84" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R84">
         <v>2</v>
@@ -16551,7 +16551,7 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C85">
         <v>2010</v>
@@ -16596,7 +16596,7 @@
         <v>724</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="R85">
         <v>-0.1</v>
@@ -16638,7 +16638,7 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C86">
         <v>2010</v>
@@ -16683,7 +16683,7 @@
         <v>724</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="R86">
         <v>0.39</v>
@@ -16725,7 +16725,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C87">
         <v>2005</v>
@@ -16761,7 +16761,7 @@
         <v>701</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P87" t="s">
         <v>720</v>
@@ -16809,7 +16809,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C88">
         <v>2005</v>
@@ -16851,7 +16851,7 @@
         <v>724</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="R88">
         <v>6.54</v>
@@ -16893,7 +16893,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C89">
         <v>2005</v>
@@ -16935,7 +16935,7 @@
         <v>724</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="R89">
         <v>6.39</v>
@@ -16977,7 +16977,7 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C90">
         <v>2005</v>
@@ -17019,7 +17019,7 @@
         <v>724</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="R90">
         <v>5.75</v>
@@ -17061,7 +17061,7 @@
         <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C91">
         <v>1996</v>
@@ -17148,7 +17148,7 @@
         <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C92">
         <v>1996</v>
@@ -17190,10 +17190,10 @@
         <v>748</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R92">
         <v>-9.6999999999999993</v>
@@ -17235,7 +17235,7 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C93">
         <v>1996</v>
@@ -17277,10 +17277,10 @@
         <v>748</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R93">
         <v>2.9</v>
@@ -17322,7 +17322,7 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C94">
         <v>1996</v>
@@ -17409,7 +17409,7 @@
         <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C95">
         <v>1994</v>
@@ -17490,7 +17490,7 @@
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C96">
         <v>1994</v>
@@ -17526,10 +17526,10 @@
         <v>703</v>
       </c>
       <c r="P96" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Q96" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R96">
         <v>3.08</v>
@@ -17571,7 +17571,7 @@
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C97">
         <v>1994</v>
@@ -17607,7 +17607,7 @@
         <v>703</v>
       </c>
       <c r="O97" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P97" t="s">
         <v>720</v>
@@ -17655,7 +17655,7 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C98">
         <v>1994</v>
@@ -17685,7 +17685,7 @@
         <v>720</v>
       </c>
       <c r="Q98" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="R98">
         <v>0.13</v>
@@ -17727,7 +17727,7 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C99">
         <v>1994</v>
@@ -17757,7 +17757,7 @@
         <v>720</v>
       </c>
       <c r="Q99" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="R99">
         <v>0.06</v>
@@ -17799,7 +17799,7 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C100">
         <v>1994</v>
@@ -17829,7 +17829,7 @@
         <v>720</v>
       </c>
       <c r="Q100" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R100">
         <v>1</v>
@@ -17871,7 +17871,7 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C101">
         <v>1994</v>
@@ -17901,7 +17901,7 @@
         <v>720</v>
       </c>
       <c r="Q101" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="R101">
         <v>0.9</v>
@@ -17943,7 +17943,7 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C102">
         <v>1994</v>
@@ -17973,7 +17973,7 @@
         <v>720</v>
       </c>
       <c r="Q102" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="R102">
         <v>0.6</v>
@@ -18015,7 +18015,7 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C103">
         <v>1994</v>
@@ -18045,7 +18045,7 @@
         <v>720</v>
       </c>
       <c r="Q103" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R103">
         <v>0.7</v>
@@ -18087,7 +18087,7 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C104">
         <v>1994</v>
@@ -18117,7 +18117,7 @@
         <v>720</v>
       </c>
       <c r="Q104" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="R104">
         <v>0.5</v>
@@ -18159,7 +18159,7 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C105">
         <v>1994</v>
@@ -18189,7 +18189,7 @@
         <v>720</v>
       </c>
       <c r="Q105" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="R105">
         <v>0.7</v>
@@ -18231,7 +18231,7 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C106">
         <v>1994</v>
@@ -18315,7 +18315,7 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C107">
         <v>1994</v>
@@ -18399,10 +18399,10 @@
         <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C108" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D108">
         <v>107</v>
@@ -18432,7 +18432,7 @@
         <v>724</v>
       </c>
       <c r="Q108" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="R108">
         <v>0.1716</v>
@@ -18474,10 +18474,10 @@
         <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C109" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D109">
         <v>108</v>
@@ -18549,10 +18549,10 @@
         <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C110" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D110">
         <v>109</v>
@@ -18579,10 +18579,10 @@
         <v>735</v>
       </c>
       <c r="P110" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q110" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="R110">
         <v>-2.4024000000000001</v>
@@ -18624,10 +18624,10 @@
         <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C111" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D111">
         <v>110</v>
@@ -18657,7 +18657,7 @@
         <v>704</v>
       </c>
       <c r="Q111" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="R111">
         <v>1.2333000000000001</v>
@@ -18699,10 +18699,10 @@
         <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C112" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D112">
         <v>111</v>
@@ -18732,7 +18732,7 @@
         <v>704</v>
       </c>
       <c r="Q112" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="R112">
         <v>9.7385000000000002</v>
@@ -18774,10 +18774,10 @@
         <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C113" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D113">
         <v>112</v>
@@ -18807,7 +18807,7 @@
         <v>704</v>
       </c>
       <c r="Q113" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="R113">
         <v>14.4582555</v>
@@ -18849,10 +18849,10 @@
         <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C114" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D114">
         <v>113</v>
@@ -18882,7 +18882,7 @@
         <v>704</v>
       </c>
       <c r="Q114" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="R114">
         <v>16.5448789</v>
@@ -18924,10 +18924,10 @@
         <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C115" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D115">
         <v>114</v>
@@ -19017,133 +19017,133 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>708</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>825</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>826</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>828</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>830</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>832</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>834</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>836</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>836</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>838</v>
-      </c>
       <c r="C8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>838</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>840</v>
-      </c>
       <c r="C9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>840</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>842</v>
-      </c>
       <c r="C10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -19163,21 +19163,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F3729CDE7EAEF44A53FFF2D231E047F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fa77f95735d7b1684a0f9f1d46cbd95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2efe24bd-a7c1-481d-a426-3119fcfe7149" xmlns:ns4="061b3361-47e6-4fd1-b7fc-4e45b1c77d33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9154525a1bae266bab7d07ed10795e6b" ns3:_="" ns4:_="">
     <xsd:import namespace="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
@@ -19400,10 +19385,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
+    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19426,20 +19437,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
-    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/meta_spreadsheet.xlsx
+++ b/meta_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/ajg17d_fsu_edu/Documents/Florida State University/Research Projects/meta_suicide_erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1045" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{11AEE004-02CF-4D61-AA45-F59824D30C11}"/>
+  <xr:revisionPtr revIDLastSave="1082" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FEB5FDB-2B94-4E4B-A2F7-8F9E3BD5DF10}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="3593" windowWidth="4283" windowHeight="9487" firstSheet="2" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="2" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="969">
   <si>
     <t>Database</t>
   </si>
@@ -2238,9 +2238,6 @@
     <t>erp description</t>
   </si>
   <si>
-    <t>difference</t>
-  </si>
-  <si>
     <t>Reward View LPP Diff</t>
   </si>
   <si>
@@ -2805,9 +2802,6 @@
     <t>Pz incongruent neutral P3-sbqr</t>
   </si>
   <si>
-    <t>PSW</t>
-  </si>
-  <si>
     <t>PCA congruent neutral late PSW-bss</t>
   </si>
   <si>
@@ -2947,6 +2941,9 @@
   </si>
   <si>
     <t>Kaufman</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
@@ -3677,6 +3674,141 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>462997</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>147930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469837</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>151890</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6EA0750-61E3-45E6-A822-F31FD21BA38D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6449460" y="11368380"/>
+            <a:ext cx="6840" cy="3960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6EA0750-61E3-45E6-A822-F31FD21BA38D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6440460" y="11359740"/>
+              <a:ext cx="24480" cy="21600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>359677</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>367957</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>34890</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABBCED0-0AC2-465D-97CD-B71C262AAB02}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6346140" y="11233020"/>
+            <a:ext cx="8280" cy="22320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABBCED0-0AC2-465D-97CD-B71C262AAB02}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6337140" y="11224380"/>
+              <a:ext cx="25920" cy="39960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -3700,6 +3832,60 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'3'0,"4"0,2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-05-02T17:35:27.839"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 4 1280,'-11'-3'512,"14"6"-384,5-3-608,-1 7-224</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-05-02T17:35:28.594"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 5 6528,'-11'-4'2464,"11"4"-1920,7 11-992,-3 2-608,3 3-1472,-3 5-544</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8735,7 +8921,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8798,7 +8984,7 @@
         <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -8836,7 +9022,7 @@
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -8874,7 +9060,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
@@ -8912,7 +9098,7 @@
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
@@ -8950,7 +9136,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
@@ -9113,7 +9299,7 @@
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
@@ -9151,7 +9337,7 @@
         <v>7</v>
       </c>
       <c r="P11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
@@ -9218,7 +9404,7 @@
         <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
@@ -9320,7 +9506,7 @@
         <v>8</v>
       </c>
       <c r="P16" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
@@ -9358,7 +9544,7 @@
         <v>9</v>
       </c>
       <c r="P17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
@@ -9428,7 +9614,7 @@
         <v>11</v>
       </c>
       <c r="P19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
@@ -9466,7 +9652,7 @@
         <v>10</v>
       </c>
       <c r="P20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -9565,13 +9751,13 @@
         <v>1</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O23" s="6">
         <v>12</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -9746,7 +9932,7 @@
         <v>13</v>
       </c>
       <c r="P28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
@@ -9784,7 +9970,7 @@
         <v>14</v>
       </c>
       <c r="P29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -9895,7 +10081,7 @@
         <v>15</v>
       </c>
       <c r="P32" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
@@ -9933,7 +10119,7 @@
         <v>16</v>
       </c>
       <c r="P33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
@@ -9994,7 +10180,7 @@
         <v>17</v>
       </c>
       <c r="P35" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
@@ -10157,7 +10343,7 @@
         <v>18</v>
       </c>
       <c r="P40" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
@@ -10198,7 +10384,7 @@
         <v>19</v>
       </c>
       <c r="P41" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
@@ -10239,7 +10425,7 @@
         <v>20</v>
       </c>
       <c r="P42" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
@@ -10404,7 +10590,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B48" t="s">
         <v>417</v>
@@ -10419,7 +10605,7 @@
         <v>346</v>
       </c>
       <c r="F48" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G48" t="s">
         <v>688</v>
@@ -10434,18 +10620,18 @@
         <v>688</v>
       </c>
       <c r="L48" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="O48">
         <v>21</v>
       </c>
       <c r="P48" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B49" t="s">
         <v>475</v>
@@ -10457,10 +10643,10 @@
         <v>1983</v>
       </c>
       <c r="E49" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F49" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
@@ -10475,7 +10661,7 @@
         <v>36</v>
       </c>
       <c r="P49" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
@@ -10486,10 +10672,10 @@
         <v>43</v>
       </c>
       <c r="D50" t="s">
+        <v>851</v>
+      </c>
+      <c r="F50" t="s">
         <v>852</v>
-      </c>
-      <c r="F50" t="s">
-        <v>853</v>
       </c>
       <c r="G50" t="s">
         <v>688</v>
@@ -10515,10 +10701,10 @@
         <v>43</v>
       </c>
       <c r="D51" t="s">
+        <v>851</v>
+      </c>
+      <c r="F51" t="s">
         <v>852</v>
-      </c>
-      <c r="F51" t="s">
-        <v>853</v>
       </c>
       <c r="G51" t="s">
         <v>688</v>
@@ -10541,10 +10727,10 @@
         <v>195</v>
       </c>
       <c r="D52" t="s">
+        <v>851</v>
+      </c>
+      <c r="F52" t="s">
         <v>852</v>
-      </c>
-      <c r="F52" t="s">
-        <v>853</v>
       </c>
       <c r="G52" t="s">
         <v>688</v>
@@ -10576,9 +10762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E90853A-A82C-4185-AE1B-AC3373DE1028}">
   <dimension ref="A1:AF193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q176" sqref="Q176"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10608,10 +10794,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -10635,7 +10821,7 @@
         <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>19</v>
@@ -10692,13 +10878,13 @@
         <v>711</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -10709,10 +10895,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -10736,13 +10922,13 @@
         <v>693</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>689</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="W2" s="2">
         <v>247</v>
@@ -10777,10 +10963,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -10804,13 +10990,13 @@
         <v>693</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>689</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="W3" s="2">
         <v>247</v>
@@ -10845,10 +11031,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -10872,13 +11058,13 @@
         <v>693</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q4" t="s">
         <v>689</v>
       </c>
       <c r="R4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="W4" s="2">
         <v>247</v>
@@ -10913,10 +11099,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -10940,13 +11126,13 @@
         <v>693</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q5" t="s">
         <v>689</v>
       </c>
       <c r="R5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="W5" s="2">
         <v>247</v>
@@ -10981,10 +11167,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -11008,13 +11194,13 @@
         <v>693</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q6" t="s">
         <v>689</v>
       </c>
       <c r="R6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="W6" s="2">
         <v>247</v>
@@ -11049,10 +11235,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -11076,13 +11262,13 @@
         <v>693</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q7" t="s">
         <v>689</v>
       </c>
       <c r="R7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="W7" s="2">
         <v>247</v>
@@ -11117,10 +11303,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -11144,13 +11330,13 @@
         <v>693</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q8" t="s">
         <v>689</v>
       </c>
       <c r="R8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="W8" s="2">
         <v>247</v>
@@ -11185,10 +11371,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -11212,13 +11398,13 @@
         <v>693</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q9" t="s">
         <v>689</v>
       </c>
       <c r="R9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="W9" s="2">
         <v>247</v>
@@ -11253,10 +11439,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -11280,13 +11466,13 @@
         <v>693</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q10" t="s">
         <v>689</v>
       </c>
       <c r="R10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="W10" s="2">
         <v>247</v>
@@ -11321,10 +11507,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -11348,13 +11534,13 @@
         <v>693</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q11" t="s">
         <v>689</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="W11" s="2">
         <v>247</v>
@@ -11389,10 +11575,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -11416,13 +11602,13 @@
         <v>693</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q12" t="s">
         <v>689</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W12" s="2">
         <v>247</v>
@@ -11457,10 +11643,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -11484,13 +11670,13 @@
         <v>693</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q13" t="s">
         <v>689</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="W13" s="2">
         <v>247</v>
@@ -11525,10 +11711,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -11552,13 +11738,13 @@
         <v>693</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q14" t="s">
         <v>689</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="W14" s="2">
         <v>247</v>
@@ -11593,10 +11779,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>880</v>
+      </c>
+      <c r="D15" t="s">
         <v>881</v>
-      </c>
-      <c r="D15" t="s">
-        <v>882</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -11632,13 +11818,13 @@
         <v>701</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>749</v>
       </c>
       <c r="S15">
         <v>0.38</v>
@@ -11683,10 +11869,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
+        <v>880</v>
+      </c>
+      <c r="D16" t="s">
         <v>881</v>
-      </c>
-      <c r="D16" t="s">
-        <v>882</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -11722,13 +11908,13 @@
         <v>701</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="S16">
         <v>0.68</v>
@@ -11773,10 +11959,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>880</v>
+      </c>
+      <c r="D17" t="s">
         <v>881</v>
-      </c>
-      <c r="D17" t="s">
-        <v>882</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -11812,13 +11998,13 @@
         <v>701</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="S17">
         <v>0.71</v>
@@ -11863,10 +12049,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>880</v>
+      </c>
+      <c r="D18" t="s">
         <v>881</v>
-      </c>
-      <c r="D18" t="s">
-        <v>882</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -11902,13 +12088,13 @@
         <v>701</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="S18">
         <v>0.56000000000000005</v>
@@ -11953,10 +12139,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>880</v>
+      </c>
+      <c r="D19" t="s">
         <v>881</v>
-      </c>
-      <c r="D19" t="s">
-        <v>882</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -11992,13 +12178,13 @@
         <v>701</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S19">
         <v>9.35</v>
@@ -12043,10 +12229,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>880</v>
+      </c>
+      <c r="D20" t="s">
         <v>881</v>
-      </c>
-      <c r="D20" t="s">
-        <v>882</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -12082,13 +12268,13 @@
         <v>701</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="S20">
         <v>3.51</v>
@@ -12133,10 +12319,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
+        <v>880</v>
+      </c>
+      <c r="D21" t="s">
         <v>881</v>
-      </c>
-      <c r="D21" t="s">
-        <v>882</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -12172,13 +12358,13 @@
         <v>701</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="S21">
         <v>0.71</v>
@@ -12223,10 +12409,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>880</v>
+      </c>
+      <c r="D22" t="s">
         <v>881</v>
-      </c>
-      <c r="D22" t="s">
-        <v>882</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -12262,13 +12448,13 @@
         <v>701</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="S22">
         <v>1.87</v>
@@ -12313,10 +12499,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>880</v>
+      </c>
+      <c r="D23" t="s">
         <v>881</v>
-      </c>
-      <c r="D23" t="s">
-        <v>882</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -12352,13 +12538,13 @@
         <v>701</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="S23">
         <v>1.98</v>
@@ -12403,10 +12589,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>880</v>
+      </c>
+      <c r="D24" t="s">
         <v>881</v>
-      </c>
-      <c r="D24" t="s">
-        <v>882</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -12442,13 +12628,13 @@
         <v>701</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="S24">
         <v>0.43</v>
@@ -12493,10 +12679,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>880</v>
+      </c>
+      <c r="D25" t="s">
         <v>881</v>
-      </c>
-      <c r="D25" t="s">
-        <v>882</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -12532,13 +12718,13 @@
         <v>701</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S25">
         <v>5.61</v>
@@ -12583,10 +12769,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
+        <v>880</v>
+      </c>
+      <c r="D26" t="s">
         <v>881</v>
-      </c>
-      <c r="D26" t="s">
-        <v>882</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -12622,13 +12808,13 @@
         <v>701</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="S26">
         <v>1.04</v>
@@ -12673,7 +12859,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D27">
         <v>2019</v>
@@ -12700,13 +12886,13 @@
         <v>693</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q27" t="s">
+        <v>759</v>
+      </c>
+      <c r="R27" t="s">
         <v>760</v>
-      </c>
-      <c r="R27" t="s">
-        <v>761</v>
       </c>
       <c r="W27">
         <v>56</v>
@@ -12741,7 +12927,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D28">
         <v>2019</v>
@@ -12768,13 +12954,13 @@
         <v>693</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W28">
         <v>56</v>
@@ -12809,7 +12995,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D29">
         <v>2019</v>
@@ -12836,13 +13022,13 @@
         <v>693</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="W29">
         <v>56</v>
@@ -12877,7 +13063,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D30">
         <v>2019</v>
@@ -12904,13 +13090,13 @@
         <v>693</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q30" t="s">
         <v>724</v>
       </c>
       <c r="R30" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="W30">
         <v>56</v>
@@ -12945,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D31">
         <v>2019</v>
@@ -12972,13 +13158,13 @@
         <v>693</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q31" t="s">
         <v>724</v>
       </c>
       <c r="R31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="W31">
         <v>56</v>
@@ -13013,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D32">
         <v>2019</v>
@@ -13040,13 +13226,13 @@
         <v>693</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q32" t="s">
         <v>724</v>
       </c>
       <c r="R32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="W32">
         <v>56</v>
@@ -13081,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D33">
         <v>2019</v>
@@ -13108,13 +13294,13 @@
         <v>693</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q33" t="s">
         <v>730</v>
       </c>
       <c r="R33" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="W33">
         <v>56</v>
@@ -13149,7 +13335,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D34">
         <v>2019</v>
@@ -13176,13 +13362,13 @@
         <v>693</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q34" t="s">
         <v>730</v>
       </c>
       <c r="R34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="W34">
         <v>56</v>
@@ -13217,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D35">
         <v>2019</v>
@@ -13244,13 +13430,13 @@
         <v>693</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q35" t="s">
         <v>730</v>
       </c>
       <c r="R35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="W35">
         <v>56</v>
@@ -13285,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D36">
         <v>2019</v>
@@ -13312,13 +13498,13 @@
         <v>693</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q36" t="s">
         <v>724</v>
       </c>
       <c r="R36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="W36">
         <v>56</v>
@@ -13353,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D37">
         <v>2019</v>
@@ -13380,13 +13566,13 @@
         <v>693</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q37" t="s">
         <v>724</v>
       </c>
       <c r="R37" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="W37">
         <v>56</v>
@@ -13421,7 +13607,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D38">
         <v>2019</v>
@@ -13448,13 +13634,13 @@
         <v>693</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q38" t="s">
         <v>724</v>
       </c>
       <c r="R38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="W38">
         <v>56</v>
@@ -13489,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D39">
         <v>2019</v>
@@ -13516,13 +13702,13 @@
         <v>693</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q39" t="s">
         <v>704</v>
       </c>
       <c r="R39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="W39">
         <v>56</v>
@@ -13557,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D40">
         <v>2019</v>
@@ -13584,13 +13770,13 @@
         <v>693</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q40" t="s">
         <v>704</v>
       </c>
       <c r="R40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="W40">
         <v>56</v>
@@ -13625,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D41">
         <v>2019</v>
@@ -13652,13 +13838,13 @@
         <v>693</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q41" t="s">
         <v>704</v>
       </c>
       <c r="R41" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="W41">
         <v>56</v>
@@ -13693,7 +13879,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D42">
         <v>2019</v>
@@ -13720,13 +13906,13 @@
         <v>693</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q42" t="s">
         <v>704</v>
       </c>
       <c r="R42" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="W42">
         <v>56</v>
@@ -13761,7 +13947,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D43">
         <v>2019</v>
@@ -13788,13 +13974,13 @@
         <v>693</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q43" t="s">
         <v>704</v>
       </c>
       <c r="R43" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="W43">
         <v>56</v>
@@ -13829,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D44">
         <v>2019</v>
@@ -13856,13 +14042,13 @@
         <v>693</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q44" t="s">
         <v>704</v>
       </c>
       <c r="R44" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="W44">
         <v>56</v>
@@ -13897,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D45">
         <v>2019</v>
@@ -13924,13 +14110,13 @@
         <v>693</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q45" t="s">
         <v>724</v>
       </c>
       <c r="R45" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="W45">
         <v>56</v>
@@ -13965,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D46">
         <v>2019</v>
@@ -13992,13 +14178,13 @@
         <v>693</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q46" t="s">
         <v>724</v>
       </c>
       <c r="R46" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="W46">
         <v>56</v>
@@ -14033,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D47">
         <v>2019</v>
@@ -14060,13 +14246,13 @@
         <v>693</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q47" t="s">
         <v>724</v>
       </c>
       <c r="R47" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="W47">
         <v>56</v>
@@ -14101,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D48">
         <v>2019</v>
@@ -14128,13 +14314,13 @@
         <v>693</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q48" t="s">
         <v>724</v>
       </c>
       <c r="R48" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="W48">
         <v>56</v>
@@ -14169,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D49">
         <v>2019</v>
@@ -14196,13 +14382,13 @@
         <v>693</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q49" t="s">
         <v>724</v>
       </c>
       <c r="R49" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="W49">
         <v>56</v>
@@ -14237,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D50">
         <v>2019</v>
@@ -14264,13 +14450,13 @@
         <v>693</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q50" t="s">
         <v>724</v>
       </c>
       <c r="R50" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="W50">
         <v>56</v>
@@ -14305,7 +14491,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D51">
         <v>2019</v>
@@ -14344,13 +14530,13 @@
         <v>703</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q51" t="s">
         <v>704</v>
       </c>
       <c r="R51" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="W51">
         <f>L51+M51</f>
@@ -14386,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D52">
         <v>2019</v>
@@ -14425,13 +14611,13 @@
         <v>703</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>704</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S52">
         <v>4.9800000000000004</v>
@@ -14476,7 +14662,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D53">
         <v>2019</v>
@@ -14515,13 +14701,13 @@
         <v>703</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>704</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="W53">
         <f t="shared" si="4"/>
@@ -14557,7 +14743,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D54">
         <v>2018</v>
@@ -14596,13 +14782,13 @@
         <v>703</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q54" t="s">
         <v>724</v>
       </c>
       <c r="R54" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S54">
         <v>4.04</v>
@@ -14647,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D55">
         <v>2018</v>
@@ -14686,13 +14872,13 @@
         <v>703</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="S55">
         <v>3.32</v>
@@ -14737,7 +14923,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D56">
         <v>2018</v>
@@ -14776,13 +14962,13 @@
         <v>703</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="S56">
         <v>0.02</v>
@@ -14827,7 +15013,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D57">
         <v>2018</v>
@@ -14866,13 +15052,13 @@
         <v>703</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S57">
         <v>7.0000000000000007E-2</v>
@@ -14917,7 +15103,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D58">
         <v>2018</v>
@@ -14956,13 +15142,13 @@
         <v>703</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="S58">
         <v>0.18</v>
@@ -15007,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D59">
         <v>2018</v>
@@ -15046,13 +15232,13 @@
         <v>703</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S59">
         <v>0.88</v>
@@ -15097,7 +15283,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D60">
         <v>2017</v>
@@ -15136,13 +15322,13 @@
         <v>701</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q60" t="s">
         <v>689</v>
       </c>
       <c r="R60" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="S60">
         <v>2.98</v>
@@ -15187,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D61">
         <v>2017</v>
@@ -15226,13 +15412,13 @@
         <v>701</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>689</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="S61">
         <v>-0.64</v>
@@ -15277,7 +15463,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D62">
         <v>2017</v>
@@ -15316,13 +15502,13 @@
         <v>701</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>689</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S62">
         <v>3.49</v>
@@ -15367,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D63">
         <v>2018</v>
@@ -15394,13 +15580,13 @@
         <v>717</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q63" t="s">
         <v>724</v>
       </c>
       <c r="R63" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="W63">
         <v>44</v>
@@ -15435,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D64">
         <v>2016</v>
@@ -15462,13 +15648,13 @@
         <v>693</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q64" t="s">
         <v>689</v>
       </c>
       <c r="R64" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="W64">
         <v>177</v>
@@ -15503,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D65">
         <v>2016</v>
@@ -15530,13 +15716,13 @@
         <v>693</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q65" t="s">
         <v>689</v>
       </c>
       <c r="R65" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="W65">
         <v>177</v>
@@ -15571,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D66">
         <v>2016</v>
@@ -15598,13 +15784,13 @@
         <v>693</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q66" t="s">
         <v>689</v>
       </c>
       <c r="R66" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="W66">
         <v>177</v>
@@ -15639,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D67">
         <v>2016</v>
@@ -15678,13 +15864,13 @@
         <v>703</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q67" t="s">
         <v>689</v>
       </c>
       <c r="R67" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="S67">
         <v>-1.63</v>
@@ -15729,7 +15915,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D68">
         <v>2016</v>
@@ -15768,13 +15954,13 @@
         <v>703</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>689</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="S68">
         <v>6.54</v>
@@ -15819,7 +16005,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D69">
         <v>2016</v>
@@ -15858,13 +16044,13 @@
         <v>703</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>689</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S69">
         <v>0.32</v>
@@ -15909,7 +16095,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D70">
         <v>2016</v>
@@ -15948,13 +16134,13 @@
         <v>703</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>689</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="S70">
         <v>2.4</v>
@@ -15999,7 +16185,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D71">
         <v>2016</v>
@@ -16038,13 +16224,13 @@
         <v>703</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>689</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S71">
         <v>7.5</v>
@@ -16089,7 +16275,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D72">
         <v>2016</v>
@@ -16128,13 +16314,13 @@
         <v>703</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>689</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="S72">
         <v>8.4</v>
@@ -16179,7 +16365,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D73">
         <v>2016</v>
@@ -16218,13 +16404,13 @@
         <v>703</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>689</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="S73">
         <v>-1.1499999999999999</v>
@@ -16269,7 +16455,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D74">
         <v>2016</v>
@@ -16308,13 +16494,13 @@
         <v>703</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>689</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="S74">
         <v>6.54</v>
@@ -16359,7 +16545,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D75">
         <v>2016</v>
@@ -16398,13 +16584,13 @@
         <v>703</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>689</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S75">
         <v>11.5</v>
@@ -16449,7 +16635,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D76">
         <v>2015</v>
@@ -16476,7 +16662,7 @@
         <v>717</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q76" t="s">
         <v>720</v>
@@ -16517,7 +16703,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D77">
         <v>2015</v>
@@ -16553,7 +16739,7 @@
         <v>703</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q77" t="s">
         <v>720</v>
@@ -16603,7 +16789,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D78">
         <v>2014</v>
@@ -16627,7 +16813,7 @@
         <v>717</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q78" t="s">
         <v>720</v>
@@ -16668,7 +16854,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D79">
         <v>2014</v>
@@ -16692,7 +16878,7 @@
         <v>717</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q79" t="s">
         <v>720</v>
@@ -16733,7 +16919,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D80">
         <v>2013</v>
@@ -16766,7 +16952,7 @@
         <v>701</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q80" t="s">
         <v>720</v>
@@ -16816,7 +17002,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D81">
         <v>2012</v>
@@ -16852,7 +17038,7 @@
         <v>701</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q81" t="s">
         <v>720</v>
@@ -16873,7 +17059,7 @@
         <v>0.75</v>
       </c>
       <c r="W81">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB81">
         <v>0.16</v>
@@ -16883,15 +17069,15 @@
       </c>
       <c r="AD81" s="2">
         <f t="shared" si="5"/>
-        <v>0.99459459459459465</v>
+        <v>0.99467140319715808</v>
       </c>
       <c r="AE81" s="2">
         <f t="shared" si="6"/>
-        <v>0.15913513513513514</v>
+        <v>0.15914742451154529</v>
       </c>
       <c r="AF81" s="2">
         <f t="shared" si="7"/>
-        <v>9.8921840759678609E-2</v>
+        <v>9.8937120033820339E-2</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.45">
@@ -16902,7 +17088,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D82">
         <v>2012</v>
@@ -16929,7 +17115,7 @@
         <v>693</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q82" t="s">
         <v>720</v>
@@ -16970,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D83">
         <v>2012</v>
@@ -16997,7 +17183,7 @@
         <v>693</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q83" t="s">
         <v>720</v>
@@ -17038,7 +17224,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D84">
         <v>2010</v>
@@ -17077,13 +17263,13 @@
         <v>703</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q84" t="s">
         <v>724</v>
       </c>
       <c r="R84" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S84">
         <v>2</v>
@@ -17128,7 +17314,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D85">
         <v>2010</v>
@@ -17167,13 +17353,13 @@
         <v>703</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="S85">
         <v>-0.1</v>
@@ -17218,7 +17404,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D86">
         <v>2010</v>
@@ -17257,13 +17443,13 @@
         <v>703</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="S86">
         <v>0.39</v>
@@ -17308,7 +17494,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D87">
         <v>2005</v>
@@ -17344,7 +17530,7 @@
         <v>701</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q87" t="s">
         <v>720</v>
@@ -17395,7 +17581,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D88">
         <v>2005</v>
@@ -17431,13 +17617,13 @@
         <v>701</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="S88">
         <v>6.54</v>
@@ -17482,7 +17668,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D89">
         <v>2005</v>
@@ -17518,13 +17704,13 @@
         <v>701</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="S89">
         <v>6.39</v>
@@ -17569,7 +17755,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D90">
         <v>2005</v>
@@ -17605,13 +17791,13 @@
         <v>701</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>724</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="S90">
         <v>5.75</v>
@@ -17656,7 +17842,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D91">
         <v>1996</v>
@@ -17695,7 +17881,7 @@
         <v>701</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q91" t="s">
         <v>724</v>
@@ -17746,7 +17932,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D92">
         <v>1996</v>
@@ -17785,13 +17971,13 @@
         <v>701</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="R92" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S92">
         <v>-9.6999999999999993</v>
@@ -17836,7 +18022,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D93">
         <v>1996</v>
@@ -17875,13 +18061,13 @@
         <v>701</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R93" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="S93">
         <v>2.9</v>
@@ -17926,7 +18112,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D94">
         <v>1996</v>
@@ -17965,7 +18151,7 @@
         <v>701</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>730</v>
@@ -18016,7 +18202,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D95">
         <v>1994</v>
@@ -18100,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D96">
         <v>1994</v>
@@ -18136,10 +18322,10 @@
         <v>703</v>
       </c>
       <c r="Q96" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="R96" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="S96">
         <v>3.08</v>
@@ -18184,7 +18370,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D97">
         <v>1994</v>
@@ -18220,7 +18406,7 @@
         <v>703</v>
       </c>
       <c r="P97" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q97" t="s">
         <v>720</v>
@@ -18271,7 +18457,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D98">
         <v>1994</v>
@@ -18301,7 +18487,7 @@
         <v>720</v>
       </c>
       <c r="R98" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="S98">
         <v>0.13</v>
@@ -18346,7 +18532,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D99">
         <v>1994</v>
@@ -18376,7 +18562,7 @@
         <v>720</v>
       </c>
       <c r="R99" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="S99">
         <v>0.06</v>
@@ -18421,7 +18607,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D100">
         <v>1994</v>
@@ -18451,7 +18637,7 @@
         <v>720</v>
       </c>
       <c r="R100" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -18496,7 +18682,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D101">
         <v>1994</v>
@@ -18526,7 +18712,7 @@
         <v>720</v>
       </c>
       <c r="R101" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S101">
         <v>0.9</v>
@@ -18571,7 +18757,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D102">
         <v>1994</v>
@@ -18601,7 +18787,7 @@
         <v>720</v>
       </c>
       <c r="R102" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="S102">
         <v>0.6</v>
@@ -18646,7 +18832,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D103">
         <v>1994</v>
@@ -18676,7 +18862,7 @@
         <v>720</v>
       </c>
       <c r="R103" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="S103">
         <v>0.7</v>
@@ -18721,7 +18907,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D104">
         <v>1994</v>
@@ -18751,7 +18937,7 @@
         <v>720</v>
       </c>
       <c r="R104" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S104">
         <v>0.5</v>
@@ -18796,7 +18982,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D105">
         <v>1994</v>
@@ -18826,7 +19012,7 @@
         <v>720</v>
       </c>
       <c r="R105" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="S105">
         <v>0.7</v>
@@ -18871,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D106">
         <v>1994</v>
@@ -18907,7 +19093,7 @@
         <v>703</v>
       </c>
       <c r="P106" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q106" t="s">
         <v>724</v>
@@ -18958,7 +19144,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D107">
         <v>1994</v>
@@ -18994,7 +19180,7 @@
         <v>703</v>
       </c>
       <c r="P107" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q107" t="s">
         <v>730</v>
@@ -19045,10 +19231,10 @@
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D108" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E108">
         <v>107</v>
@@ -19072,13 +19258,13 @@
         <v>703</v>
       </c>
       <c r="P108" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q108" t="s">
         <v>724</v>
       </c>
       <c r="R108" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="S108">
         <v>0.1716</v>
@@ -19123,10 +19309,10 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D109" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E109">
         <v>108</v>
@@ -19150,7 +19336,7 @@
         <v>703</v>
       </c>
       <c r="P109" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q109" t="s">
         <v>730</v>
@@ -19201,10 +19387,10 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D110" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E110">
         <v>109</v>
@@ -19228,13 +19414,13 @@
         <v>703</v>
       </c>
       <c r="P110" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q110" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="R110" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="S110">
         <v>-2.4024000000000001</v>
@@ -19279,10 +19465,10 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D111" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E111">
         <v>110</v>
@@ -19306,13 +19492,13 @@
         <v>703</v>
       </c>
       <c r="P111" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q111" t="s">
         <v>704</v>
       </c>
       <c r="R111" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S111">
         <v>1.2333000000000001</v>
@@ -19357,10 +19543,10 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D112" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E112">
         <v>111</v>
@@ -19383,14 +19569,11 @@
       <c r="O112" t="s">
         <v>703</v>
       </c>
-      <c r="P112" t="s">
-        <v>733</v>
-      </c>
       <c r="Q112" t="s">
         <v>704</v>
       </c>
       <c r="R112" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="S112">
         <v>9.7385000000000002</v>
@@ -19435,10 +19618,10 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D113" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E113">
         <v>112</v>
@@ -19462,13 +19645,13 @@
         <v>703</v>
       </c>
       <c r="P113" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q113" t="s">
         <v>704</v>
       </c>
       <c r="R113" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="S113">
         <v>14.4582555</v>
@@ -19513,10 +19696,10 @@
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D114" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E114">
         <v>113</v>
@@ -19540,13 +19723,13 @@
         <v>703</v>
       </c>
       <c r="P114" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q114" t="s">
         <v>704</v>
       </c>
       <c r="R114" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="S114">
         <v>16.5448789</v>
@@ -19591,10 +19774,10 @@
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D115" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E115">
         <v>114</v>
@@ -19618,7 +19801,7 @@
         <v>703</v>
       </c>
       <c r="P115" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
       <c r="Q115" t="s">
         <v>704</v>
@@ -19669,10 +19852,10 @@
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D116" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E116">
         <v>115</v>
@@ -19684,13 +19867,13 @@
         <v>695</v>
       </c>
       <c r="P116" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q116" t="s">
         <v>724</v>
       </c>
       <c r="R116" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="W116">
         <v>91</v>
@@ -19725,10 +19908,10 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D117" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E117">
         <v>116</v>
@@ -19740,13 +19923,13 @@
         <v>695</v>
       </c>
       <c r="P117" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q117" t="s">
         <v>724</v>
       </c>
       <c r="R117" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="W117">
         <v>91</v>
@@ -19781,10 +19964,10 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D118" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E118">
         <v>117</v>
@@ -19796,13 +19979,13 @@
         <v>695</v>
       </c>
       <c r="P118" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q118" t="s">
         <v>724</v>
       </c>
       <c r="R118" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="W118">
         <v>91</v>
@@ -19837,10 +20020,10 @@
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D119" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E119">
         <v>118</v>
@@ -19852,13 +20035,13 @@
         <v>695</v>
       </c>
       <c r="P119" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q119" t="s">
         <v>724</v>
       </c>
       <c r="R119" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W119">
         <v>91</v>
@@ -19893,10 +20076,10 @@
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D120" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E120">
         <v>119</v>
@@ -19908,13 +20091,13 @@
         <v>695</v>
       </c>
       <c r="P120" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q120" t="s">
         <v>724</v>
       </c>
       <c r="R120" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="W120">
         <v>90</v>
@@ -19949,10 +20132,10 @@
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D121" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E121">
         <v>120</v>
@@ -19964,13 +20147,13 @@
         <v>695</v>
       </c>
       <c r="P121" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q121" t="s">
         <v>724</v>
       </c>
       <c r="R121" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="W121">
         <v>90</v>
@@ -20005,10 +20188,10 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D122" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E122">
         <v>121</v>
@@ -20020,13 +20203,13 @@
         <v>695</v>
       </c>
       <c r="P122" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q122" t="s">
         <v>724</v>
       </c>
       <c r="R122" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="W122">
         <v>90</v>
@@ -20061,10 +20244,10 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D123" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E123">
         <v>122</v>
@@ -20076,13 +20259,13 @@
         <v>695</v>
       </c>
       <c r="P123" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q123" t="s">
         <v>724</v>
       </c>
       <c r="R123" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="W123">
         <v>90</v>
@@ -20117,10 +20300,10 @@
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D124" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E124">
         <v>123</v>
@@ -20132,13 +20315,13 @@
         <v>713</v>
       </c>
       <c r="P124" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q124" t="s">
         <v>724</v>
       </c>
       <c r="R124" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="W124">
         <v>89</v>
@@ -20173,10 +20356,10 @@
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D125" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E125">
         <v>124</v>
@@ -20188,13 +20371,13 @@
         <v>713</v>
       </c>
       <c r="P125" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q125" t="s">
         <v>724</v>
       </c>
       <c r="R125" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="W125">
         <v>89</v>
@@ -20229,10 +20412,10 @@
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D126" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E126">
         <v>125</v>
@@ -20244,13 +20427,13 @@
         <v>713</v>
       </c>
       <c r="P126" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q126" t="s">
         <v>724</v>
       </c>
       <c r="R126" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="W126">
         <v>89</v>
@@ -20285,10 +20468,10 @@
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D127" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E127">
         <v>126</v>
@@ -20300,13 +20483,13 @@
         <v>713</v>
       </c>
       <c r="P127" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q127" t="s">
         <v>724</v>
       </c>
       <c r="R127" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="W127">
         <v>89</v>
@@ -20341,10 +20524,10 @@
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D128" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E128">
         <v>127</v>
@@ -20356,13 +20539,13 @@
         <v>695</v>
       </c>
       <c r="P128" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q128" t="s">
         <v>724</v>
       </c>
       <c r="R128" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="W128">
         <v>88</v>
@@ -20397,10 +20580,10 @@
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D129" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E129">
         <v>128</v>
@@ -20412,13 +20595,13 @@
         <v>695</v>
       </c>
       <c r="P129" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q129" t="s">
         <v>724</v>
       </c>
       <c r="R129" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="W129">
         <v>88</v>
@@ -20453,10 +20636,10 @@
         <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D130" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E130">
         <v>129</v>
@@ -20468,13 +20651,13 @@
         <v>695</v>
       </c>
       <c r="P130" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q130" t="s">
         <v>724</v>
       </c>
       <c r="R130" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="W130">
         <v>88</v>
@@ -20509,10 +20692,10 @@
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D131" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E131">
         <v>130</v>
@@ -20524,13 +20707,13 @@
         <v>695</v>
       </c>
       <c r="P131" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q131" t="s">
         <v>724</v>
       </c>
       <c r="R131" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="W131">
         <v>88</v>
@@ -20565,10 +20748,10 @@
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D132" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E132">
         <v>131</v>
@@ -20580,13 +20763,13 @@
         <v>695</v>
       </c>
       <c r="P132" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q132" t="s">
         <v>724</v>
       </c>
       <c r="R132" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="W132">
         <v>88</v>
@@ -20621,10 +20804,10 @@
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D133" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E133">
         <v>132</v>
@@ -20636,13 +20819,13 @@
         <v>695</v>
       </c>
       <c r="P133" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q133" t="s">
         <v>724</v>
       </c>
       <c r="R133" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="W133">
         <v>88</v>
@@ -20677,10 +20860,10 @@
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D134" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E134">
         <v>133</v>
@@ -20692,13 +20875,13 @@
         <v>695</v>
       </c>
       <c r="P134" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q134" t="s">
         <v>724</v>
       </c>
       <c r="R134" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="W134">
         <v>88</v>
@@ -20733,10 +20916,10 @@
         <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D135" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E135">
         <v>134</v>
@@ -20748,13 +20931,13 @@
         <v>695</v>
       </c>
       <c r="P135" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q135" t="s">
         <v>724</v>
       </c>
       <c r="R135" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="W135">
         <v>88</v>
@@ -20789,10 +20972,10 @@
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D136" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E136">
         <v>135</v>
@@ -20804,13 +20987,13 @@
         <v>695</v>
       </c>
       <c r="P136" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q136" t="s">
         <v>724</v>
       </c>
       <c r="R136" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="W136">
         <v>87</v>
@@ -20845,10 +21028,10 @@
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D137" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E137">
         <v>136</v>
@@ -20860,13 +21043,13 @@
         <v>695</v>
       </c>
       <c r="P137" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q137" t="s">
         <v>724</v>
       </c>
       <c r="R137" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="W137">
         <v>87</v>
@@ -20901,10 +21084,10 @@
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D138" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E138">
         <v>137</v>
@@ -20916,13 +21099,13 @@
         <v>695</v>
       </c>
       <c r="P138" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q138" t="s">
         <v>724</v>
       </c>
       <c r="R138" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="W138">
         <v>87</v>
@@ -20957,10 +21140,10 @@
         <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D139" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E139">
         <v>138</v>
@@ -20972,13 +21155,13 @@
         <v>695</v>
       </c>
       <c r="P139" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q139" t="s">
         <v>724</v>
       </c>
       <c r="R139" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="W139">
         <v>87</v>
@@ -21013,10 +21196,10 @@
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D140" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E140">
         <v>139</v>
@@ -21028,13 +21211,13 @@
         <v>695</v>
       </c>
       <c r="P140" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q140" t="s">
         <v>724</v>
       </c>
       <c r="R140" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="W140">
         <v>87</v>
@@ -21069,10 +21252,10 @@
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D141" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E141">
         <v>140</v>
@@ -21084,13 +21267,13 @@
         <v>695</v>
       </c>
       <c r="P141" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q141" t="s">
         <v>724</v>
       </c>
       <c r="R141" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="W141">
         <v>87</v>
@@ -21125,10 +21308,10 @@
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D142" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E142">
         <v>141</v>
@@ -21140,13 +21323,13 @@
         <v>695</v>
       </c>
       <c r="P142" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q142" t="s">
         <v>724</v>
       </c>
       <c r="R142" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="W142">
         <v>87</v>
@@ -21181,10 +21364,10 @@
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D143" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E143">
         <v>142</v>
@@ -21196,13 +21379,13 @@
         <v>695</v>
       </c>
       <c r="P143" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q143" t="s">
         <v>724</v>
       </c>
       <c r="R143" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="W143">
         <v>87</v>
@@ -21237,10 +21420,10 @@
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D144" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E144">
         <v>143</v>
@@ -21252,13 +21435,13 @@
         <v>713</v>
       </c>
       <c r="P144" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q144" t="s">
         <v>724</v>
       </c>
       <c r="R144" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="W144">
         <v>86</v>
@@ -21293,10 +21476,10 @@
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D145" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E145">
         <v>144</v>
@@ -21308,13 +21491,13 @@
         <v>713</v>
       </c>
       <c r="P145" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q145" t="s">
         <v>724</v>
       </c>
       <c r="R145" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="W145">
         <v>86</v>
@@ -21349,10 +21532,10 @@
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D146" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E146">
         <v>145</v>
@@ -21364,13 +21547,13 @@
         <v>713</v>
       </c>
       <c r="P146" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q146" t="s">
         <v>724</v>
       </c>
       <c r="R146" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="W146">
         <v>86</v>
@@ -21405,10 +21588,10 @@
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D147" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E147">
         <v>146</v>
@@ -21420,13 +21603,13 @@
         <v>713</v>
       </c>
       <c r="P147" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q147" t="s">
         <v>724</v>
       </c>
       <c r="R147" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="W147">
         <v>86</v>
@@ -21461,10 +21644,10 @@
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D148" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E148">
         <v>147</v>
@@ -21476,13 +21659,13 @@
         <v>713</v>
       </c>
       <c r="P148" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q148" t="s">
         <v>724</v>
       </c>
       <c r="R148" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="W148">
         <v>86</v>
@@ -21517,10 +21700,10 @@
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D149" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E149">
         <v>148</v>
@@ -21532,13 +21715,13 @@
         <v>713</v>
       </c>
       <c r="P149" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q149" t="s">
         <v>724</v>
       </c>
       <c r="R149" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="W149">
         <v>86</v>
@@ -21573,10 +21756,10 @@
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D150" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E150">
         <v>149</v>
@@ -21588,13 +21771,13 @@
         <v>713</v>
       </c>
       <c r="P150" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q150" t="s">
         <v>724</v>
       </c>
       <c r="R150" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="W150">
         <v>86</v>
@@ -21629,10 +21812,10 @@
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D151" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E151">
         <v>150</v>
@@ -21644,13 +21827,13 @@
         <v>713</v>
       </c>
       <c r="P151" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q151" t="s">
         <v>724</v>
       </c>
       <c r="R151" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="W151">
         <v>86</v>
@@ -21685,10 +21868,10 @@
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D152" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E152">
         <v>151</v>
@@ -21700,13 +21883,13 @@
         <v>695</v>
       </c>
       <c r="P152" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q152" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R152" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="W152">
         <v>91</v>
@@ -21741,10 +21924,10 @@
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D153" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E153">
         <v>152</v>
@@ -21756,13 +21939,13 @@
         <v>695</v>
       </c>
       <c r="P153" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q153" t="s">
+        <v>724</v>
+      </c>
+      <c r="R153" t="s">
         <v>922</v>
-      </c>
-      <c r="R153" t="s">
-        <v>924</v>
       </c>
       <c r="W153">
         <v>91</v>
@@ -21797,10 +21980,10 @@
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D154" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E154">
         <v>153</v>
@@ -21812,13 +21995,13 @@
         <v>695</v>
       </c>
       <c r="P154" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q154" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R154" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="W154">
         <v>91</v>
@@ -21853,10 +22036,10 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D155" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E155">
         <v>154</v>
@@ -21868,13 +22051,13 @@
         <v>695</v>
       </c>
       <c r="P155" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q155" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R155" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="W155">
         <v>91</v>
@@ -21909,10 +22092,10 @@
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D156" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E156">
         <v>155</v>
@@ -21924,13 +22107,13 @@
         <v>695</v>
       </c>
       <c r="P156" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q156" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R156" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="W156">
         <v>90</v>
@@ -21965,10 +22148,10 @@
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D157" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E157">
         <v>156</v>
@@ -21980,13 +22163,13 @@
         <v>695</v>
       </c>
       <c r="P157" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q157" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R157" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="W157">
         <v>90</v>
@@ -22021,10 +22204,10 @@
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D158" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E158">
         <v>157</v>
@@ -22036,13 +22219,13 @@
         <v>695</v>
       </c>
       <c r="P158" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q158" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R158" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="W158">
         <v>90</v>
@@ -22077,10 +22260,10 @@
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D159" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E159">
         <v>158</v>
@@ -22092,13 +22275,13 @@
         <v>695</v>
       </c>
       <c r="P159" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q159" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R159" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="W159">
         <v>90</v>
@@ -22133,10 +22316,10 @@
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D160" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E160">
         <v>159</v>
@@ -22148,13 +22331,13 @@
         <v>713</v>
       </c>
       <c r="P160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q160" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R160" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="W160">
         <v>89</v>
@@ -22189,10 +22372,10 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D161" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E161">
         <v>160</v>
@@ -22204,13 +22387,13 @@
         <v>713</v>
       </c>
       <c r="P161" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q161" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R161" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="W161">
         <v>89</v>
@@ -22245,10 +22428,10 @@
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D162" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E162">
         <v>161</v>
@@ -22260,13 +22443,13 @@
         <v>713</v>
       </c>
       <c r="P162" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q162" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R162" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="W162">
         <v>89</v>
@@ -22301,10 +22484,10 @@
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D163" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E163">
         <v>162</v>
@@ -22316,13 +22499,13 @@
         <v>713</v>
       </c>
       <c r="P163" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q163" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R163" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="W163">
         <v>89</v>
@@ -22357,10 +22540,10 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D164" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E164">
         <v>163</v>
@@ -22372,13 +22555,13 @@
         <v>695</v>
       </c>
       <c r="P164" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q164" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R164" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="W164">
         <v>91</v>
@@ -22413,10 +22596,10 @@
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D165" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E165">
         <v>164</v>
@@ -22428,13 +22611,13 @@
         <v>695</v>
       </c>
       <c r="P165" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q165" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R165" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="W165">
         <v>91</v>
@@ -22469,10 +22652,10 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D166" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E166">
         <v>165</v>
@@ -22484,13 +22667,13 @@
         <v>695</v>
       </c>
       <c r="P166" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q166" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R166" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="W166">
         <v>91</v>
@@ -22525,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D167" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E167">
         <v>166</v>
@@ -22540,13 +22723,13 @@
         <v>695</v>
       </c>
       <c r="P167" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q167" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R167" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="W167">
         <v>91</v>
@@ -22581,10 +22764,10 @@
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D168" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E168">
         <v>167</v>
@@ -22596,13 +22779,13 @@
         <v>695</v>
       </c>
       <c r="P168" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q168" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R168" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="W168">
         <v>90</v>
@@ -22637,10 +22820,10 @@
         <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D169" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E169">
         <v>168</v>
@@ -22652,13 +22835,13 @@
         <v>695</v>
       </c>
       <c r="P169" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q169" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R169" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="W169">
         <v>90</v>
@@ -22693,10 +22876,10 @@
         <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D170" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E170">
         <v>169</v>
@@ -22708,13 +22891,13 @@
         <v>695</v>
       </c>
       <c r="P170" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q170" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R170" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="W170">
         <v>90</v>
@@ -22749,10 +22932,10 @@
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D171" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E171">
         <v>170</v>
@@ -22764,13 +22947,13 @@
         <v>695</v>
       </c>
       <c r="P171" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q171" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R171" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="W171">
         <v>90</v>
@@ -22805,10 +22988,10 @@
         <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D172" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E172">
         <v>171</v>
@@ -22820,13 +23003,13 @@
         <v>713</v>
       </c>
       <c r="P172" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q172" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R172" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="W172">
         <v>89</v>
@@ -22861,10 +23044,10 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D173" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E173">
         <v>172</v>
@@ -22876,13 +23059,13 @@
         <v>713</v>
       </c>
       <c r="P173" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q173" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R173" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="W173">
         <v>89</v>
@@ -22917,10 +23100,10 @@
         <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D174" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E174">
         <v>173</v>
@@ -22932,13 +23115,13 @@
         <v>713</v>
       </c>
       <c r="P174" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q174" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R174" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="W174">
         <v>89</v>
@@ -22973,10 +23156,10 @@
         <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D175" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E175">
         <v>174</v>
@@ -22988,13 +23171,13 @@
         <v>713</v>
       </c>
       <c r="P175" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q175" t="s">
-        <v>922</v>
+        <v>724</v>
       </c>
       <c r="R175" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="W175">
         <v>89</v>
@@ -23029,10 +23212,10 @@
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D176" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E176">
         <v>175</v>
@@ -23044,13 +23227,13 @@
         <v>695</v>
       </c>
       <c r="P176" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q176" t="s">
         <v>689</v>
       </c>
       <c r="R176" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="W176">
         <v>90</v>
@@ -23085,10 +23268,10 @@
         <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D177" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E177">
         <v>176</v>
@@ -23100,13 +23283,13 @@
         <v>695</v>
       </c>
       <c r="P177" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q177" t="s">
         <v>689</v>
       </c>
       <c r="R177" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="W177">
         <v>90</v>
@@ -23141,10 +23324,10 @@
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D178" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E178">
         <v>177</v>
@@ -23156,13 +23339,13 @@
         <v>695</v>
       </c>
       <c r="P178" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q178" t="s">
         <v>689</v>
       </c>
       <c r="R178" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="W178">
         <v>90</v>
@@ -23197,10 +23380,10 @@
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D179" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E179">
         <v>178</v>
@@ -23212,13 +23395,13 @@
         <v>695</v>
       </c>
       <c r="P179" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q179" t="s">
         <v>689</v>
       </c>
       <c r="R179" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="W179">
         <v>91</v>
@@ -23253,10 +23436,10 @@
         <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D180" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E180">
         <v>179</v>
@@ -23268,13 +23451,13 @@
         <v>695</v>
       </c>
       <c r="P180" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q180" t="s">
         <v>689</v>
       </c>
       <c r="R180" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="W180">
         <v>91</v>
@@ -23309,10 +23492,10 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D181" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E181">
         <v>180</v>
@@ -23324,13 +23507,13 @@
         <v>695</v>
       </c>
       <c r="P181" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q181" t="s">
         <v>689</v>
       </c>
       <c r="R181" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="W181">
         <v>91</v>
@@ -23365,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D182" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E182">
         <v>181</v>
@@ -23380,13 +23563,13 @@
         <v>695</v>
       </c>
       <c r="P182" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q182" t="s">
         <v>689</v>
       </c>
       <c r="R182" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="W182">
         <v>89</v>
@@ -23421,10 +23604,10 @@
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D183" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E183">
         <v>182</v>
@@ -23436,13 +23619,13 @@
         <v>695</v>
       </c>
       <c r="P183" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q183" t="s">
         <v>689</v>
       </c>
       <c r="R183" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="W183">
         <v>89</v>
@@ -23477,10 +23660,10 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D184" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E184">
         <v>183</v>
@@ -23492,13 +23675,13 @@
         <v>695</v>
       </c>
       <c r="P184" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q184" t="s">
         <v>689</v>
       </c>
       <c r="R184" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="W184">
         <v>89</v>
@@ -23533,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D185" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E185">
         <v>184</v>
@@ -23548,13 +23731,13 @@
         <v>695</v>
       </c>
       <c r="P185" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q185" t="s">
         <v>689</v>
       </c>
       <c r="R185" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="W185">
         <v>90</v>
@@ -23589,10 +23772,10 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D186" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E186">
         <v>185</v>
@@ -23604,13 +23787,13 @@
         <v>695</v>
       </c>
       <c r="P186" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q186" t="s">
         <v>689</v>
       </c>
       <c r="R186" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="W186">
         <v>90</v>
@@ -23645,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D187" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E187">
         <v>186</v>
@@ -23660,13 +23843,13 @@
         <v>695</v>
       </c>
       <c r="P187" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q187" t="s">
         <v>689</v>
       </c>
       <c r="R187" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="W187">
         <v>90</v>
@@ -23701,10 +23884,10 @@
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D188" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E188">
         <v>187</v>
@@ -23716,13 +23899,13 @@
         <v>713</v>
       </c>
       <c r="P188" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q188" t="s">
         <v>689</v>
       </c>
       <c r="R188" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="W188">
         <v>88</v>
@@ -23757,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D189" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E189">
         <v>188</v>
@@ -23772,13 +23955,13 @@
         <v>713</v>
       </c>
       <c r="P189" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q189" t="s">
         <v>689</v>
       </c>
       <c r="R189" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="W189">
         <v>88</v>
@@ -23813,10 +23996,10 @@
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D190" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E190">
         <v>189</v>
@@ -23828,13 +24011,13 @@
         <v>713</v>
       </c>
       <c r="P190" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q190" t="s">
         <v>689</v>
       </c>
       <c r="R190" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="W190">
         <v>88</v>
@@ -23869,10 +24052,10 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D191" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E191">
         <v>190</v>
@@ -23884,13 +24067,13 @@
         <v>713</v>
       </c>
       <c r="P191" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q191" t="s">
         <v>689</v>
       </c>
       <c r="R191" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="W191">
         <v>89</v>
@@ -23925,10 +24108,10 @@
         <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D192" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E192">
         <v>191</v>
@@ -23940,13 +24123,13 @@
         <v>713</v>
       </c>
       <c r="P192" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q192" t="s">
         <v>689</v>
       </c>
       <c r="R192" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="W192">
         <v>89</v>
@@ -23981,10 +24164,10 @@
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D193" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E193">
         <v>192</v>
@@ -23996,13 +24179,13 @@
         <v>713</v>
       </c>
       <c r="P193" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q193" t="s">
         <v>689</v>
       </c>
       <c r="R193" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="W193">
         <v>89</v>
@@ -24033,6 +24216,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -24052,155 +24236,155 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>708</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>822</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>823</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>825</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>827</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>829</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>831</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>833</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>833</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>835</v>
-      </c>
       <c r="C8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>835</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>837</v>
-      </c>
       <c r="C9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>837</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>839</v>
-      </c>
       <c r="C10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -24220,6 +24404,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F3729CDE7EAEF44A53FFF2D231E047F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fa77f95735d7b1684a0f9f1d46cbd95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2efe24bd-a7c1-481d-a426-3119fcfe7149" xmlns:ns4="061b3361-47e6-4fd1-b7fc-4e45b1c77d33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9154525a1bae266bab7d07ed10795e6b" ns3:_="" ns4:_="">
     <xsd:import namespace="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
@@ -24442,36 +24641,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
-    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24494,9 +24667,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
+    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/meta_spreadsheet.xlsx
+++ b/meta_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/ajg17d_fsu_edu/Documents/Florida State University/Research Projects/meta_suicide_erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1082" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FEB5FDB-2B94-4E4B-A2F7-8F9E3BD5DF10}"/>
+  <xr:revisionPtr revIDLastSave="1084" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09BEBDD4-7CA1-4F87-B6DA-D60AA999306C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="2" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
+    <workbookView xWindow="353" yWindow="3600" windowWidth="4282" windowHeight="8287" firstSheet="2" activeTab="2" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -8917,11 +8917,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9CFB2-E36F-473E-93F7-18105F56F26D}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10762,9 +10762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E90853A-A82C-4185-AE1B-AC3373DE1028}">
   <dimension ref="A1:AF193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G76" sqref="G76"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W77" sqref="W77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24404,21 +24404,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F3729CDE7EAEF44A53FFF2D231E047F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fa77f95735d7b1684a0f9f1d46cbd95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2efe24bd-a7c1-481d-a426-3119fcfe7149" xmlns:ns4="061b3361-47e6-4fd1-b7fc-4e45b1c77d33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9154525a1bae266bab7d07ed10795e6b" ns3:_="" ns4:_="">
     <xsd:import namespace="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
@@ -24641,10 +24626,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
+    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24667,20 +24678,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
-    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/meta_spreadsheet.xlsx
+++ b/meta_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/ajg17d_fsu_edu/Documents/Florida State University/Research Projects/meta_suicide_erp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajg17d\OneDrive - Florida State University\Florida State University\Research Projects\meta_suicide_erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1084" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09BEBDD4-7CA1-4F87-B6DA-D60AA999306C}"/>
+  <xr:revisionPtr revIDLastSave="1089" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{988859FB-D83D-457E-9418-C0D7AB3BABF0}"/>
   <bookViews>
-    <workbookView xWindow="353" yWindow="3600" windowWidth="4282" windowHeight="8287" firstSheet="2" activeTab="2" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="971">
   <si>
     <t>Database</t>
   </si>
@@ -2944,6 +2944,12 @@
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>Date2</t>
+  </si>
+  <si>
+    <t># New</t>
   </si>
 </sst>
 </file>
@@ -4394,19 +4400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C14CA69-90BD-40F0-91ED-5F03B1240544}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4419,8 +4426,14 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4433,8 +4446,14 @@
       <c r="D2">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="3">
+        <v>44120</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4448,7 +4467,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4462,7 +4481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4476,7 +4495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6">
         <f>SUM(D2:D5)</f>
         <v>270</v>
@@ -4496,14 +4515,14 @@
       <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4526,7 +4545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4549,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4572,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -4595,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -4618,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4641,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -4664,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -4687,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -4710,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -4733,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -4753,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -4776,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -4799,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -4822,7 +4841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -4845,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -4868,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -4891,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -4914,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -4937,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -4960,7 +4979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -4983,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -5006,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -5029,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -5052,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -5075,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -5098,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -5121,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -5144,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -5167,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -5190,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -5213,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -5236,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -5259,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -5282,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -5305,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -5328,7 +5347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>171</v>
       </c>
@@ -5348,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>661</v>
       </c>
@@ -5371,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -5391,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>684</v>
       </c>
@@ -5414,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>521</v>
       </c>
@@ -5437,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>543</v>
       </c>
@@ -5460,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>578</v>
       </c>
@@ -5483,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5506,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>644</v>
       </c>
@@ -5529,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>647</v>
       </c>
@@ -5552,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>663</v>
       </c>
@@ -5572,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>666</v>
       </c>
@@ -5592,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>670</v>
       </c>
@@ -5612,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>672</v>
       </c>
@@ -5632,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>675</v>
       </c>
@@ -5652,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -5675,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5698,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -5721,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -5744,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -5767,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5790,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -5813,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -5836,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -5859,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -5882,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -5905,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -5928,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -5951,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -5974,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -5997,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -6020,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -6043,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -6060,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -6083,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -6106,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -6129,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -6152,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -6175,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -6198,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -6218,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -6241,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -6264,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -6287,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -6310,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -6333,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -6356,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -6379,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -6402,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -6425,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -6448,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -6471,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -6494,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -6517,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -6537,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -6560,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -6580,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -6603,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -6626,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>123</v>
       </c>
@@ -6649,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -6672,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -6695,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -6718,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -6741,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -6764,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>130</v>
       </c>
@@ -6787,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -6810,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -6833,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>133</v>
       </c>
@@ -6856,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>134</v>
       </c>
@@ -6879,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>135</v>
       </c>
@@ -6902,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>137</v>
       </c>
@@ -6925,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -6948,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>139</v>
       </c>
@@ -6971,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>140</v>
       </c>
@@ -6994,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>141</v>
       </c>
@@ -7017,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -7040,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -7063,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -7086,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>146</v>
       </c>
@@ -7106,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -7129,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>148</v>
       </c>
@@ -7152,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>150</v>
       </c>
@@ -7175,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -7198,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -7221,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>154</v>
       </c>
@@ -7244,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -7267,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>156</v>
       </c>
@@ -7290,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>157</v>
       </c>
@@ -7310,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>158</v>
       </c>
@@ -7333,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>159</v>
       </c>
@@ -7356,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>160</v>
       </c>
@@ -7379,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>161</v>
       </c>
@@ -7402,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>162</v>
       </c>
@@ -7425,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -7448,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>164</v>
       </c>
@@ -7471,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -7491,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -7511,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -7534,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>169</v>
       </c>
@@ -7557,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>170</v>
       </c>
@@ -7577,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>172</v>
       </c>
@@ -7597,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -7620,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>174</v>
       </c>
@@ -7643,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>175</v>
       </c>
@@ -7666,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>176</v>
       </c>
@@ -7689,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>177</v>
       </c>
@@ -7712,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>178</v>
       </c>
@@ -7735,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>179</v>
       </c>
@@ -7758,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>180</v>
       </c>
@@ -7781,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>181</v>
       </c>
@@ -7804,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>182</v>
       </c>
@@ -7827,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>183</v>
       </c>
@@ -7847,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>185</v>
       </c>
@@ -7870,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>186</v>
       </c>
@@ -7893,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -7913,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>188</v>
       </c>
@@ -7933,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>189</v>
       </c>
@@ -7953,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -7973,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>191</v>
       </c>
@@ -7993,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -8016,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>537</v>
       </c>
@@ -8036,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>539</v>
       </c>
@@ -8059,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>565</v>
       </c>
@@ -8082,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>555</v>
       </c>
@@ -8105,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>527</v>
       </c>
@@ -8128,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>523</v>
       </c>
@@ -8151,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>566</v>
       </c>
@@ -8171,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>559</v>
       </c>
@@ -8194,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>547</v>
       </c>
@@ -8217,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>558</v>
       </c>
@@ -8240,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>533</v>
       </c>
@@ -8263,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>129</v>
       </c>
@@ -8286,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>551</v>
       </c>
@@ -8306,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>567</v>
       </c>
@@ -8329,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>571</v>
       </c>
@@ -8352,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>574</v>
       </c>
@@ -8375,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>581</v>
       </c>
@@ -8395,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>588</v>
       </c>
@@ -8418,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>592</v>
       </c>
@@ -8438,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>594</v>
       </c>
@@ -8458,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>597</v>
       </c>
@@ -8478,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>600</v>
       </c>
@@ -8501,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>604</v>
       </c>
@@ -8524,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>608</v>
       </c>
@@ -8547,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>611</v>
       </c>
@@ -8567,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>613</v>
       </c>
@@ -8587,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>615</v>
       </c>
@@ -8610,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>619</v>
       </c>
@@ -8633,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>622</v>
       </c>
@@ -8656,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>625</v>
       </c>
@@ -8679,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>628</v>
       </c>
@@ -8699,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>630</v>
       </c>
@@ -8722,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>634</v>
       </c>
@@ -8745,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>637</v>
       </c>
@@ -8768,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>651</v>
       </c>
@@ -8791,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>655</v>
       </c>
@@ -8814,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>656</v>
       </c>
@@ -8837,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>659</v>
       </c>
@@ -8857,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>678</v>
       </c>
@@ -8877,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>681</v>
       </c>
@@ -8897,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G197">
         <f>SUM(G2:G196)</f>
         <v>46</v>
@@ -8917,27 +8936,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9CFB2-E36F-473E-93F7-18105F56F26D}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -8987,7 +9006,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -9025,7 +9044,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -9063,7 +9082,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -9101,7 +9120,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>684</v>
       </c>
@@ -9139,7 +9158,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -9171,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -9203,7 +9222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>64</v>
       </c>
@@ -9232,7 +9251,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -9264,7 +9283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -9302,7 +9321,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -9340,7 +9359,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -9369,7 +9388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>521</v>
       </c>
@@ -9407,7 +9426,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -9439,7 +9458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -9471,7 +9490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -9509,7 +9528,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -9547,7 +9566,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -9579,7 +9598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -9617,7 +9636,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -9655,7 +9674,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>644</v>
       </c>
@@ -9684,7 +9703,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>647</v>
       </c>
@@ -9713,7 +9732,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
@@ -9760,7 +9779,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>96</v>
       </c>
@@ -9801,7 +9820,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -9833,7 +9852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -9865,7 +9884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -9897,7 +9916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -9935,7 +9954,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -9973,7 +9992,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>107</v>
       </c>
@@ -10011,7 +10030,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>108</v>
       </c>
@@ -10049,7 +10068,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>663</v>
       </c>
@@ -10084,7 +10103,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -10122,7 +10141,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>666</v>
       </c>
@@ -10145,7 +10164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -10183,7 +10202,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>672</v>
       </c>
@@ -10212,7 +10231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -10244,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -10270,7 +10289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -10305,7 +10324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -10346,7 +10365,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -10387,7 +10406,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -10428,7 +10447,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>578</v>
       </c>
@@ -10463,7 +10482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -10498,7 +10517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>675</v>
       </c>
@@ -10521,7 +10540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -10556,7 +10575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -10588,7 +10607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>842</v>
       </c>
@@ -10629,7 +10648,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>845</v>
       </c>
@@ -10664,7 +10683,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>44</v>
       </c>
@@ -10693,7 +10712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>44</v>
       </c>
@@ -10722,7 +10741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>195</v>
       </c>
@@ -10767,29 +10786,29 @@
       <selection pane="topRight" activeCell="W77" sqref="W77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.265625" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.265625" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.28515625" customWidth="1"/>
     <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="6.73046875" customWidth="1"/>
-    <col min="26" max="26" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10887,7 +10906,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10955,7 +10974,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -11023,7 +11042,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11091,7 +11110,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11159,7 +11178,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -11227,7 +11246,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11295,7 +11314,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -11363,7 +11382,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -11431,7 +11450,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -11499,7 +11518,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11567,7 +11586,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11635,7 +11654,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11703,7 +11722,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -11771,7 +11790,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -11861,7 +11880,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -11951,7 +11970,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -12041,7 +12060,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -12131,7 +12150,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -12221,7 +12240,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -12311,7 +12330,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12401,7 +12420,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -12491,7 +12510,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -12581,7 +12600,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -12671,7 +12690,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -12761,7 +12780,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12851,7 +12870,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -12919,7 +12938,7 @@
         <v>0.28196343969713361</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -12987,7 +13006,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -13055,7 +13074,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -13123,7 +13142,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -13191,7 +13210,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -13259,7 +13278,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -13327,7 +13346,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -13395,7 +13414,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -13463,7 +13482,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -13531,7 +13550,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -13599,7 +13618,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -13667,7 +13686,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -13735,7 +13754,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -13803,7 +13822,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -13871,7 +13890,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -13939,7 +13958,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -14007,7 +14026,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -14075,7 +14094,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -14143,7 +14162,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -14211,7 +14230,7 @@
         <v>8.750589507842077E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -14279,7 +14298,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -14347,7 +14366,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -14415,7 +14434,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -14483,7 +14502,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -14564,7 +14583,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -14654,7 +14673,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -14735,7 +14754,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -14825,7 +14844,7 @@
         <v>0.18644470868014273</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -14915,7 +14934,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -15005,7 +15024,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -15095,7 +15114,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -15185,7 +15204,7 @@
         <v>0.16780023781212844</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -15275,7 +15294,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -15365,7 +15384,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -15455,7 +15474,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -15545,7 +15564,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -15613,7 +15632,7 @@
         <v>9.6439456416508307E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8</v>
       </c>
@@ -15681,7 +15700,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -15749,7 +15768,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -15817,7 +15836,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -15907,7 +15926,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9</v>
       </c>
@@ -15997,7 +16016,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9</v>
       </c>
@@ -16087,7 +16106,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
@@ -16177,7 +16196,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>9</v>
       </c>
@@ -16267,7 +16286,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -16357,7 +16376,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -16447,7 +16466,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9</v>
       </c>
@@ -16537,7 +16556,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -16627,7 +16646,7 @@
         <v>0.15229030339083877</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10</v>
       </c>
@@ -16695,7 +16714,7 @@
         <v>0.1057831425598335</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -16781,7 +16800,7 @@
         <v>9.6065962019209694E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
@@ -16846,7 +16865,7 @@
         <v>8.7359557378242622E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12</v>
       </c>
@@ -16911,7 +16930,7 @@
         <v>5.8638985672772481E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>13</v>
       </c>
@@ -16994,7 +17013,7 @@
         <v>0.10543302850995159</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
       </c>
@@ -17080,7 +17099,7 @@
         <v>9.8937120033820339E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>15</v>
       </c>
@@ -17148,7 +17167,7 @@
         <v>9.6166493236212278E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>15</v>
       </c>
@@ -17216,7 +17235,7 @@
         <v>9.6166493236212278E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>16</v>
       </c>
@@ -17306,7 +17325,7 @@
         <v>0.21314328006359476</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>16</v>
       </c>
@@ -17396,7 +17415,7 @@
         <v>8.7194978207834214E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>16</v>
       </c>
@@ -17486,7 +17505,7 @@
         <v>8.7194978207834214E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>17</v>
       </c>
@@ -17573,7 +17592,7 @@
         <v>8.7894809688581321E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>17</v>
       </c>
@@ -17660,7 +17679,7 @@
         <v>8.7894809688581321E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>17</v>
       </c>
@@ -17747,7 +17766,7 @@
         <v>7.8128719723183401E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>17</v>
       </c>
@@ -17834,7 +17853,7 @@
         <v>7.8128719723183401E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>18</v>
       </c>
@@ -17924,7 +17943,7 @@
         <v>0.28435627851616746</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>18</v>
       </c>
@@ -18014,7 +18033,7 @@
         <v>0.18345566355881771</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>18</v>
       </c>
@@ -18104,7 +18123,7 @@
         <v>0.32104741122793096</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>18</v>
       </c>
@@ -18194,7 +18213,7 @@
         <v>0.21097401309264038</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19</v>
       </c>
@@ -18278,7 +18297,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>19</v>
       </c>
@@ -18362,7 +18381,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>19</v>
       </c>
@@ -18449,7 +18468,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20</v>
       </c>
@@ -18524,7 +18543,7 @@
         <v>0.16832749667914504</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20</v>
       </c>
@@ -18599,7 +18618,7 @@
         <v>0.1589759690858592</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20</v>
       </c>
@@ -18674,7 +18693,7 @@
         <v>0.20360839609037015</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20</v>
       </c>
@@ -18749,7 +18768,7 @@
         <v>0.19435346899535333</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20</v>
       </c>
@@ -18824,7 +18843,7 @@
         <v>0.20360839609037015</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20</v>
       </c>
@@ -18899,7 +18918,7 @@
         <v>0.30286641427798805</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -18974,7 +18993,7 @@
         <v>0.31151974040021629</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20</v>
       </c>
@@ -19049,7 +19068,7 @@
         <v>0.35478637101135746</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>21</v>
       </c>
@@ -19136,7 +19155,7 @@
         <v>0.31550928021729291</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>21</v>
       </c>
@@ -19223,7 +19242,7 @@
         <v>0.30674513354459032</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>22</v>
       </c>
@@ -19301,7 +19320,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>22</v>
       </c>
@@ -19379,7 +19398,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>22</v>
       </c>
@@ -19457,7 +19476,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>22</v>
       </c>
@@ -19535,7 +19554,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>22</v>
       </c>
@@ -19610,7 +19629,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23</v>
       </c>
@@ -19688,7 +19707,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>23</v>
       </c>
@@ -19766,7 +19785,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>23</v>
       </c>
@@ -19844,7 +19863,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>24</v>
       </c>
@@ -19900,7 +19919,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>24</v>
       </c>
@@ -19956,7 +19975,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>24</v>
       </c>
@@ -20012,7 +20031,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>24</v>
       </c>
@@ -20068,7 +20087,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>24</v>
       </c>
@@ -20124,7 +20143,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>24</v>
       </c>
@@ -20180,7 +20199,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>24</v>
       </c>
@@ -20236,7 +20255,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>24</v>
       </c>
@@ -20292,7 +20311,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>24</v>
       </c>
@@ -20348,7 +20367,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>24</v>
       </c>
@@ -20404,7 +20423,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>24</v>
       </c>
@@ -20460,7 +20479,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>24</v>
       </c>
@@ -20516,7 +20535,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24</v>
       </c>
@@ -20572,7 +20591,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>24</v>
       </c>
@@ -20628,7 +20647,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>24</v>
       </c>
@@ -20684,7 +20703,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>24</v>
       </c>
@@ -20740,7 +20759,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24</v>
       </c>
@@ -20796,7 +20815,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>24</v>
       </c>
@@ -20852,7 +20871,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>24</v>
       </c>
@@ -20908,7 +20927,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>24</v>
       </c>
@@ -20964,7 +20983,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>24</v>
       </c>
@@ -21020,7 +21039,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>24</v>
       </c>
@@ -21076,7 +21095,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>24</v>
       </c>
@@ -21132,7 +21151,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>24</v>
       </c>
@@ -21188,7 +21207,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24</v>
       </c>
@@ -21244,7 +21263,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24</v>
       </c>
@@ -21300,7 +21319,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>24</v>
       </c>
@@ -21356,7 +21375,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>24</v>
       </c>
@@ -21412,7 +21431,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>24</v>
       </c>
@@ -21468,7 +21487,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>24</v>
       </c>
@@ -21524,7 +21543,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>24</v>
       </c>
@@ -21580,7 +21599,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>24</v>
       </c>
@@ -21636,7 +21655,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>24</v>
       </c>
@@ -21692,7 +21711,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>24</v>
       </c>
@@ -21748,7 +21767,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>24</v>
       </c>
@@ -21804,7 +21823,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>24</v>
       </c>
@@ -21860,7 +21879,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>24</v>
       </c>
@@ -21916,7 +21935,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24</v>
       </c>
@@ -21972,7 +21991,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>24</v>
       </c>
@@ -22028,7 +22047,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>24</v>
       </c>
@@ -22084,7 +22103,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>24</v>
       </c>
@@ -22140,7 +22159,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>24</v>
       </c>
@@ -22196,7 +22215,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>24</v>
       </c>
@@ -22252,7 +22271,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>24</v>
       </c>
@@ -22308,7 +22327,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>24</v>
       </c>
@@ -22364,7 +22383,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>24</v>
       </c>
@@ -22420,7 +22439,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>24</v>
       </c>
@@ -22476,7 +22495,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>24</v>
       </c>
@@ -22532,7 +22551,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>24</v>
       </c>
@@ -22588,7 +22607,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>24</v>
       </c>
@@ -22644,7 +22663,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>24</v>
       </c>
@@ -22700,7 +22719,7 @@
         <v>4.9158500297560012E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>24</v>
       </c>
@@ -22756,7 +22775,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>24</v>
       </c>
@@ -22812,7 +22831,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>24</v>
       </c>
@@ -22868,7 +22887,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>24</v>
       </c>
@@ -22924,7 +22943,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>24</v>
       </c>
@@ -22980,7 +22999,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>24</v>
       </c>
@@ -23036,7 +23055,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>24</v>
       </c>
@@ -23092,7 +23111,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>24</v>
       </c>
@@ -23148,7 +23167,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>24</v>
       </c>
@@ -23204,7 +23223,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>24</v>
       </c>
@@ -23260,7 +23279,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>24</v>
       </c>
@@ -23316,7 +23335,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -23372,7 +23391,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>24</v>
       </c>
@@ -23428,7 +23447,7 @@
         <v>4.9158500297560012E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>24</v>
       </c>
@@ -23484,7 +23503,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>24</v>
       </c>
@@ -23540,7 +23559,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>24</v>
       </c>
@@ -23596,7 +23615,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>24</v>
       </c>
@@ -23652,7 +23671,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>24</v>
       </c>
@@ -23708,7 +23727,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>24</v>
       </c>
@@ -23764,7 +23783,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>24</v>
       </c>
@@ -23820,7 +23839,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>24</v>
       </c>
@@ -23876,7 +23895,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>24</v>
       </c>
@@ -23932,7 +23951,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>24</v>
       </c>
@@ -23988,7 +24007,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>24</v>
       </c>
@@ -24044,7 +24063,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>24</v>
       </c>
@@ -24100,7 +24119,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>24</v>
       </c>
@@ -24156,7 +24175,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>24</v>
       </c>
@@ -24228,13 +24247,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>820</v>
       </c>
@@ -24248,7 +24267,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>821</v>
       </c>
@@ -24262,7 +24281,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>823</v>
       </c>
@@ -24276,7 +24295,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>825</v>
       </c>
@@ -24290,7 +24309,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>827</v>
       </c>
@@ -24304,7 +24323,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>829</v>
       </c>
@@ -24318,7 +24337,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>831</v>
       </c>
@@ -24332,7 +24351,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>833</v>
       </c>
@@ -24343,7 +24362,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>835</v>
       </c>
@@ -24354,7 +24373,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>837</v>
       </c>
@@ -24365,7 +24384,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>966</v>
       </c>
@@ -24376,7 +24395,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>967</v>
       </c>
@@ -24404,6 +24423,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F3729CDE7EAEF44A53FFF2D231E047F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fa77f95735d7b1684a0f9f1d46cbd95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2efe24bd-a7c1-481d-a426-3119fcfe7149" xmlns:ns4="061b3361-47e6-4fd1-b7fc-4e45b1c77d33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9154525a1bae266bab7d07ed10795e6b" ns3:_="" ns4:_="">
     <xsd:import namespace="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
@@ -24626,22 +24654,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24660,7 +24687,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B9A47D-9A6D-4087-8FA8-4E1598E50986}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -24675,12 +24702,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/meta_spreadsheet.xlsx
+++ b/meta_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajg17d\OneDrive - Florida State University\Florida State University\Research Projects\meta_suicide_erp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/ajg17d_fsu_edu/Documents/Florida State University/Research Projects/meta_suicide_erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1089" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{988859FB-D83D-457E-9418-C0D7AB3BABF0}"/>
+  <xr:revisionPtr revIDLastSave="1237" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F52731E-2F01-45DC-A232-B5CA28FB7E14}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="1052">
   <si>
     <t>Database</t>
   </si>
@@ -2928,9 +2928,6 @@
     <t>post neutral-sbqr</t>
   </si>
   <si>
-    <t>unpublished, 2020a</t>
-  </si>
-  <si>
     <t>Published</t>
   </si>
   <si>
@@ -2950,6 +2947,252 @@
   </si>
   <si>
     <t># New</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Depression evaluation based on prefrontal EEG signals in resting state using fuzzy measure entropy</t>
+  </si>
+  <si>
+    <t>Chen F</t>
+  </si>
+  <si>
+    <t>Yang L</t>
+  </si>
+  <si>
+    <t>Physiol Meas</t>
+  </si>
+  <si>
+    <t>A Phase I, Randomized, Single‑Blind, Placebo‑Controlled, Single Ascending Dose Study of the Safety, Tolerability, and Pharmacokinetics of Subcutaneous and Oral TRV250, a G Protein-Selective Delta Receptor Agonist, in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>EEG Markers in Emotionally Unstable Personality Disorder-A Possible Outcome Measure for Neurofeedback: A Narrative Review</t>
+  </si>
+  <si>
+    <t>Active and Passive Attentional Processing in Adolescent Suicide Attempters: An Event-Related Potential Study</t>
+  </si>
+  <si>
+    <t>Relationship between Auditory Evoked Potentials and Circadian Preference in Patients with Major Depressive Episodes</t>
+  </si>
+  <si>
+    <t>Reward Responsiveness in Suicide Attempters: An Electroencephalography/Event-Related Potential Study</t>
+  </si>
+  <si>
+    <t>Unified protocol for anxiety disorders in two cities of Mexico measuring gamma activity: Study protocol for a randomized controlled trial</t>
+  </si>
+  <si>
+    <t>Differentiating clinically depressed adolescents with and without active suicidality: An examination of neurophysiological and self-report measures of reward responsiveness</t>
+  </si>
+  <si>
+    <t>Cariprazine Safety in Adolescents and the Elderly: Analyses of Clinical Study Data</t>
+  </si>
+  <si>
+    <t>Electroencephalography-based neurofeedback as treatment for post-traumatic stress disorder: A systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>Alzheimer disease starts in childhood in polluted Metropolitan Mexico City. A major health crisis in progress</t>
+  </si>
+  <si>
+    <t>Frontal Alpha Asymmetry Moderated by Suicidal Ideation in Patients with Major Depressive Disorder: A Comparison with Healthy Individuals</t>
+  </si>
+  <si>
+    <t>Family Risk for Depression and Prioritization of Religion or Spirituality: Early Neurophysiological Modulations of Motivated Attention</t>
+  </si>
+  <si>
+    <t>Mobile Neurofeedback for Pain Management in Veterans with TBI and PTSD</t>
+  </si>
+  <si>
+    <t>Electroencephalogram Resting State Frequency Power Characteristics of Suicidal Behavior in Female Patients With Major Depressive Disorder</t>
+  </si>
+  <si>
+    <t>Fossler MJ</t>
+  </si>
+  <si>
+    <t>Kramer MS</t>
+  </si>
+  <si>
+    <t>CNS Drugs</t>
+  </si>
+  <si>
+    <t>Brain Sci</t>
+  </si>
+  <si>
+    <t>Contemp Clin Trials Commun</t>
+  </si>
+  <si>
+    <t>Depress Anxiety</t>
+  </si>
+  <si>
+    <t>Eur Psychiatry</t>
+  </si>
+  <si>
+    <t>Environ Res</t>
+  </si>
+  <si>
+    <t>Front Hum Neurosci</t>
+  </si>
+  <si>
+    <t>Pain Med</t>
+  </si>
+  <si>
+    <t>Boland C</t>
+  </si>
+  <si>
+    <t>Lagharne R</t>
+  </si>
+  <si>
+    <t>Dominguez-Rodriguez A</t>
+  </si>
+  <si>
+    <t>Avita GC</t>
+  </si>
+  <si>
+    <t>Pegg S</t>
+  </si>
+  <si>
+    <t>Kujawa A</t>
+  </si>
+  <si>
+    <t>Szatmári B</t>
+  </si>
+  <si>
+    <t>Gál M</t>
+  </si>
+  <si>
+    <t>Steingrimsson S</t>
+  </si>
+  <si>
+    <t>Bernhardsson S</t>
+  </si>
+  <si>
+    <t>Calderón-Garcidueñas L</t>
+  </si>
+  <si>
+    <t>Mukherjee PS</t>
+  </si>
+  <si>
+    <t>Roh SC</t>
+  </si>
+  <si>
+    <t>Kayser J</t>
+  </si>
+  <si>
+    <t>Elbogen EB</t>
+  </si>
+  <si>
+    <t>Russoniello C</t>
+  </si>
+  <si>
+    <t>Benschop L</t>
+  </si>
+  <si>
+    <t>Arns M</t>
+  </si>
+  <si>
+    <t>Fearlessness about death is related to diminished late positive potential responses when viewing threatening and mutilation images in suicidal ideators</t>
+  </si>
+  <si>
+    <t>Bauer BW</t>
+  </si>
+  <si>
+    <t>Capron DW</t>
+  </si>
+  <si>
+    <t>Cognitive Therapy and Research</t>
+  </si>
+  <si>
+    <t>Detection of Suicidal Ideation in Depressed Subjects Using Resting Electroencephalography Features Identified by Machine Learning Algorithms</t>
+  </si>
+  <si>
+    <t>Hasey G</t>
+  </si>
+  <si>
+    <t>Mistry N</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL PSYCHIATRY</t>
+  </si>
+  <si>
+    <t>Morphology of Auditory Evoked Potentials, and its Role in the Evaluation of Suicidal Behavior</t>
+  </si>
+  <si>
+    <t>Saavedra CF</t>
+  </si>
+  <si>
+    <t>Franco MVD</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF MORPHOLOGY</t>
+  </si>
+  <si>
+    <t>Exploratory Analysis of Behavioral Impulsivity, Pro-inflammatory Cytokines, and Resting-State Frontal EEG Activity Associated With Non-suicidal Self-Injury in Patients With Mood Disorder</t>
+  </si>
+  <si>
+    <t>Kim JS</t>
+  </si>
+  <si>
+    <t>Baek JH</t>
+  </si>
+  <si>
+    <t>FRONTIERS IN PSYCHIATRY</t>
+  </si>
+  <si>
+    <t>AUDITORY P3 INDICES OF ATTENTION IN ADOLESCENTS WITH ACUTE SUICIDAL BEHAVIOUR: AN EVENT-RELATED POTENTIAL STUDY</t>
+  </si>
+  <si>
+    <t>Tavakoli F</t>
+  </si>
+  <si>
+    <t>PSYCHOPHYSIOLOGY</t>
+  </si>
+  <si>
+    <t>Target N2 at Fz</t>
+  </si>
+  <si>
+    <t>Novel N2 at Fz</t>
+  </si>
+  <si>
+    <t>Target P3 at Pz</t>
+  </si>
+  <si>
+    <t>Novel P3 at Cz</t>
+  </si>
+  <si>
+    <t>Pegg et al.</t>
+  </si>
+  <si>
+    <t>RewP Win</t>
+  </si>
+  <si>
+    <t>RewP Loss</t>
+  </si>
+  <si>
+    <t>RewP Diff Score</t>
+  </si>
+  <si>
+    <t>Gallyer et al.</t>
+  </si>
+  <si>
+    <t>Tsypes et al.</t>
+  </si>
+  <si>
+    <t>N2; P3</t>
+  </si>
+  <si>
+    <t>Duplicate Data</t>
+  </si>
+  <si>
+    <t>Examining Blunted Initial Response to Reward and Recent Suicidal Ideation in Children and Adolescents Using Event-Related Potentials: Failure to Conceptually Replicate Across Two Independent Samples</t>
+  </si>
+  <si>
+    <t>Gallyer AJ</t>
+  </si>
+  <si>
+    <t>bioRxiv</t>
+  </si>
+  <si>
+    <t>authors</t>
   </si>
 </sst>
 </file>
@@ -3677,6 +3920,201 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323640</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330480</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156930</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D12CA30-4C59-4FF6-A225-FD420E7D1269}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="323640" y="47391045"/>
+            <a:ext cx="6840" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF58F199-CB0A-451A-94BB-A6379FE7B47B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="319320" y="47386725"/>
+              <a:ext cx="15480" cy="9000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>347400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>347760</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109410</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63626F6A-D583-4277-9056-A5FF7EB0348D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="347400" y="47343525"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCDDC59-9AFA-4FF2-8658-61ABCE414B70}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="343080" y="47339205"/>
+              <a:ext cx="9000" cy="9000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>375840</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73FC52C-BAB5-42BC-AB86-2A86116ECA74}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="375840" y="47334165"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FFBA99-7161-4056-94D0-C58799CA82CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="371520" y="47329845"/>
+              <a:ext cx="9000" cy="9000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3849,6 +4287,84 @@
         <inkml:traceFormat>
           <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
           <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-11-24T18:43:11.654"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'3'0,"4"0,2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-11-24T18:43:11.657"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-11-24T18:43:11.658"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
           <inkml:channel name="F" type="integer" max="32767" units="dev"/>
         </inkml:traceFormat>
         <inkml:channelProperties>
@@ -3868,7 +4384,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4400,20 +4916,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C14CA69-90BD-40F0-91ED-5F03B1240544}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4427,13 +4943,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4450,10 +4966,10 @@
         <v>44120</v>
       </c>
       <c r="F2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4466,8 +4982,14 @@
       <c r="D3">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>44124</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4480,8 +5002,14 @@
       <c r="D4">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>44124</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4494,11 +5022,28 @@
       <c r="D5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>44124</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D6">
         <f>SUM(D2:D5)</f>
         <v>270</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F2:F5)</f>
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <f>D6+F6</f>
+        <v>298</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>970</v>
       </c>
     </row>
   </sheetData>
@@ -4509,20 +5054,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012B83D4-73C9-416E-BE4F-2E210EAD970C}">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView topLeftCell="A206" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G218" sqref="G218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4545,7 +5091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4568,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4591,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -4614,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -4637,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4660,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -4683,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -4706,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -4729,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -4752,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -4772,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -4795,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -4818,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -4841,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -4864,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -4887,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -4910,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -4933,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -4956,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -4979,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -5002,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -5025,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -5048,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -5071,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -5094,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -5117,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -5140,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -5163,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -5186,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -5209,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -5232,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -5255,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -5278,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -5301,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -5324,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -5347,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>171</v>
       </c>
@@ -5367,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>661</v>
       </c>
@@ -5390,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -5410,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>684</v>
       </c>
@@ -5433,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>521</v>
       </c>
@@ -5456,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>543</v>
       </c>
@@ -5479,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>578</v>
       </c>
@@ -5502,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5525,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>644</v>
       </c>
@@ -5548,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>647</v>
       </c>
@@ -5571,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>663</v>
       </c>
@@ -5591,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>666</v>
       </c>
@@ -5611,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>670</v>
       </c>
@@ -5631,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>672</v>
       </c>
@@ -5651,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>675</v>
       </c>
@@ -5671,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -5694,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5717,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -5740,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -5763,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -5786,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5809,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -5832,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -5855,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -5878,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -5901,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -5924,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -5947,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -5970,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -5993,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -6016,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -6039,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -6062,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -6079,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -6102,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -6125,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -6148,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -6171,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -6194,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -6217,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -6237,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -6260,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -6283,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -6306,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -6329,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -6352,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -6375,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -6398,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -6421,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -6444,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -6467,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -6490,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -6513,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -6536,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -6556,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -6579,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -6599,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -6622,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -6645,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>123</v>
       </c>
@@ -6668,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -6691,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -6714,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -6737,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -6760,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -6783,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>130</v>
       </c>
@@ -6806,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -6829,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -6852,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>133</v>
       </c>
@@ -6875,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>134</v>
       </c>
@@ -6898,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>135</v>
       </c>
@@ -6921,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>137</v>
       </c>
@@ -6944,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -6967,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>139</v>
       </c>
@@ -6990,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>140</v>
       </c>
@@ -7013,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>141</v>
       </c>
@@ -7036,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -7059,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -7082,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -7105,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>146</v>
       </c>
@@ -7125,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -7148,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>148</v>
       </c>
@@ -7171,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>150</v>
       </c>
@@ -7194,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -7217,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -7240,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>154</v>
       </c>
@@ -7263,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -7286,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>156</v>
       </c>
@@ -7309,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>157</v>
       </c>
@@ -7329,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>158</v>
       </c>
@@ -7352,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>159</v>
       </c>
@@ -7375,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>160</v>
       </c>
@@ -7398,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>161</v>
       </c>
@@ -7421,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>162</v>
       </c>
@@ -7444,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -7467,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>164</v>
       </c>
@@ -7490,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -7510,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -7530,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -7553,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>169</v>
       </c>
@@ -7576,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>170</v>
       </c>
@@ -7596,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>172</v>
       </c>
@@ -7616,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -7639,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>174</v>
       </c>
@@ -7662,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>175</v>
       </c>
@@ -7685,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>176</v>
       </c>
@@ -7708,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>177</v>
       </c>
@@ -7731,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>178</v>
       </c>
@@ -7754,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>179</v>
       </c>
@@ -7777,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>180</v>
       </c>
@@ -7800,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>181</v>
       </c>
@@ -7823,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>182</v>
       </c>
@@ -7846,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>183</v>
       </c>
@@ -7866,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>185</v>
       </c>
@@ -7889,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>186</v>
       </c>
@@ -7912,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -7932,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>188</v>
       </c>
@@ -7952,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>189</v>
       </c>
@@ -7972,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -7992,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>191</v>
       </c>
@@ -8012,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -8035,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>537</v>
       </c>
@@ -8055,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>539</v>
       </c>
@@ -8078,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>565</v>
       </c>
@@ -8101,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>555</v>
       </c>
@@ -8124,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>527</v>
       </c>
@@ -8147,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>523</v>
       </c>
@@ -8170,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>566</v>
       </c>
@@ -8190,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>559</v>
       </c>
@@ -8213,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>547</v>
       </c>
@@ -8236,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>558</v>
       </c>
@@ -8259,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>533</v>
       </c>
@@ -8282,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>129</v>
       </c>
@@ -8305,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>551</v>
       </c>
@@ -8325,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>567</v>
       </c>
@@ -8348,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>571</v>
       </c>
@@ -8371,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>574</v>
       </c>
@@ -8394,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>581</v>
       </c>
@@ -8414,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>588</v>
       </c>
@@ -8437,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>592</v>
       </c>
@@ -8457,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>594</v>
       </c>
@@ -8477,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>597</v>
       </c>
@@ -8497,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>600</v>
       </c>
@@ -8520,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>604</v>
       </c>
@@ -8543,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>608</v>
       </c>
@@ -8566,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>611</v>
       </c>
@@ -8586,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>613</v>
       </c>
@@ -8606,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>615</v>
       </c>
@@ -8629,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>619</v>
       </c>
@@ -8652,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>622</v>
       </c>
@@ -8675,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>625</v>
       </c>
@@ -8698,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>628</v>
       </c>
@@ -8718,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>630</v>
       </c>
@@ -8741,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>634</v>
       </c>
@@ -8764,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>637</v>
       </c>
@@ -8787,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>651</v>
       </c>
@@ -8810,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>655</v>
       </c>
@@ -8833,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>656</v>
       </c>
@@ -8856,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>659</v>
       </c>
@@ -8876,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>678</v>
       </c>
@@ -8896,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>681</v>
       </c>
@@ -8916,10 +9462,467 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>971</v>
+      </c>
+      <c r="B197" t="s">
+        <v>972</v>
+      </c>
+      <c r="C197" t="s">
+        <v>973</v>
+      </c>
+      <c r="D197">
+        <v>2020</v>
+      </c>
+      <c r="E197" t="s">
+        <v>974</v>
+      </c>
+      <c r="F197" t="s">
+        <v>37</v>
+      </c>
       <c r="G197">
-        <f>SUM(G2:G196)</f>
-        <v>46</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>975</v>
+      </c>
+      <c r="B198" t="s">
+        <v>989</v>
+      </c>
+      <c r="C198" t="s">
+        <v>990</v>
+      </c>
+      <c r="D198">
+        <v>2020</v>
+      </c>
+      <c r="E198" t="s">
+        <v>991</v>
+      </c>
+      <c r="F198" t="s">
+        <v>519</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>976</v>
+      </c>
+      <c r="B199" t="s">
+        <v>999</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D199">
+        <v>2020</v>
+      </c>
+      <c r="E199" t="s">
+        <v>239</v>
+      </c>
+      <c r="F199" t="s">
+        <v>37</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>977</v>
+      </c>
+      <c r="B200" t="s">
+        <v>222</v>
+      </c>
+      <c r="C200" t="s">
+        <v>223</v>
+      </c>
+      <c r="D200">
+        <v>2020</v>
+      </c>
+      <c r="E200" t="s">
+        <v>239</v>
+      </c>
+      <c r="F200" t="s">
+        <v>643</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>978</v>
+      </c>
+      <c r="B201" t="s">
+        <v>237</v>
+      </c>
+      <c r="D201">
+        <v>2020</v>
+      </c>
+      <c r="E201" t="s">
+        <v>992</v>
+      </c>
+      <c r="F201" t="s">
+        <v>37</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>979</v>
+      </c>
+      <c r="B202" t="s">
+        <v>44</v>
+      </c>
+      <c r="C202" t="s">
+        <v>43</v>
+      </c>
+      <c r="D202">
+        <v>2020</v>
+      </c>
+      <c r="E202" t="s">
+        <v>45</v>
+      </c>
+      <c r="F202" t="s">
+        <v>37</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>980</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D203">
+        <v>2020</v>
+      </c>
+      <c r="E203" t="s">
+        <v>993</v>
+      </c>
+      <c r="F203" t="s">
+        <v>37</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>981</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D204">
+        <v>2020</v>
+      </c>
+      <c r="E204" t="s">
+        <v>994</v>
+      </c>
+      <c r="F204" t="s">
+        <v>519</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>982</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D205">
+        <v>2020</v>
+      </c>
+      <c r="E205" t="s">
+        <v>204</v>
+      </c>
+      <c r="F205" t="s">
+        <v>519</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>983</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D206">
+        <v>2020</v>
+      </c>
+      <c r="E206" t="s">
+        <v>995</v>
+      </c>
+      <c r="F206" t="s">
+        <v>519</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>984</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D207">
+        <v>2020</v>
+      </c>
+      <c r="E207" t="s">
+        <v>996</v>
+      </c>
+      <c r="F207" t="s">
+        <v>37</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>985</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C208" t="s">
+        <v>199</v>
+      </c>
+      <c r="D208">
+        <v>2020</v>
+      </c>
+      <c r="E208" t="s">
+        <v>200</v>
+      </c>
+      <c r="F208" t="s">
+        <v>519</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>986</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C209" t="s">
+        <v>365</v>
+      </c>
+      <c r="D209">
+        <v>2019</v>
+      </c>
+      <c r="E209" t="s">
+        <v>997</v>
+      </c>
+      <c r="F209" t="s">
+        <v>519</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>987</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D210">
+        <v>2019</v>
+      </c>
+      <c r="E210" t="s">
+        <v>998</v>
+      </c>
+      <c r="F210" t="s">
+        <v>37</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>988</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D211">
+        <v>2019</v>
+      </c>
+      <c r="E211" t="s">
+        <v>247</v>
+      </c>
+      <c r="F211" t="s">
+        <v>37</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D212">
+        <v>2020</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F212" t="s">
+        <v>642</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D213">
+        <v>2020</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F213" t="s">
+        <v>4</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D214">
+        <v>2020</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F214" t="s">
+        <v>4</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D215">
+        <v>2020</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F215" t="s">
+        <v>4</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C216" t="s">
+        <v>223</v>
+      </c>
+      <c r="D216">
+        <v>2020</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F216" t="s">
+        <v>4</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G217">
+        <f>SUM(G2:G216)</f>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -8934,29 +9937,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9CFB2-E36F-473E-93F7-18105F56F26D}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -9006,9 +10009,9 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>195</v>
@@ -9020,10 +10023,10 @@
         <v>2019</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>519</v>
       </c>
       <c r="G2" t="s">
         <v>688</v>
@@ -9035,18 +10038,18 @@
         <v>688</v>
       </c>
       <c r="L2" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>195</v>
@@ -9058,10 +10061,10 @@
         <v>2019</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>519</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>688</v>
@@ -9073,16 +10076,16 @@
         <v>688</v>
       </c>
       <c r="L3" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -9120,7 +10123,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>684</v>
       </c>
@@ -9158,149 +10161,180 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D6">
         <v>2018</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="F6" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="G6" t="s">
         <v>688</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>688</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="L6" t="s">
+        <v>712</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="D7">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>522</v>
       </c>
       <c r="F7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>688</v>
       </c>
       <c r="H7" t="s">
         <v>688</v>
       </c>
       <c r="J7" t="s">
+        <v>688</v>
+      </c>
+      <c r="L7" t="s">
+        <v>689</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8">
+        <v>2018</v>
+      </c>
+      <c r="E8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G8" t="s">
+        <v>688</v>
+      </c>
+      <c r="H8" t="s">
+        <v>688</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" t="s">
         <v>36</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="K8" s="7">
-        <v>3</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>718</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="D9">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
         <v>519</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>688</v>
       </c>
       <c r="H9" t="s">
         <v>688</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="L9" t="s">
+        <v>689</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="F10" t="s">
-        <v>641</v>
+        <v>519</v>
       </c>
       <c r="G10" t="s">
         <v>688</v>
@@ -9312,30 +10346,30 @@
         <v>688</v>
       </c>
       <c r="L10" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P10" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="D11">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="F11" t="s">
         <v>519</v>
@@ -9347,132 +10381,157 @@
         <v>688</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>688</v>
       </c>
       <c r="L11" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P11" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>279</v>
+      </c>
+      <c r="C12" t="s">
+        <v>280</v>
       </c>
       <c r="D12">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>641</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>688</v>
       </c>
       <c r="H12" t="s">
         <v>688</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>521</v>
-      </c>
-      <c r="B13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13">
-        <v>2017</v>
-      </c>
-      <c r="E13" t="s">
-        <v>522</v>
-      </c>
-      <c r="F13" t="s">
-        <v>520</v>
-      </c>
-      <c r="G13" t="s">
         <v>688</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L12" t="s">
+        <v>720</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2014</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="J13" t="s">
+      <c r="H13" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="L13" t="s">
-        <v>689</v>
-      </c>
-      <c r="O13">
-        <v>6</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="K13" s="6">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="O13" s="6">
+        <v>12</v>
+      </c>
+      <c r="P13" s="6" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
         <v>237</v>
       </c>
       <c r="D14">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>519</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>688</v>
       </c>
       <c r="H14" t="s">
         <v>688</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="L14" t="s">
+        <v>720</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="D15">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F15" t="s">
         <v>519</v>
@@ -9481,33 +10540,36 @@
         <v>688</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>688</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="L15" t="s">
+        <v>720</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>663</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D16">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E16" t="s">
-        <v>254</v>
+        <v>664</v>
       </c>
       <c r="F16" t="s">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="G16" t="s">
         <v>688</v>
@@ -9519,33 +10581,33 @@
         <v>688</v>
       </c>
       <c r="L16" t="s">
-        <v>689</v>
+        <v>720</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P16" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="D17">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F17" t="s">
-        <v>519</v>
+        <v>641</v>
       </c>
       <c r="G17" t="s">
         <v>688</v>
@@ -9557,65 +10619,71 @@
         <v>688</v>
       </c>
       <c r="L17" t="s">
-        <v>689</v>
+        <v>724</v>
       </c>
       <c r="O17">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P17" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="D18">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="E18" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="F18" t="s">
-        <v>519</v>
+        <v>641</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>688</v>
       </c>
       <c r="H18" t="s">
         <v>688</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="L18" t="s">
+        <v>726</v>
+      </c>
+      <c r="O18">
+        <v>17</v>
+      </c>
+      <c r="P18" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
       <c r="C19" t="s">
-        <v>280</v>
+        <v>418</v>
       </c>
       <c r="D19">
-        <v>2015</v>
+        <v>1996</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>322</v>
       </c>
       <c r="F19" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G19" t="s">
         <v>688</v>
@@ -9623,34 +10691,37 @@
       <c r="H19" t="s">
         <v>688</v>
       </c>
+      <c r="I19" t="s">
+        <v>688</v>
+      </c>
       <c r="J19" t="s">
         <v>688</v>
       </c>
       <c r="L19" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="O19">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P19" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="C20" t="s">
-        <v>288</v>
+        <v>426</v>
       </c>
       <c r="D20">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="E20" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="F20" t="s">
         <v>519</v>
@@ -9661,183 +10732,195 @@
       <c r="H20" t="s">
         <v>688</v>
       </c>
+      <c r="I20" t="s">
+        <v>688</v>
+      </c>
       <c r="J20" t="s">
         <v>688</v>
       </c>
       <c r="L20" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="O20">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="P20" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2015</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="6">
-        <v>3</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2015</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="6">
-        <v>3</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2014</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="G23" s="6" t="s">
+    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" t="s">
+        <v>428</v>
+      </c>
+      <c r="D21">
+        <v>1994</v>
+      </c>
+      <c r="E21" t="s">
+        <v>429</v>
+      </c>
+      <c r="F21" t="s">
+        <v>641</v>
+      </c>
+      <c r="G21" t="s">
         <v>688</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H21" t="s">
         <v>688</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="I21" t="s">
         <v>688</v>
       </c>
-      <c r="K23" s="6">
-        <v>3</v>
-      </c>
-      <c r="L23" s="6" t="s">
+      <c r="J21" t="s">
+        <v>688</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21" t="s">
         <v>720</v>
       </c>
-      <c r="M23" s="6">
-        <v>1</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="O23" s="6">
-        <v>12</v>
-      </c>
-      <c r="P23" s="6" t="s">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2014</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="G24" s="6" t="s">
+    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>842</v>
+      </c>
+      <c r="B22" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" t="s">
+        <v>418</v>
+      </c>
+      <c r="D22">
+        <v>1994</v>
+      </c>
+      <c r="E22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" t="s">
+        <v>843</v>
+      </c>
+      <c r="G22" t="s">
         <v>688</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H22" t="s">
         <v>688</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="I22" t="s">
         <v>688</v>
       </c>
-      <c r="K24" s="6">
-        <v>3</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
+      <c r="J22" t="s">
+        <v>688</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22" t="s">
+        <v>844</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22">
+        <v>21</v>
+      </c>
+      <c r="P22" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>979</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>688</v>
+      </c>
+      <c r="H23" t="s">
+        <v>688</v>
+      </c>
+      <c r="I23" t="s">
+        <v>688</v>
+      </c>
+      <c r="J23" t="s">
+        <v>688</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23">
+        <v>22</v>
+      </c>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24"/>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>851</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>852</v>
+      </c>
+      <c r="G24" t="s">
+        <v>688</v>
+      </c>
+      <c r="H24" t="s">
+        <v>688</v>
+      </c>
+      <c r="I24" t="s">
+        <v>688</v>
+      </c>
+      <c r="J24" t="s">
+        <v>688</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24">
+        <v>23</v>
+      </c>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C25" t="s">
-        <v>295</v>
-      </c>
-      <c r="D25">
-        <v>2014</v>
-      </c>
-      <c r="E25" t="s">
-        <v>278</v>
+        <v>195</v>
+      </c>
+      <c r="D25" t="s">
+        <v>851</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>852</v>
       </c>
       <c r="G25" t="s">
         <v>688</v>
@@ -9845,28 +10928,31 @@
       <c r="H25" t="s">
         <v>688</v>
       </c>
+      <c r="I25" t="s">
+        <v>688</v>
+      </c>
       <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="O25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>977</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="D26">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F26" t="s">
         <v>643</v>
@@ -9877,28 +10963,34 @@
       <c r="H26" t="s">
         <v>688</v>
       </c>
+      <c r="I26" t="s">
+        <v>688</v>
+      </c>
       <c r="J26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>981</v>
       </c>
       <c r="B27" t="s">
-        <v>308</v>
+        <v>1003</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
+        <v>1004</v>
       </c>
       <c r="D27">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="E27" t="s">
-        <v>265</v>
+        <v>994</v>
       </c>
       <c r="F27" t="s">
         <v>519</v>
@@ -9909,31 +11001,37 @@
       <c r="H27" t="s">
         <v>688</v>
       </c>
+      <c r="I27" t="s">
+        <v>688</v>
+      </c>
       <c r="J27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="L27" t="s">
+        <v>704</v>
+      </c>
+      <c r="O27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>1048</v>
       </c>
       <c r="B28" t="s">
-        <v>310</v>
+        <v>1049</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="D28">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="E28" t="s">
-        <v>197</v>
+        <v>1050</v>
       </c>
       <c r="F28" t="s">
-        <v>519</v>
+        <v>1051</v>
       </c>
       <c r="G28" t="s">
         <v>688</v>
@@ -9941,282 +11039,265 @@
       <c r="H28" t="s">
         <v>688</v>
       </c>
+      <c r="I28" t="s">
+        <v>688</v>
+      </c>
       <c r="J28" t="s">
         <v>688</v>
       </c>
-      <c r="L28" t="s">
-        <v>720</v>
-      </c>
       <c r="O28">
-        <v>13</v>
-      </c>
-      <c r="P28" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>316</v>
+        <v>209</v>
       </c>
       <c r="D29">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="E29" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>519</v>
+        <v>665</v>
       </c>
       <c r="G29" t="s">
         <v>688</v>
       </c>
       <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30">
+        <v>2018</v>
+      </c>
+      <c r="E30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" t="s">
+        <v>519</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s">
         <v>688</v>
       </c>
-      <c r="J29" t="s">
-        <v>688</v>
-      </c>
-      <c r="L29" t="s">
-        <v>720</v>
-      </c>
-      <c r="O29">
-        <v>14</v>
-      </c>
-      <c r="P29" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2012</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="I30"/>
+      <c r="J30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="J30" s="5" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7">
+        <v>3</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7">
+        <v>1</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>2018</v>
+      </c>
+      <c r="E32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" t="s">
+        <v>519</v>
+      </c>
+      <c r="G32" t="s">
         <v>36</v>
-      </c>
-      <c r="K30" s="5">
-        <v>3</v>
-      </c>
-      <c r="M30" s="5">
-        <v>1</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" s="5">
-        <v>2012</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="5">
-        <v>3</v>
-      </c>
-      <c r="M31" s="5">
-        <v>1</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>663</v>
-      </c>
-      <c r="B32" t="s">
-        <v>287</v>
-      </c>
-      <c r="D32">
-        <v>2012</v>
-      </c>
-      <c r="E32" t="s">
-        <v>664</v>
-      </c>
-      <c r="F32" t="s">
-        <v>669</v>
-      </c>
-      <c r="G32" t="s">
-        <v>688</v>
       </c>
       <c r="H32" t="s">
         <v>688</v>
       </c>
       <c r="J32" t="s">
-        <v>688</v>
-      </c>
-      <c r="L32" t="s">
-        <v>720</v>
-      </c>
-      <c r="O32">
-        <v>15</v>
-      </c>
-      <c r="P32" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>329</v>
-      </c>
-      <c r="C33" t="s">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="D33">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="F33" t="s">
-        <v>641</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>688</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
         <v>688</v>
       </c>
       <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34">
+        <v>2016</v>
+      </c>
+      <c r="E34" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" t="s">
         <v>688</v>
-      </c>
-      <c r="L33" t="s">
-        <v>724</v>
-      </c>
-      <c r="O33">
-        <v>16</v>
-      </c>
-      <c r="P33" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>666</v>
-      </c>
-      <c r="B34" t="s">
-        <v>667</v>
-      </c>
-      <c r="D34">
-        <v>2009</v>
-      </c>
-      <c r="E34" t="s">
-        <v>668</v>
-      </c>
-      <c r="F34" t="s">
-        <v>669</v>
       </c>
       <c r="J34" t="s">
         <v>36</v>
       </c>
       <c r="K34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>345</v>
+        <v>209</v>
       </c>
       <c r="D35">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="E35" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="F35" t="s">
-        <v>641</v>
+        <v>519</v>
       </c>
       <c r="G35" t="s">
         <v>688</v>
       </c>
       <c r="H35" t="s">
-        <v>688</v>
+        <v>36</v>
       </c>
       <c r="J35" t="s">
-        <v>688</v>
-      </c>
-      <c r="L35" t="s">
-        <v>726</v>
-      </c>
-      <c r="O35">
-        <v>17</v>
-      </c>
-      <c r="P35" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>672</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>673</v>
+        <v>276</v>
+      </c>
+      <c r="C36" t="s">
+        <v>277</v>
       </c>
       <c r="D36">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="E36" t="s">
-        <v>674</v>
+        <v>278</v>
       </c>
       <c r="F36" t="s">
-        <v>669</v>
+        <v>519</v>
       </c>
       <c r="G36" t="s">
         <v>36</v>
@@ -10231,117 +11312,140 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C37" t="s">
-        <v>358</v>
-      </c>
-      <c r="D37">
-        <v>2004</v>
-      </c>
-      <c r="E37" t="s">
-        <v>346</v>
-      </c>
-      <c r="F37" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6">
+        <v>3</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6">
+        <v>1</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A38" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6">
+        <v>3</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6">
+        <v>1</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2014</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G39" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="H37" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37">
+      <c r="H39" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="K39" s="6">
+        <v>3</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="M39" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>366</v>
-      </c>
-      <c r="C38" t="s">
-        <v>367</v>
-      </c>
-      <c r="D38">
-        <v>2002</v>
-      </c>
-      <c r="E38" t="s">
-        <v>368</v>
-      </c>
-      <c r="F38" t="s">
-        <v>643</v>
-      </c>
-      <c r="J38" t="s">
-        <v>36</v>
-      </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" t="s">
-        <v>394</v>
-      </c>
-      <c r="C39" t="s">
-        <v>395</v>
-      </c>
-      <c r="D39">
-        <v>2000</v>
-      </c>
-      <c r="E39" t="s">
-        <v>343</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="N39" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" t="s">
+        <v>295</v>
+      </c>
+      <c r="D40">
+        <v>2014</v>
+      </c>
+      <c r="E40" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" t="s">
         <v>37</v>
-      </c>
-      <c r="G39" t="s">
-        <v>688</v>
-      </c>
-      <c r="H39" t="s">
-        <v>688</v>
-      </c>
-      <c r="I39" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" t="s">
-        <v>36</v>
-      </c>
-      <c r="K39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" t="s">
-        <v>417</v>
-      </c>
-      <c r="C40" t="s">
-        <v>418</v>
-      </c>
-      <c r="D40">
-        <v>1996</v>
-      </c>
-      <c r="E40" t="s">
-        <v>322</v>
-      </c>
-      <c r="F40" t="s">
-        <v>643</v>
       </c>
       <c r="G40" t="s">
         <v>688</v>
@@ -10349,40 +11453,31 @@
       <c r="H40" t="s">
         <v>688</v>
       </c>
-      <c r="I40" t="s">
-        <v>688</v>
-      </c>
       <c r="J40" t="s">
-        <v>688</v>
-      </c>
-      <c r="L40" t="s">
-        <v>728</v>
-      </c>
-      <c r="O40">
-        <v>18</v>
-      </c>
-      <c r="P40" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>395</v>
+        <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>426</v>
+        <v>199</v>
       </c>
       <c r="D41">
-        <v>1994</v>
+        <v>2013</v>
       </c>
       <c r="E41" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="F41" t="s">
-        <v>519</v>
+        <v>643</v>
       </c>
       <c r="G41" t="s">
         <v>688</v>
@@ -10390,40 +11485,31 @@
       <c r="H41" t="s">
         <v>688</v>
       </c>
-      <c r="I41" t="s">
-        <v>688</v>
-      </c>
       <c r="J41" t="s">
-        <v>688</v>
-      </c>
-      <c r="L41" t="s">
-        <v>729</v>
-      </c>
-      <c r="O41">
-        <v>19</v>
-      </c>
-      <c r="P41" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C42" t="s">
-        <v>428</v>
+        <v>309</v>
       </c>
       <c r="D42">
-        <v>1994</v>
+        <v>2013</v>
       </c>
       <c r="E42" t="s">
-        <v>429</v>
+        <v>265</v>
       </c>
       <c r="F42" t="s">
-        <v>641</v>
+        <v>519</v>
       </c>
       <c r="G42" t="s">
         <v>688</v>
@@ -10431,104 +11517,109 @@
       <c r="H42" t="s">
         <v>688</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2012</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="J42" t="s">
+      <c r="H43" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="L42" t="s">
-        <v>720</v>
-      </c>
-      <c r="O42">
-        <v>20</v>
-      </c>
-      <c r="P42" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>578</v>
-      </c>
-      <c r="B43" t="s">
-        <v>579</v>
-      </c>
-      <c r="C43" t="s">
-        <v>580</v>
-      </c>
-      <c r="D43">
-        <v>1994</v>
-      </c>
-      <c r="E43" t="s">
-        <v>322</v>
-      </c>
-      <c r="F43" t="s">
-        <v>520</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="I43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" s="5">
+        <v>3</v>
+      </c>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5">
+        <v>1</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2012</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I44" s="5"/>
+      <c r="J44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J43" t="s">
-        <v>36</v>
-      </c>
-      <c r="K43">
+      <c r="K44" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>584</v>
-      </c>
-      <c r="B44" t="s">
-        <v>585</v>
-      </c>
-      <c r="C44" t="s">
-        <v>586</v>
-      </c>
-      <c r="D44">
-        <v>1993</v>
-      </c>
-      <c r="E44" t="s">
-        <v>587</v>
-      </c>
-      <c r="F44" t="s">
-        <v>520</v>
-      </c>
-      <c r="G44" t="s">
-        <v>688</v>
-      </c>
-      <c r="H44" t="s">
-        <v>688</v>
-      </c>
-      <c r="I44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" t="s">
-        <v>36</v>
-      </c>
-      <c r="K44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L44" s="5"/>
+      <c r="M44" s="5">
+        <v>1</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B45" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="D45">
-        <v>1989</v>
+        <v>2009</v>
       </c>
       <c r="E45" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F45" t="s">
         <v>669</v>
@@ -10540,161 +11631,146 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>672</v>
       </c>
       <c r="B46" t="s">
-        <v>465</v>
-      </c>
-      <c r="C46" t="s">
-        <v>466</v>
+        <v>673</v>
       </c>
       <c r="D46">
-        <v>1988</v>
+        <v>2005</v>
       </c>
       <c r="E46" t="s">
-        <v>311</v>
+        <v>674</v>
       </c>
       <c r="F46" t="s">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="G46" t="s">
-        <v>688</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
         <v>688</v>
       </c>
-      <c r="I46" t="s">
-        <v>36</v>
-      </c>
       <c r="J46" t="s">
         <v>36</v>
       </c>
       <c r="K46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>472</v>
+        <v>357</v>
+      </c>
+      <c r="C47" t="s">
+        <v>358</v>
       </c>
       <c r="D47">
-        <v>1986</v>
+        <v>2004</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>346</v>
       </c>
       <c r="F47" t="s">
-        <v>641</v>
+        <v>519</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>688</v>
       </c>
       <c r="H47" t="s">
         <v>36</v>
       </c>
-      <c r="I47" t="s">
-        <v>36</v>
-      </c>
       <c r="J47" t="s">
         <v>36</v>
       </c>
       <c r="K47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>842</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="C48" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="D48">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="E48" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="F48" t="s">
-        <v>843</v>
-      </c>
-      <c r="G48" t="s">
+        <v>643</v>
+      </c>
+      <c r="J48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>394</v>
+      </c>
+      <c r="C49" t="s">
+        <v>395</v>
+      </c>
+      <c r="D49">
+        <v>2000</v>
+      </c>
+      <c r="E49" t="s">
+        <v>343</v>
+      </c>
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
         <v>688</v>
-      </c>
-      <c r="H48" t="s">
-        <v>688</v>
-      </c>
-      <c r="I48" t="s">
-        <v>688</v>
-      </c>
-      <c r="J48" t="s">
-        <v>688</v>
-      </c>
-      <c r="L48" t="s">
-        <v>844</v>
-      </c>
-      <c r="O48">
-        <v>21</v>
-      </c>
-      <c r="P48" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>845</v>
-      </c>
-      <c r="B49" t="s">
-        <v>475</v>
-      </c>
-      <c r="C49" t="s">
-        <v>479</v>
-      </c>
-      <c r="D49">
-        <v>1983</v>
-      </c>
-      <c r="E49" t="s">
-        <v>846</v>
-      </c>
-      <c r="F49" t="s">
-        <v>843</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
       </c>
       <c r="H49" t="s">
         <v>688</v>
       </c>
       <c r="I49" t="s">
-        <v>688</v>
+        <v>36</v>
       </c>
       <c r="J49" t="s">
         <v>36</v>
       </c>
-      <c r="P49" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>578</v>
+      </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>579</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" t="s">
-        <v>851</v>
+        <v>580</v>
+      </c>
+      <c r="D50">
+        <v>1994</v>
+      </c>
+      <c r="E50" t="s">
+        <v>322</v>
       </c>
       <c r="F50" t="s">
-        <v>852</v>
+        <v>520</v>
       </c>
       <c r="G50" t="s">
         <v>688</v>
@@ -10703,27 +11779,33 @@
         <v>688</v>
       </c>
       <c r="I50" t="s">
-        <v>688</v>
+        <v>36</v>
       </c>
       <c r="J50" t="s">
-        <v>688</v>
-      </c>
-      <c r="O50">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>584</v>
+      </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" t="s">
-        <v>851</v>
+        <v>586</v>
+      </c>
+      <c r="D51">
+        <v>1993</v>
+      </c>
+      <c r="E51" t="s">
+        <v>587</v>
       </c>
       <c r="F51" t="s">
-        <v>852</v>
+        <v>520</v>
       </c>
       <c r="G51" t="s">
         <v>688</v>
@@ -10732,44 +11814,213 @@
         <v>688</v>
       </c>
       <c r="I51" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>675</v>
+      </c>
+      <c r="B52" t="s">
+        <v>676</v>
+      </c>
+      <c r="D52">
+        <v>1989</v>
+      </c>
+      <c r="E52" t="s">
+        <v>677</v>
+      </c>
+      <c r="F52" t="s">
+        <v>669</v>
+      </c>
+      <c r="J52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" t="s">
+        <v>465</v>
+      </c>
+      <c r="C53" t="s">
+        <v>466</v>
+      </c>
+      <c r="D53">
+        <v>1988</v>
+      </c>
+      <c r="E53" t="s">
+        <v>311</v>
+      </c>
+      <c r="F53" t="s">
+        <v>519</v>
+      </c>
+      <c r="G53" t="s">
         <v>688</v>
       </c>
-      <c r="J51" t="s">
+      <c r="H53" t="s">
         <v>688</v>
       </c>
-      <c r="O51">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" t="s">
-        <v>851</v>
-      </c>
-      <c r="F52" t="s">
-        <v>852</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="I53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" t="s">
+        <v>472</v>
+      </c>
+      <c r="D54">
+        <v>1986</v>
+      </c>
+      <c r="E54" t="s">
+        <v>212</v>
+      </c>
+      <c r="F54" t="s">
+        <v>641</v>
+      </c>
+      <c r="G54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>845</v>
+      </c>
+      <c r="B55" t="s">
+        <v>475</v>
+      </c>
+      <c r="C55" t="s">
+        <v>479</v>
+      </c>
+      <c r="D55">
+        <v>1983</v>
+      </c>
+      <c r="E55" t="s">
+        <v>846</v>
+      </c>
+      <c r="F55" t="s">
+        <v>843</v>
+      </c>
+      <c r="G55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" t="s">
         <v>688</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I55" t="s">
         <v>688</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="P55" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>978</v>
+      </c>
+      <c r="B56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56">
+        <v>2020</v>
+      </c>
+      <c r="E56" t="s">
+        <v>992</v>
+      </c>
+      <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s">
         <v>688</v>
       </c>
-      <c r="J52" t="s">
+      <c r="H56" t="s">
         <v>688</v>
       </c>
-      <c r="O52">
-        <v>24</v>
+      <c r="I56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D57">
+        <v>2020</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F57" t="s">
+        <v>642</v>
+      </c>
+      <c r="G57" t="s">
+        <v>688</v>
+      </c>
+      <c r="H57" t="s">
+        <v>688</v>
+      </c>
+      <c r="I57" t="s">
+        <v>688</v>
+      </c>
+      <c r="J57" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F51">
-    <sortCondition descending="1" ref="D2:D51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:P57">
+    <sortCondition ref="O2:O57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10779,41 +12030,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E90853A-A82C-4185-AE1B-AC3373DE1028}">
-  <dimension ref="A1:AF193"/>
+  <dimension ref="A1:AF209"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W77" sqref="W77"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.265625" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.265625" customWidth="1"/>
     <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="6.7109375" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="6.73046875" customWidth="1"/>
+    <col min="26" max="26" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>860</v>
@@ -10906,7 +12157,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10941,7 +12192,7 @@
         <v>693</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>689</v>
@@ -10974,7 +12225,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -11042,7 +12293,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11077,7 +12328,7 @@
         <v>693</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q4" t="s">
         <v>689</v>
@@ -11110,7 +12361,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11178,7 +12429,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -11246,7 +12497,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11281,7 +12532,7 @@
         <v>693</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q7" t="s">
         <v>689</v>
@@ -11314,7 +12565,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -11382,7 +12633,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -11417,7 +12668,7 @@
         <v>693</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q9" t="s">
         <v>689</v>
@@ -11450,7 +12701,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -11518,7 +12769,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11553,7 +12804,7 @@
         <v>693</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q11" t="s">
         <v>689</v>
@@ -11586,7 +12837,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11654,7 +12905,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11689,7 +12940,7 @@
         <v>693</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q13" t="s">
         <v>689</v>
@@ -11722,7 +12973,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -11790,7 +13041,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2</v>
       </c>
@@ -11837,7 +13088,7 @@
         <v>701</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>747</v>
@@ -11880,7 +13131,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2</v>
       </c>
@@ -11970,7 +13221,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -12060,7 +13311,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2</v>
       </c>
@@ -12107,7 +13358,7 @@
         <v>701</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>724</v>
@@ -12150,7 +13401,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2</v>
       </c>
@@ -12240,7 +13491,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
@@ -12330,7 +13581,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12377,7 +13628,7 @@
         <v>701</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>747</v>
@@ -12420,7 +13671,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
@@ -12510,7 +13761,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -12600,7 +13851,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2</v>
       </c>
@@ -12647,7 +13898,7 @@
         <v>701</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>724</v>
@@ -12690,7 +13941,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
@@ -12780,7 +14031,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12870,7 +14121,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3</v>
       </c>
@@ -12938,7 +14189,7 @@
         <v>0.28196343969713361</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -13006,7 +14257,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3</v>
       </c>
@@ -13074,7 +14325,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -13142,7 +14393,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
@@ -13210,7 +14461,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
@@ -13278,7 +14529,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -13346,7 +14597,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -13414,7 +14665,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
@@ -13482,7 +14733,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3</v>
       </c>
@@ -13550,7 +14801,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3</v>
       </c>
@@ -13618,7 +14869,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3</v>
       </c>
@@ -13686,7 +14937,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
@@ -13754,7 +15005,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
@@ -13822,7 +15073,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3</v>
       </c>
@@ -13890,7 +15141,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3</v>
       </c>
@@ -13958,7 +15209,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>3</v>
       </c>
@@ -14026,7 +15277,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>3</v>
       </c>
@@ -14094,7 +15345,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>3</v>
       </c>
@@ -14162,7 +15413,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>3</v>
       </c>
@@ -14230,7 +15481,7 @@
         <v>8.750589507842077E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3</v>
       </c>
@@ -14298,7 +15549,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3</v>
       </c>
@@ -14366,7 +15617,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3</v>
       </c>
@@ -14434,7 +15685,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>3</v>
       </c>
@@ -14502,7 +15753,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>4</v>
       </c>
@@ -14549,7 +15800,7 @@
         <v>703</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q51" t="s">
         <v>704</v>
@@ -14583,7 +15834,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>4</v>
       </c>
@@ -14673,7 +15924,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>4</v>
       </c>
@@ -14754,7 +16005,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>5</v>
       </c>
@@ -14801,7 +16052,7 @@
         <v>703</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q54" t="s">
         <v>724</v>
@@ -14844,7 +16095,7 @@
         <v>0.18644470868014273</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>5</v>
       </c>
@@ -14891,7 +16142,7 @@
         <v>703</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>724</v>
@@ -14934,7 +16185,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>5</v>
       </c>
@@ -14981,7 +16232,7 @@
         <v>703</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>724</v>
@@ -15024,7 +16275,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>5</v>
       </c>
@@ -15071,7 +16322,7 @@
         <v>703</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>724</v>
@@ -15114,7 +16365,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>5</v>
       </c>
@@ -15161,7 +16412,7 @@
         <v>703</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>724</v>
@@ -15204,7 +16455,7 @@
         <v>0.16780023781212844</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>5</v>
       </c>
@@ -15251,7 +16502,7 @@
         <v>703</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>724</v>
@@ -15294,7 +16545,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>6</v>
       </c>
@@ -15384,7 +16635,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>6</v>
       </c>
@@ -15474,7 +16725,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>6</v>
       </c>
@@ -15564,7 +16815,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>7</v>
       </c>
@@ -15632,7 +16883,7 @@
         <v>9.6439456416508307E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>8</v>
       </c>
@@ -15700,7 +16951,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>8</v>
       </c>
@@ -15768,7 +17019,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>8</v>
       </c>
@@ -15836,7 +17087,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>9</v>
       </c>
@@ -15926,7 +17177,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>9</v>
       </c>
@@ -16016,7 +17267,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>9</v>
       </c>
@@ -16106,7 +17357,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>9</v>
       </c>
@@ -16196,7 +17447,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>9</v>
       </c>
@@ -16286,7 +17537,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>9</v>
       </c>
@@ -16376,7 +17627,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>9</v>
       </c>
@@ -16466,7 +17717,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>9</v>
       </c>
@@ -16556,7 +17807,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>9</v>
       </c>
@@ -16646,7 +17897,7 @@
         <v>0.15229030339083877</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>10</v>
       </c>
@@ -16714,7 +17965,7 @@
         <v>0.1057831425598335</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>11</v>
       </c>
@@ -16800,7 +18051,7 @@
         <v>9.6065962019209694E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>12</v>
       </c>
@@ -16865,7 +18116,7 @@
         <v>8.7359557378242622E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>12</v>
       </c>
@@ -16930,7 +18181,7 @@
         <v>5.8638985672772481E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>13</v>
       </c>
@@ -17013,7 +18264,7 @@
         <v>0.10543302850995159</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>14</v>
       </c>
@@ -17099,7 +18350,7 @@
         <v>9.8937120033820339E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>15</v>
       </c>
@@ -17167,7 +18418,7 @@
         <v>9.6166493236212278E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>15</v>
       </c>
@@ -17235,7 +18486,7 @@
         <v>9.6166493236212278E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>16</v>
       </c>
@@ -17282,7 +18533,7 @@
         <v>703</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q84" t="s">
         <v>724</v>
@@ -17325,7 +18576,7 @@
         <v>0.21314328006359476</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>16</v>
       </c>
@@ -17372,7 +18623,7 @@
         <v>703</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>724</v>
@@ -17415,7 +18666,7 @@
         <v>8.7194978207834214E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>16</v>
       </c>
@@ -17462,7 +18713,7 @@
         <v>703</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>724</v>
@@ -17505,7 +18756,7 @@
         <v>8.7194978207834214E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>17</v>
       </c>
@@ -17592,7 +18843,7 @@
         <v>8.7894809688581321E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>17</v>
       </c>
@@ -17679,7 +18930,7 @@
         <v>8.7894809688581321E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>17</v>
       </c>
@@ -17766,7 +19017,7 @@
         <v>7.8128719723183401E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>17</v>
       </c>
@@ -17853,7 +19104,7 @@
         <v>7.8128719723183401E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>18</v>
       </c>
@@ -17943,7 +19194,7 @@
         <v>0.28435627851616746</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>18</v>
       </c>
@@ -18033,7 +19284,7 @@
         <v>0.18345566355881771</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>18</v>
       </c>
@@ -18123,7 +19374,7 @@
         <v>0.32104741122793096</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>18</v>
       </c>
@@ -18213,7 +19464,7 @@
         <v>0.21097401309264038</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>19</v>
       </c>
@@ -18297,7 +19548,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>19</v>
       </c>
@@ -18381,7 +19632,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>19</v>
       </c>
@@ -18468,7 +19719,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>20</v>
       </c>
@@ -18543,7 +19794,7 @@
         <v>0.16832749667914504</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>20</v>
       </c>
@@ -18618,7 +19869,7 @@
         <v>0.1589759690858592</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>20</v>
       </c>
@@ -18693,7 +19944,7 @@
         <v>0.20360839609037015</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>20</v>
       </c>
@@ -18768,7 +20019,7 @@
         <v>0.19435346899535333</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>20</v>
       </c>
@@ -18843,7 +20094,7 @@
         <v>0.20360839609037015</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>20</v>
       </c>
@@ -18918,7 +20169,7 @@
         <v>0.30286641427798805</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>20</v>
       </c>
@@ -18993,7 +20244,7 @@
         <v>0.31151974040021629</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>20</v>
       </c>
@@ -19068,7 +20319,7 @@
         <v>0.35478637101135746</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>21</v>
       </c>
@@ -19112,7 +20363,7 @@
         <v>703</v>
       </c>
       <c r="P106" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q106" t="s">
         <v>724</v>
@@ -19155,7 +20406,7 @@
         <v>0.31550928021729291</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>21</v>
       </c>
@@ -19199,7 +20450,7 @@
         <v>703</v>
       </c>
       <c r="P107" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q107" t="s">
         <v>730</v>
@@ -19242,18 +20493,18 @@
         <v>0.30674513354459032</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>22</v>
       </c>
       <c r="B108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>862</v>
-      </c>
-      <c r="D108" t="s">
-        <v>963</v>
+        <v>1045</v>
+      </c>
+      <c r="D108">
+        <v>2020</v>
       </c>
       <c r="E108">
         <v>107</v>
@@ -19264,6 +20515,9 @@
       <c r="G108" t="s">
         <v>698</v>
       </c>
+      <c r="H108">
+        <v>24.92</v>
+      </c>
       <c r="L108">
         <v>30</v>
       </c>
@@ -19277,7 +20531,7 @@
         <v>703</v>
       </c>
       <c r="P108" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q108" t="s">
         <v>724</v>
@@ -19320,18 +20574,18 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>22</v>
       </c>
       <c r="B109" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>862</v>
-      </c>
-      <c r="D109" t="s">
-        <v>963</v>
+        <v>1045</v>
+      </c>
+      <c r="D109">
+        <v>2020</v>
       </c>
       <c r="E109">
         <v>108</v>
@@ -19342,6 +20596,9 @@
       <c r="G109" t="s">
         <v>698</v>
       </c>
+      <c r="H109">
+        <v>24.92</v>
+      </c>
       <c r="L109">
         <v>30</v>
       </c>
@@ -19355,7 +20612,7 @@
         <v>703</v>
       </c>
       <c r="P109" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q109" t="s">
         <v>730</v>
@@ -19398,18 +20655,18 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>22</v>
       </c>
       <c r="B110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>862</v>
-      </c>
-      <c r="D110" t="s">
-        <v>963</v>
+        <v>1045</v>
+      </c>
+      <c r="D110">
+        <v>2020</v>
       </c>
       <c r="E110">
         <v>109</v>
@@ -19420,6 +20677,9 @@
       <c r="G110" t="s">
         <v>698</v>
       </c>
+      <c r="H110">
+        <v>24.92</v>
+      </c>
       <c r="L110">
         <v>30</v>
       </c>
@@ -19433,7 +20693,7 @@
         <v>703</v>
       </c>
       <c r="P110" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q110" t="s">
         <v>854</v>
@@ -19476,18 +20736,18 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>22</v>
       </c>
       <c r="B111" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>862</v>
-      </c>
-      <c r="D111" t="s">
-        <v>963</v>
+        <v>1045</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
       </c>
       <c r="E111">
         <v>110</v>
@@ -19498,6 +20758,9 @@
       <c r="G111" t="s">
         <v>698</v>
       </c>
+      <c r="H111">
+        <v>24.92</v>
+      </c>
       <c r="L111">
         <v>30</v>
       </c>
@@ -19511,7 +20774,7 @@
         <v>703</v>
       </c>
       <c r="P111" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q111" t="s">
         <v>704</v>
@@ -19554,18 +20817,18 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>22</v>
       </c>
       <c r="B112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>862</v>
-      </c>
-      <c r="D112" t="s">
-        <v>963</v>
+        <v>1045</v>
+      </c>
+      <c r="D112">
+        <v>2020</v>
       </c>
       <c r="E112">
         <v>111</v>
@@ -19575,6 +20838,9 @@
       </c>
       <c r="G112" t="s">
         <v>698</v>
+      </c>
+      <c r="H112">
+        <v>24.92</v>
       </c>
       <c r="L112">
         <v>30</v>
@@ -19629,7 +20895,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>23</v>
       </c>
@@ -19707,7 +20973,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>23</v>
       </c>
@@ -19785,7 +21051,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>23</v>
       </c>
@@ -19820,7 +21086,7 @@
         <v>703</v>
       </c>
       <c r="P115" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q115" t="s">
         <v>704</v>
@@ -19863,7 +21129,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>24</v>
       </c>
@@ -19919,7 +21185,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>24</v>
       </c>
@@ -19975,7 +21241,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>24</v>
       </c>
@@ -20031,7 +21297,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>24</v>
       </c>
@@ -20087,7 +21353,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>24</v>
       </c>
@@ -20143,7 +21409,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>24</v>
       </c>
@@ -20199,7 +21465,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>24</v>
       </c>
@@ -20255,7 +21521,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>24</v>
       </c>
@@ -20311,7 +21577,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>24</v>
       </c>
@@ -20367,7 +21633,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>24</v>
       </c>
@@ -20423,7 +21689,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>24</v>
       </c>
@@ -20479,7 +21745,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>24</v>
       </c>
@@ -20535,7 +21801,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>24</v>
       </c>
@@ -20591,7 +21857,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>24</v>
       </c>
@@ -20647,7 +21913,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>24</v>
       </c>
@@ -20703,7 +21969,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>24</v>
       </c>
@@ -20759,7 +22025,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>24</v>
       </c>
@@ -20815,7 +22081,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>24</v>
       </c>
@@ -20871,7 +22137,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>24</v>
       </c>
@@ -20927,7 +22193,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>24</v>
       </c>
@@ -20983,7 +22249,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>24</v>
       </c>
@@ -21039,7 +22305,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>24</v>
       </c>
@@ -21095,7 +22361,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>24</v>
       </c>
@@ -21151,7 +22417,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>24</v>
       </c>
@@ -21207,7 +22473,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>24</v>
       </c>
@@ -21263,7 +22529,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>24</v>
       </c>
@@ -21319,7 +22585,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>24</v>
       </c>
@@ -21375,7 +22641,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>24</v>
       </c>
@@ -21431,7 +22697,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>24</v>
       </c>
@@ -21487,7 +22753,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>24</v>
       </c>
@@ -21543,7 +22809,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>24</v>
       </c>
@@ -21599,7 +22865,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>24</v>
       </c>
@@ -21655,7 +22921,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>24</v>
       </c>
@@ -21711,7 +22977,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>24</v>
       </c>
@@ -21767,7 +23033,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>24</v>
       </c>
@@ -21823,7 +23089,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>24</v>
       </c>
@@ -21879,7 +23145,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>24</v>
       </c>
@@ -21935,7 +23201,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>24</v>
       </c>
@@ -21991,7 +23257,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>24</v>
       </c>
@@ -22047,7 +23313,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>24</v>
       </c>
@@ -22103,7 +23369,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>24</v>
       </c>
@@ -22159,7 +23425,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>24</v>
       </c>
@@ -22215,7 +23481,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>24</v>
       </c>
@@ -22271,7 +23537,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>24</v>
       </c>
@@ -22327,7 +23593,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>24</v>
       </c>
@@ -22383,7 +23649,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>24</v>
       </c>
@@ -22439,7 +23705,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>24</v>
       </c>
@@ -22495,7 +23761,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>24</v>
       </c>
@@ -22551,7 +23817,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>24</v>
       </c>
@@ -22607,7 +23873,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>24</v>
       </c>
@@ -22663,7 +23929,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>24</v>
       </c>
@@ -22719,7 +23985,7 @@
         <v>4.9158500297560012E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>24</v>
       </c>
@@ -22775,7 +24041,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>24</v>
       </c>
@@ -22831,7 +24097,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>24</v>
       </c>
@@ -22887,7 +24153,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>24</v>
       </c>
@@ -22943,7 +24209,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>24</v>
       </c>
@@ -22999,7 +24265,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>24</v>
       </c>
@@ -23055,7 +24321,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>24</v>
       </c>
@@ -23111,7 +24377,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>24</v>
       </c>
@@ -23167,7 +24433,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>24</v>
       </c>
@@ -23223,7 +24489,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>24</v>
       </c>
@@ -23279,7 +24545,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>24</v>
       </c>
@@ -23335,7 +24601,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>24</v>
       </c>
@@ -23391,7 +24657,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>24</v>
       </c>
@@ -23447,7 +24713,7 @@
         <v>4.9158500297560012E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>24</v>
       </c>
@@ -23503,7 +24769,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>24</v>
       </c>
@@ -23559,7 +24825,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>24</v>
       </c>
@@ -23615,7 +24881,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>24</v>
       </c>
@@ -23671,7 +24937,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>24</v>
       </c>
@@ -23727,7 +24993,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>24</v>
       </c>
@@ -23783,7 +25049,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>24</v>
       </c>
@@ -23839,7 +25105,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>24</v>
       </c>
@@ -23895,7 +25161,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>24</v>
       </c>
@@ -23951,7 +25217,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>24</v>
       </c>
@@ -24007,7 +25273,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>24</v>
       </c>
@@ -24063,7 +25329,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>24</v>
       </c>
@@ -24119,7 +25385,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>24</v>
       </c>
@@ -24175,7 +25441,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>24</v>
       </c>
@@ -24229,6 +25495,1355 @@
       <c r="AF193" s="2">
         <f t="shared" si="12"/>
         <v>4.9139183948043751E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>25</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>877</v>
+      </c>
+      <c r="D194">
+        <v>2020</v>
+      </c>
+      <c r="E194">
+        <v>193</v>
+      </c>
+      <c r="F194" t="s">
+        <v>697</v>
+      </c>
+      <c r="G194" t="s">
+        <v>713</v>
+      </c>
+      <c r="H194">
+        <v>15.7</v>
+      </c>
+      <c r="I194" t="s">
+        <v>714</v>
+      </c>
+      <c r="J194" t="s">
+        <v>715</v>
+      </c>
+      <c r="K194" t="s">
+        <v>716</v>
+      </c>
+      <c r="L194">
+        <v>14</v>
+      </c>
+      <c r="M194">
+        <v>14</v>
+      </c>
+      <c r="N194" t="s">
+        <v>707</v>
+      </c>
+      <c r="O194" t="s">
+        <v>703</v>
+      </c>
+      <c r="P194" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>747</v>
+      </c>
+      <c r="R194" t="s">
+        <v>1036</v>
+      </c>
+      <c r="S194">
+        <v>-1.71</v>
+      </c>
+      <c r="T194">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U194">
+        <v>3.56</v>
+      </c>
+      <c r="V194">
+        <v>1.99</v>
+      </c>
+      <c r="W194">
+        <v>28</v>
+      </c>
+      <c r="AB194">
+        <v>-0.62</v>
+      </c>
+      <c r="AC194">
+        <v>0.15</v>
+      </c>
+      <c r="AD194">
+        <v>0.97087378599999996</v>
+      </c>
+      <c r="AE194">
+        <v>-0.601941748</v>
+      </c>
+      <c r="AF194">
+        <v>0.14138938600000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>25</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>877</v>
+      </c>
+      <c r="D195">
+        <v>2020</v>
+      </c>
+      <c r="E195">
+        <v>194</v>
+      </c>
+      <c r="F195" t="s">
+        <v>697</v>
+      </c>
+      <c r="G195" t="s">
+        <v>713</v>
+      </c>
+      <c r="H195">
+        <v>15.7</v>
+      </c>
+      <c r="I195" t="s">
+        <v>714</v>
+      </c>
+      <c r="J195" t="s">
+        <v>715</v>
+      </c>
+      <c r="K195" t="s">
+        <v>716</v>
+      </c>
+      <c r="L195">
+        <v>14</v>
+      </c>
+      <c r="M195">
+        <v>14</v>
+      </c>
+      <c r="N195" t="s">
+        <v>707</v>
+      </c>
+      <c r="O195" t="s">
+        <v>703</v>
+      </c>
+      <c r="P195" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>747</v>
+      </c>
+      <c r="R195" t="s">
+        <v>1037</v>
+      </c>
+      <c r="S195">
+        <v>-5.36</v>
+      </c>
+      <c r="T195">
+        <v>-2.15</v>
+      </c>
+      <c r="U195">
+        <v>7.5</v>
+      </c>
+      <c r="V195">
+        <v>3.66</v>
+      </c>
+      <c r="W195">
+        <v>28</v>
+      </c>
+      <c r="AB195">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="AC195">
+        <v>0.15</v>
+      </c>
+      <c r="AD195">
+        <v>0.97087378599999996</v>
+      </c>
+      <c r="AE195">
+        <v>-0.53398058299999995</v>
+      </c>
+      <c r="AF195">
+        <v>0.14138938600000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>25</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>877</v>
+      </c>
+      <c r="D196">
+        <v>2020</v>
+      </c>
+      <c r="E196">
+        <v>195</v>
+      </c>
+      <c r="F196" t="s">
+        <v>697</v>
+      </c>
+      <c r="G196" t="s">
+        <v>713</v>
+      </c>
+      <c r="H196">
+        <v>15.7</v>
+      </c>
+      <c r="I196" t="s">
+        <v>714</v>
+      </c>
+      <c r="J196" t="s">
+        <v>715</v>
+      </c>
+      <c r="K196" t="s">
+        <v>716</v>
+      </c>
+      <c r="L196">
+        <v>14</v>
+      </c>
+      <c r="M196">
+        <v>14</v>
+      </c>
+      <c r="N196" t="s">
+        <v>707</v>
+      </c>
+      <c r="O196" t="s">
+        <v>703</v>
+      </c>
+      <c r="P196" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>724</v>
+      </c>
+      <c r="R196" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S196">
+        <v>14.87</v>
+      </c>
+      <c r="T196">
+        <v>13.69</v>
+      </c>
+      <c r="U196">
+        <v>7.07</v>
+      </c>
+      <c r="V196">
+        <v>9.65</v>
+      </c>
+      <c r="W196">
+        <v>28</v>
+      </c>
+      <c r="AB196">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC196">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD196">
+        <v>0.97087378599999996</v>
+      </c>
+      <c r="AE196">
+        <v>0.13592233000000001</v>
+      </c>
+      <c r="AF196">
+        <v>0.13196342699999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>25</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>877</v>
+      </c>
+      <c r="D197">
+        <v>2020</v>
+      </c>
+      <c r="E197">
+        <v>196</v>
+      </c>
+      <c r="F197" t="s">
+        <v>697</v>
+      </c>
+      <c r="G197" t="s">
+        <v>713</v>
+      </c>
+      <c r="H197">
+        <v>15.7</v>
+      </c>
+      <c r="I197" t="s">
+        <v>714</v>
+      </c>
+      <c r="J197" t="s">
+        <v>715</v>
+      </c>
+      <c r="K197" t="s">
+        <v>716</v>
+      </c>
+      <c r="L197">
+        <v>14</v>
+      </c>
+      <c r="M197">
+        <v>14</v>
+      </c>
+      <c r="N197" t="s">
+        <v>707</v>
+      </c>
+      <c r="O197" t="s">
+        <v>703</v>
+      </c>
+      <c r="P197" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>724</v>
+      </c>
+      <c r="R197" t="s">
+        <v>1039</v>
+      </c>
+      <c r="S197">
+        <v>13.17</v>
+      </c>
+      <c r="T197">
+        <v>10.98</v>
+      </c>
+      <c r="U197">
+        <v>9.5</v>
+      </c>
+      <c r="V197">
+        <v>5.87</v>
+      </c>
+      <c r="W197">
+        <v>28</v>
+      </c>
+      <c r="AB197">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC197">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD197">
+        <v>0.97087378599999996</v>
+      </c>
+      <c r="AE197">
+        <v>0.27184466000000002</v>
+      </c>
+      <c r="AF197">
+        <v>0.13196342699999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>26</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D198">
+        <v>2020</v>
+      </c>
+      <c r="E198">
+        <v>197</v>
+      </c>
+      <c r="F198" t="s">
+        <v>690</v>
+      </c>
+      <c r="G198" t="s">
+        <v>713</v>
+      </c>
+      <c r="H198">
+        <v>15.9</v>
+      </c>
+      <c r="I198" t="s">
+        <v>719</v>
+      </c>
+      <c r="J198" t="s">
+        <v>692</v>
+      </c>
+      <c r="K198" t="s">
+        <v>693</v>
+      </c>
+      <c r="P198" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>704</v>
+      </c>
+      <c r="R198" t="s">
+        <v>1041</v>
+      </c>
+      <c r="W198">
+        <v>58</v>
+      </c>
+      <c r="X198">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB198">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC198">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD198">
+        <v>0.98654708499999999</v>
+      </c>
+      <c r="AE198">
+        <v>0.13811659200000001</v>
+      </c>
+      <c r="AF198">
+        <v>6.8129260999999997E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>26</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D199">
+        <v>2020</v>
+      </c>
+      <c r="E199">
+        <v>198</v>
+      </c>
+      <c r="F199" t="s">
+        <v>690</v>
+      </c>
+      <c r="G199" t="s">
+        <v>713</v>
+      </c>
+      <c r="H199">
+        <v>15.9</v>
+      </c>
+      <c r="I199" t="s">
+        <v>719</v>
+      </c>
+      <c r="J199" t="s">
+        <v>692</v>
+      </c>
+      <c r="K199" t="s">
+        <v>693</v>
+      </c>
+      <c r="P199" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>704</v>
+      </c>
+      <c r="R199" t="s">
+        <v>1042</v>
+      </c>
+      <c r="W199">
+        <v>58</v>
+      </c>
+      <c r="X199">
+        <v>-0.1</v>
+      </c>
+      <c r="AB199">
+        <v>-0.2</v>
+      </c>
+      <c r="AC199">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD199">
+        <v>0.98654708499999999</v>
+      </c>
+      <c r="AE199">
+        <v>-0.19730941699999999</v>
+      </c>
+      <c r="AF199">
+        <v>6.8129260999999997E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>26</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D200">
+        <v>2020</v>
+      </c>
+      <c r="E200">
+        <v>199</v>
+      </c>
+      <c r="F200" t="s">
+        <v>690</v>
+      </c>
+      <c r="G200" t="s">
+        <v>713</v>
+      </c>
+      <c r="H200">
+        <v>15.9</v>
+      </c>
+      <c r="I200" t="s">
+        <v>719</v>
+      </c>
+      <c r="J200" t="s">
+        <v>692</v>
+      </c>
+      <c r="K200" t="s">
+        <v>693</v>
+      </c>
+      <c r="P200" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>704</v>
+      </c>
+      <c r="R200" t="s">
+        <v>1043</v>
+      </c>
+      <c r="W200">
+        <v>58</v>
+      </c>
+      <c r="X200">
+        <v>0.35</v>
+      </c>
+      <c r="AB200">
+        <v>0.75</v>
+      </c>
+      <c r="AC200">
+        <v>0.08</v>
+      </c>
+      <c r="AD200">
+        <v>0.98654708499999999</v>
+      </c>
+      <c r="AE200">
+        <v>0.73991031399999996</v>
+      </c>
+      <c r="AF200">
+        <v>7.7862011999999994E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>27</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D201">
+        <v>2020</v>
+      </c>
+      <c r="E201">
+        <v>200</v>
+      </c>
+      <c r="F201" t="s">
+        <v>697</v>
+      </c>
+      <c r="G201" t="s">
+        <v>695</v>
+      </c>
+      <c r="H201">
+        <v>12.91</v>
+      </c>
+      <c r="I201" t="s">
+        <v>705</v>
+      </c>
+      <c r="J201" t="s">
+        <v>692</v>
+      </c>
+      <c r="K201" t="s">
+        <v>693</v>
+      </c>
+      <c r="L201">
+        <v>27</v>
+      </c>
+      <c r="M201">
+        <v>237</v>
+      </c>
+      <c r="N201" t="s">
+        <v>701</v>
+      </c>
+      <c r="O201" t="s">
+        <v>703</v>
+      </c>
+      <c r="P201" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>704</v>
+      </c>
+      <c r="R201" t="s">
+        <v>1041</v>
+      </c>
+      <c r="S201">
+        <v>16.09</v>
+      </c>
+      <c r="T201">
+        <v>18.2</v>
+      </c>
+      <c r="U201">
+        <v>7.91</v>
+      </c>
+      <c r="V201">
+        <v>8.18</v>
+      </c>
+      <c r="W201">
+        <f>L201+M201</f>
+        <v>264</v>
+      </c>
+      <c r="AB201">
+        <v>-0.26</v>
+      </c>
+      <c r="AC201">
+        <v>0.04</v>
+      </c>
+      <c r="AD201">
+        <f t="shared" ref="AD201:AD202" si="13">1-(3/(4*(W201-2)-1))</f>
+        <v>0.99713467048710602</v>
+      </c>
+      <c r="AE201">
+        <f t="shared" ref="AE201:AE202" si="14">AD201*AB201</f>
+        <v>-0.25925501432664755</v>
+      </c>
+      <c r="AF201">
+        <f t="shared" ref="AF201:AF202" si="15">(AD201^2)*AC201</f>
+        <v>3.9771102043497181E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>27</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D202">
+        <v>2020</v>
+      </c>
+      <c r="E202">
+        <v>201</v>
+      </c>
+      <c r="F202" t="s">
+        <v>697</v>
+      </c>
+      <c r="G202" t="s">
+        <v>695</v>
+      </c>
+      <c r="H202">
+        <v>12.91</v>
+      </c>
+      <c r="I202" t="s">
+        <v>705</v>
+      </c>
+      <c r="J202" t="s">
+        <v>692</v>
+      </c>
+      <c r="K202" t="s">
+        <v>693</v>
+      </c>
+      <c r="L202">
+        <v>27</v>
+      </c>
+      <c r="M202">
+        <v>237</v>
+      </c>
+      <c r="N202" t="s">
+        <v>701</v>
+      </c>
+      <c r="O202" t="s">
+        <v>703</v>
+      </c>
+      <c r="P202" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>704</v>
+      </c>
+      <c r="R202" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S202">
+        <v>12.18</v>
+      </c>
+      <c r="T202">
+        <v>13.95</v>
+      </c>
+      <c r="U202">
+        <v>7.44</v>
+      </c>
+      <c r="V202">
+        <v>7.91</v>
+      </c>
+      <c r="W202">
+        <f t="shared" ref="W202:W209" si="16">L202+M202</f>
+        <v>264</v>
+      </c>
+      <c r="AB202">
+        <v>-0.23</v>
+      </c>
+      <c r="AC202">
+        <v>0.04</v>
+      </c>
+      <c r="AD202">
+        <f t="shared" si="13"/>
+        <v>0.99713467048710602</v>
+      </c>
+      <c r="AE202">
+        <f t="shared" si="14"/>
+        <v>-0.22934097421203439</v>
+      </c>
+      <c r="AF202">
+        <f t="shared" si="15"/>
+        <v>3.9771102043497181E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>27</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D203">
+        <v>2020</v>
+      </c>
+      <c r="E203">
+        <v>202</v>
+      </c>
+      <c r="F203" t="s">
+        <v>697</v>
+      </c>
+      <c r="G203" t="s">
+        <v>695</v>
+      </c>
+      <c r="H203">
+        <v>12.91</v>
+      </c>
+      <c r="I203" t="s">
+        <v>705</v>
+      </c>
+      <c r="J203" t="s">
+        <v>692</v>
+      </c>
+      <c r="K203" t="s">
+        <v>693</v>
+      </c>
+      <c r="L203">
+        <v>27</v>
+      </c>
+      <c r="M203">
+        <v>237</v>
+      </c>
+      <c r="N203" t="s">
+        <v>701</v>
+      </c>
+      <c r="O203" t="s">
+        <v>703</v>
+      </c>
+      <c r="P203" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>704</v>
+      </c>
+      <c r="R203" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S203">
+        <v>3.91</v>
+      </c>
+      <c r="T203">
+        <v>4.26</v>
+      </c>
+      <c r="U203">
+        <v>5.2</v>
+      </c>
+      <c r="V203">
+        <v>6.03</v>
+      </c>
+      <c r="W203">
+        <f t="shared" si="16"/>
+        <v>264</v>
+      </c>
+      <c r="AB203">
+        <v>-0.06</v>
+      </c>
+      <c r="AC203">
+        <v>0.04</v>
+      </c>
+      <c r="AD203">
+        <f>1-(3/(4*(W203-2)-1))</f>
+        <v>0.99713467048710602</v>
+      </c>
+      <c r="AE203">
+        <f>AD203*AB203</f>
+        <v>-5.9828080229226359E-2</v>
+      </c>
+      <c r="AF203">
+        <f>(AD203^2)*AC203</f>
+        <v>3.9771102043497181E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>27</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D204">
+        <v>2020</v>
+      </c>
+      <c r="E204">
+        <v>203</v>
+      </c>
+      <c r="F204" t="s">
+        <v>697</v>
+      </c>
+      <c r="G204" t="s">
+        <v>695</v>
+      </c>
+      <c r="H204">
+        <v>12.42</v>
+      </c>
+      <c r="I204" t="s">
+        <v>705</v>
+      </c>
+      <c r="J204" t="s">
+        <v>692</v>
+      </c>
+      <c r="K204" t="s">
+        <v>693</v>
+      </c>
+      <c r="L204">
+        <v>48</v>
+      </c>
+      <c r="M204">
+        <v>263</v>
+      </c>
+      <c r="N204" t="s">
+        <v>701</v>
+      </c>
+      <c r="O204" t="s">
+        <v>703</v>
+      </c>
+      <c r="P204" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>704</v>
+      </c>
+      <c r="R204" t="s">
+        <v>1041</v>
+      </c>
+      <c r="S204">
+        <v>3.41</v>
+      </c>
+      <c r="T204">
+        <v>3.81</v>
+      </c>
+      <c r="U204">
+        <v>5.12</v>
+      </c>
+      <c r="V204">
+        <v>6.54</v>
+      </c>
+      <c r="W204">
+        <f t="shared" si="16"/>
+        <v>311</v>
+      </c>
+      <c r="AB204">
+        <v>-0.06</v>
+      </c>
+      <c r="AC204">
+        <v>0.02</v>
+      </c>
+      <c r="AD204">
+        <f t="shared" ref="AD204:AD205" si="17">1-(3/(4*(W204-2)-1))</f>
+        <v>0.99757085020242919</v>
+      </c>
+      <c r="AE204">
+        <f t="shared" ref="AE204:AE205" si="18">AD204*AB204</f>
+        <v>-5.9854251012145747E-2</v>
+      </c>
+      <c r="AF204">
+        <f t="shared" ref="AF204:AF205" si="19">(AD204^2)*AC204</f>
+        <v>1.9902952023471948E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>27</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D205">
+        <v>2020</v>
+      </c>
+      <c r="E205">
+        <v>204</v>
+      </c>
+      <c r="F205" t="s">
+        <v>697</v>
+      </c>
+      <c r="G205" t="s">
+        <v>695</v>
+      </c>
+      <c r="H205">
+        <v>12.42</v>
+      </c>
+      <c r="I205" t="s">
+        <v>705</v>
+      </c>
+      <c r="J205" t="s">
+        <v>692</v>
+      </c>
+      <c r="K205" t="s">
+        <v>693</v>
+      </c>
+      <c r="L205">
+        <v>48</v>
+      </c>
+      <c r="M205">
+        <v>263</v>
+      </c>
+      <c r="N205" t="s">
+        <v>701</v>
+      </c>
+      <c r="O205" t="s">
+        <v>703</v>
+      </c>
+      <c r="P205" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>704</v>
+      </c>
+      <c r="R205" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S205">
+        <v>-1.58</v>
+      </c>
+      <c r="T205">
+        <v>-0.21</v>
+      </c>
+      <c r="U205">
+        <v>5.4</v>
+      </c>
+      <c r="V205">
+        <v>4.99</v>
+      </c>
+      <c r="W205">
+        <f t="shared" si="16"/>
+        <v>311</v>
+      </c>
+      <c r="AB205">
+        <v>-0.27</v>
+      </c>
+      <c r="AC205">
+        <v>0.02</v>
+      </c>
+      <c r="AD205">
+        <f t="shared" si="17"/>
+        <v>0.99757085020242919</v>
+      </c>
+      <c r="AE205">
+        <f t="shared" si="18"/>
+        <v>-0.26934412955465592</v>
+      </c>
+      <c r="AF205">
+        <f t="shared" si="19"/>
+        <v>1.9902952023471948E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>27</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D206">
+        <v>2020</v>
+      </c>
+      <c r="E206">
+        <v>205</v>
+      </c>
+      <c r="F206" t="s">
+        <v>697</v>
+      </c>
+      <c r="G206" t="s">
+        <v>695</v>
+      </c>
+      <c r="H206">
+        <v>12.42</v>
+      </c>
+      <c r="I206" t="s">
+        <v>705</v>
+      </c>
+      <c r="J206" t="s">
+        <v>692</v>
+      </c>
+      <c r="K206" t="s">
+        <v>693</v>
+      </c>
+      <c r="L206">
+        <v>48</v>
+      </c>
+      <c r="M206">
+        <v>263</v>
+      </c>
+      <c r="N206" t="s">
+        <v>701</v>
+      </c>
+      <c r="O206" t="s">
+        <v>703</v>
+      </c>
+      <c r="P206" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>704</v>
+      </c>
+      <c r="R206" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S206">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="T206">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="U206">
+        <v>5.14</v>
+      </c>
+      <c r="V206">
+        <v>5.99</v>
+      </c>
+      <c r="W206">
+        <f t="shared" si="16"/>
+        <v>311</v>
+      </c>
+      <c r="AB206">
+        <v>0.16</v>
+      </c>
+      <c r="AC206">
+        <v>0.02</v>
+      </c>
+      <c r="AD206">
+        <f>1-(3/(4*(W206-2)-1))</f>
+        <v>0.99757085020242919</v>
+      </c>
+      <c r="AE206">
+        <f>AD206*AB206</f>
+        <v>0.15961133603238867</v>
+      </c>
+      <c r="AF206">
+        <f>(AD206^2)*AC206</f>
+        <v>1.9902952023471948E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>27</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D207">
+        <v>2020</v>
+      </c>
+      <c r="E207">
+        <v>206</v>
+      </c>
+      <c r="F207" t="s">
+        <v>697</v>
+      </c>
+      <c r="G207" t="s">
+        <v>695</v>
+      </c>
+      <c r="H207">
+        <v>14.41</v>
+      </c>
+      <c r="I207" t="s">
+        <v>705</v>
+      </c>
+      <c r="J207" t="s">
+        <v>692</v>
+      </c>
+      <c r="K207" t="s">
+        <v>693</v>
+      </c>
+      <c r="L207">
+        <v>33</v>
+      </c>
+      <c r="M207">
+        <v>222</v>
+      </c>
+      <c r="N207" t="s">
+        <v>701</v>
+      </c>
+      <c r="O207" t="s">
+        <v>703</v>
+      </c>
+      <c r="P207" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>704</v>
+      </c>
+      <c r="R207" t="s">
+        <v>1041</v>
+      </c>
+      <c r="S207">
+        <v>6.55</v>
+      </c>
+      <c r="T207">
+        <v>6.64</v>
+      </c>
+      <c r="U207">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="V207">
+        <v>6.14</v>
+      </c>
+      <c r="W207">
+        <f t="shared" si="16"/>
+        <v>255</v>
+      </c>
+      <c r="AB207">
+        <v>-0.02</v>
+      </c>
+      <c r="AC207">
+        <v>0.03</v>
+      </c>
+      <c r="AD207">
+        <f t="shared" ref="AD207:AD208" si="20">1-(3/(4*(W207-2)-1))</f>
+        <v>0.9970326409495549</v>
+      </c>
+      <c r="AE207">
+        <f t="shared" ref="AE207:AE208" si="21">AD207*AB207</f>
+        <v>-1.9940652818991097E-2</v>
+      </c>
+      <c r="AF207">
+        <f t="shared" ref="AF207:AF208" si="22">(AD207^2)*AC207</f>
+        <v>2.9822222613565319E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>27</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D208">
+        <v>2020</v>
+      </c>
+      <c r="E208">
+        <v>207</v>
+      </c>
+      <c r="F208" t="s">
+        <v>697</v>
+      </c>
+      <c r="G208" t="s">
+        <v>695</v>
+      </c>
+      <c r="H208">
+        <v>14.41</v>
+      </c>
+      <c r="I208" t="s">
+        <v>705</v>
+      </c>
+      <c r="J208" t="s">
+        <v>692</v>
+      </c>
+      <c r="K208" t="s">
+        <v>693</v>
+      </c>
+      <c r="L208">
+        <v>33</v>
+      </c>
+      <c r="M208">
+        <v>222</v>
+      </c>
+      <c r="N208" t="s">
+        <v>701</v>
+      </c>
+      <c r="O208" t="s">
+        <v>703</v>
+      </c>
+      <c r="P208" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>704</v>
+      </c>
+      <c r="R208" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S208">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T208">
+        <v>2.7</v>
+      </c>
+      <c r="U208">
+        <v>4.43</v>
+      </c>
+      <c r="V208">
+        <v>5.69</v>
+      </c>
+      <c r="W208">
+        <f t="shared" si="16"/>
+        <v>255</v>
+      </c>
+      <c r="AB208">
+        <v>-0.09</v>
+      </c>
+      <c r="AC208">
+        <v>0.03</v>
+      </c>
+      <c r="AD208">
+        <f t="shared" si="20"/>
+        <v>0.9970326409495549</v>
+      </c>
+      <c r="AE208">
+        <f t="shared" si="21"/>
+        <v>-8.9732937685459938E-2</v>
+      </c>
+      <c r="AF208">
+        <f t="shared" si="22"/>
+        <v>2.9822222613565319E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>27</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D209">
+        <v>2020</v>
+      </c>
+      <c r="E209">
+        <v>208</v>
+      </c>
+      <c r="F209" t="s">
+        <v>697</v>
+      </c>
+      <c r="G209" t="s">
+        <v>695</v>
+      </c>
+      <c r="H209">
+        <v>14.41</v>
+      </c>
+      <c r="I209" t="s">
+        <v>705</v>
+      </c>
+      <c r="J209" t="s">
+        <v>692</v>
+      </c>
+      <c r="K209" t="s">
+        <v>693</v>
+      </c>
+      <c r="L209">
+        <v>33</v>
+      </c>
+      <c r="M209">
+        <v>222</v>
+      </c>
+      <c r="N209" t="s">
+        <v>701</v>
+      </c>
+      <c r="O209" t="s">
+        <v>703</v>
+      </c>
+      <c r="P209" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>704</v>
+      </c>
+      <c r="R209" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S209">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="T209">
+        <v>3.94</v>
+      </c>
+      <c r="U209">
+        <v>5.32</v>
+      </c>
+      <c r="V209">
+        <v>6.75</v>
+      </c>
+      <c r="W209">
+        <f t="shared" si="16"/>
+        <v>255</v>
+      </c>
+      <c r="AB209">
+        <v>0.06</v>
+      </c>
+      <c r="AC209">
+        <v>0.03</v>
+      </c>
+      <c r="AD209">
+        <f>1-(3/(4*(W209-2)-1))</f>
+        <v>0.9970326409495549</v>
+      </c>
+      <c r="AE209">
+        <f>AD209*AB209</f>
+        <v>5.9821958456973294E-2</v>
+      </c>
+      <c r="AF209">
+        <f>(AD209^2)*AC209</f>
+        <v>2.9822222613565319E-2</v>
       </c>
     </row>
   </sheetData>
@@ -24247,13 +26862,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>820</v>
       </c>
@@ -24267,7 +26882,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>821</v>
       </c>
@@ -24281,7 +26896,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>823</v>
       </c>
@@ -24295,7 +26910,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>825</v>
       </c>
@@ -24309,7 +26924,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>827</v>
       </c>
@@ -24323,7 +26938,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>829</v>
       </c>
@@ -24337,21 +26952,21 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>833</v>
       </c>
@@ -24362,7 +26977,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>835</v>
       </c>
@@ -24373,7 +26988,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>837</v>
       </c>
@@ -24384,20 +26999,20 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C12" t="s">
         <v>841</v>
@@ -24423,6 +27038,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -24431,7 +27052,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F3729CDE7EAEF44A53FFF2D231E047F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fa77f95735d7b1684a0f9f1d46cbd95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2efe24bd-a7c1-481d-a426-3119fcfe7149" xmlns:ns4="061b3361-47e6-4fd1-b7fc-4e45b1c77d33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9154525a1bae266bab7d07ed10795e6b" ns3:_="" ns4:_="">
     <xsd:import namespace="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
@@ -24654,13 +27275,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B9A47D-9A6D-4087-8FA8-4E1598E50986}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -24668,7 +27300,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24685,21 +27317,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B9A47D-9A6D-4087-8FA8-4E1598E50986}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/meta_spreadsheet.xlsx
+++ b/meta_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/ajg17d_fsu_edu/Documents/Florida State University/Research Projects/meta_suicide_erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1237" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F52731E-2F01-45DC-A232-B5CA28FB7E14}"/>
+  <xr:revisionPtr revIDLastSave="1239" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{F166DA18-E775-45CB-83EE-70108CBD3C22}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -2691,9 +2691,6 @@
     <t>Latent Go P3</t>
   </si>
   <si>
-    <t>Albanese</t>
-  </si>
-  <si>
     <t>PCA early p3 congruent neutral-bss</t>
   </si>
   <si>
@@ -3193,6 +3190,9 @@
   </si>
   <si>
     <t>authors</t>
+  </si>
+  <si>
+    <t>Albanese &amp; Schmidt</t>
   </si>
 </sst>
 </file>
@@ -4922,14 +4922,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4943,13 +4943,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6">
         <f>SUM(D2:D5)</f>
         <v>270</v>
@@ -5043,7 +5043,7 @@
         <v>298</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -5060,15 +5060,15 @@
       <selection activeCell="G218" sqref="G218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>171</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>661</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>684</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>521</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>543</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>578</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>644</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>647</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>663</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>666</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>670</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>672</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>675</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>123</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>130</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>133</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>134</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>135</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>137</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>139</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>140</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>141</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>146</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>148</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>150</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>154</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>156</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>157</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>158</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>159</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>160</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>161</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>162</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>164</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>169</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>170</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>172</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>174</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>175</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>176</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>177</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>178</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>179</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>180</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>181</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>182</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>183</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>185</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>186</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>188</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>189</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>191</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>537</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>539</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>565</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>555</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>527</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>523</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>566</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>559</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>547</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>558</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>533</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>129</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>551</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>567</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>571</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>574</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>581</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>588</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>592</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>594</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>597</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>600</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>604</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>608</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>611</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>613</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>615</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>619</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>622</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>625</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>628</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>630</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>634</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>637</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>651</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>655</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>656</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>659</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>678</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>681</v>
       </c>
@@ -9462,21 +9462,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>970</v>
+      </c>
+      <c r="B197" t="s">
         <v>971</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>972</v>
-      </c>
-      <c r="C197" t="s">
-        <v>973</v>
       </c>
       <c r="D197">
         <v>2020</v>
       </c>
       <c r="E197" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F197" t="s">
         <v>37</v>
@@ -9485,21 +9485,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B198" t="s">
+        <v>988</v>
+      </c>
+      <c r="C198" t="s">
         <v>989</v>
-      </c>
-      <c r="C198" t="s">
-        <v>990</v>
       </c>
       <c r="D198">
         <v>2020</v>
       </c>
       <c r="E198" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F198" t="s">
         <v>519</v>
@@ -9508,15 +9508,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B199" t="s">
+        <v>998</v>
+      </c>
+      <c r="C199" t="s">
         <v>999</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1000</v>
       </c>
       <c r="D199">
         <v>2020</v>
@@ -9531,9 +9531,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B200" t="s">
         <v>222</v>
@@ -9554,9 +9554,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B201" t="s">
         <v>237</v>
@@ -9565,7 +9565,7 @@
         <v>2020</v>
       </c>
       <c r="E201" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F201" t="s">
         <v>37</v>
@@ -9574,9 +9574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B202" t="s">
         <v>44</v>
@@ -9597,21 +9597,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B203" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C203" t="s">
         <v>1001</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1002</v>
       </c>
       <c r="D203">
         <v>2020</v>
       </c>
       <c r="E203" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F203" t="s">
         <v>37</v>
@@ -9620,21 +9620,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B204" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C204" t="s">
         <v>1003</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1004</v>
       </c>
       <c r="D204">
         <v>2020</v>
       </c>
       <c r="E204" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F204" t="s">
         <v>519</v>
@@ -9643,15 +9643,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B205" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C205" t="s">
         <v>1005</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1006</v>
       </c>
       <c r="D205">
         <v>2020</v>
@@ -9666,21 +9666,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B206" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C206" t="s">
         <v>1007</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1008</v>
       </c>
       <c r="D206">
         <v>2020</v>
       </c>
       <c r="E206" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F206" t="s">
         <v>519</v>
@@ -9689,21 +9689,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B207" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C207" t="s">
         <v>1009</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1010</v>
       </c>
       <c r="D207">
         <v>2020</v>
       </c>
       <c r="E207" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F207" t="s">
         <v>37</v>
@@ -9712,12 +9712,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B208" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C208" t="s">
         <v>199</v>
@@ -9735,12 +9735,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B209" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C209" t="s">
         <v>365</v>
@@ -9749,7 +9749,7 @@
         <v>2019</v>
       </c>
       <c r="E209" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F209" t="s">
         <v>519</v>
@@ -9758,21 +9758,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B210" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C210" t="s">
         <v>1013</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1014</v>
       </c>
       <c r="D210">
         <v>2019</v>
       </c>
       <c r="E210" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F210" t="s">
         <v>37</v>
@@ -9781,15 +9781,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B211" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C211" t="s">
         <v>1015</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1016</v>
       </c>
       <c r="D211">
         <v>2019</v>
@@ -9804,21 +9804,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B212" t="s">
         <v>1017</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>1018</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1019</v>
       </c>
       <c r="D212">
         <v>2020</v>
       </c>
       <c r="E212" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F212" t="s">
         <v>642</v>
@@ -9827,21 +9827,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B213" t="s">
         <v>1021</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>1022</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1023</v>
       </c>
       <c r="D213">
         <v>2020</v>
       </c>
       <c r="E213" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F213" t="s">
         <v>4</v>
@@ -9850,21 +9850,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B214" t="s">
         <v>1025</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>1026</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1027</v>
       </c>
       <c r="D214">
         <v>2020</v>
       </c>
       <c r="E214" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F214" t="s">
         <v>4</v>
@@ -9873,21 +9873,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B215" t="s">
         <v>1029</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>1030</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1031</v>
       </c>
       <c r="D215">
         <v>2020</v>
       </c>
       <c r="E215" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F215" t="s">
         <v>4</v>
@@ -9896,12 +9896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B216" t="s">
         <v>1033</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1034</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -9910,7 +9910,7 @@
         <v>2020</v>
       </c>
       <c r="E216" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F216" t="s">
         <v>4</v>
@@ -9919,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G217">
         <f>SUM(G2:G216)</f>
         <v>51</v>
@@ -9946,20 +9946,20 @@
       <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>684</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>521</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>663</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>842</v>
       </c>
@@ -10836,9 +10836,9 @@
         <v>841</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="P23"/>
     </row>
-    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" t="s">
         <v>44</v>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>195</v>
       </c>
@@ -10938,9 +10938,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B26" t="s">
         <v>222</v>
@@ -10970,27 +10970,27 @@
         <v>688</v>
       </c>
       <c r="L26" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C27" t="s">
         <v>1003</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1004</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F27" t="s">
         <v>519</v>
@@ -11014,12 +11014,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B28" t="s">
         <v>1048</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1049</v>
       </c>
       <c r="C28" t="s">
         <v>275</v>
@@ -11028,10 +11028,10 @@
         <v>2020</v>
       </c>
       <c r="E28" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F28" t="s">
         <v>1050</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1051</v>
       </c>
       <c r="G28" t="s">
         <v>688</v>
@@ -11049,7 +11049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -11119,7 +11119,7 @@
       <c r="O30"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
@@ -11155,7 +11155,7 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>644</v>
       </c>
@@ -11348,7 +11348,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>647</v>
       </c>
@@ -11384,7 +11384,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>96</v>
       </c>
@@ -11428,7 +11428,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>107</v>
       </c>
@@ -11566,7 +11566,7 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>108</v>
       </c>
@@ -11608,7 +11608,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>666</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>672</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>578</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>584</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>675</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>168</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>171</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>845</v>
       </c>
@@ -11951,9 +11951,9 @@
         <v>841</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B56" t="s">
         <v>237</v>
@@ -11962,7 +11962,7 @@
         <v>2020</v>
       </c>
       <c r="E56" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F56" t="s">
         <v>37</v>
@@ -11983,21 +11983,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B57" t="s">
         <v>1017</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>1018</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1019</v>
       </c>
       <c r="D57">
         <v>2020</v>
       </c>
       <c r="E57" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F57" t="s">
         <v>642</v>
@@ -12015,7 +12015,7 @@
         <v>36</v>
       </c>
       <c r="K57" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -12032,39 +12032,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E90853A-A82C-4185-AE1B-AC3373DE1028}">
   <dimension ref="A1:AF209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H111" sqref="H111"/>
+      <selection pane="topRight" activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.265625" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.265625" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.28515625" customWidth="1"/>
     <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="6.73046875" customWidth="1"/>
-    <col min="26" max="26" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>860</v>
@@ -12157,7 +12157,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>693</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>689</v>
@@ -12225,7 +12225,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>693</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q4" t="s">
         <v>689</v>
@@ -12361,7 +12361,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>693</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q7" t="s">
         <v>689</v>
@@ -12565,7 +12565,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>693</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q9" t="s">
         <v>689</v>
@@ -12701,7 +12701,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>693</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q11" t="s">
         <v>689</v>
@@ -12837,7 +12837,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>693</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q13" t="s">
         <v>689</v>
@@ -12973,7 +12973,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>701</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>747</v>
@@ -13131,7 +13131,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>701</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>724</v>
@@ -13401,7 +13401,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>701</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>747</v>
@@ -13671,7 +13671,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>701</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>724</v>
@@ -13941,7 +13941,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>0.28196343969713361</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>8.750589507842077E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>703</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q51" t="s">
         <v>704</v>
@@ -15834,7 +15834,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>703</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q54" t="s">
         <v>724</v>
@@ -16095,7 +16095,7 @@
         <v>0.18644470868014273</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>703</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>724</v>
@@ -16185,7 +16185,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>703</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>724</v>
@@ -16275,7 +16275,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>703</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>724</v>
@@ -16365,7 +16365,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>703</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>724</v>
@@ -16455,7 +16455,7 @@
         <v>0.16780023781212844</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>703</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>724</v>
@@ -16545,7 +16545,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>9.6439456416508307E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>9</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>0.15229030339083877</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>0.1057831425598335</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -18051,7 +18051,7 @@
         <v>9.6065962019209694E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>8.7359557378242622E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>5.8638985672772481E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>13</v>
       </c>
@@ -18264,7 +18264,7 @@
         <v>0.10543302850995159</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
       </c>
@@ -18350,7 +18350,7 @@
         <v>9.8937120033820339E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>15</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>9.6166493236212278E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>15</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>9.6166493236212278E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>16</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>703</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q84" t="s">
         <v>724</v>
@@ -18576,7 +18576,7 @@
         <v>0.21314328006359476</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>16</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>703</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>724</v>
@@ -18666,7 +18666,7 @@
         <v>8.7194978207834214E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>16</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>703</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>724</v>
@@ -18756,7 +18756,7 @@
         <v>8.7194978207834214E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>17</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>8.7894809688581321E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>17</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>8.7894809688581321E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>17</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>7.8128719723183401E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>17</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>7.8128719723183401E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>18</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>0.28435627851616746</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>18</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>0.18345566355881771</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>18</v>
       </c>
@@ -19374,7 +19374,7 @@
         <v>0.32104741122793096</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>18</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>0.21097401309264038</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>19</v>
       </c>
@@ -19632,7 +19632,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>19</v>
       </c>
@@ -19719,7 +19719,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>0.16832749667914504</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>0.1589759690858592</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>0.20360839609037015</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>0.19435346899535333</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>0.20360839609037015</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>0.30286641427798805</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -20244,7 +20244,7 @@
         <v>0.31151974040021629</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20</v>
       </c>
@@ -20319,7 +20319,7 @@
         <v>0.35478637101135746</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>21</v>
       </c>
@@ -20363,7 +20363,7 @@
         <v>703</v>
       </c>
       <c r="P106" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q106" t="s">
         <v>724</v>
@@ -20406,7 +20406,7 @@
         <v>0.31550928021729291</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>21</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>703</v>
       </c>
       <c r="P107" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q107" t="s">
         <v>730</v>
@@ -20493,7 +20493,7 @@
         <v>0.30674513354459032</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>22</v>
       </c>
@@ -20501,7 +20501,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D108">
         <v>2020</v>
@@ -20531,7 +20531,7 @@
         <v>703</v>
       </c>
       <c r="P108" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q108" t="s">
         <v>724</v>
@@ -20574,7 +20574,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>22</v>
       </c>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D109">
         <v>2020</v>
@@ -20612,7 +20612,7 @@
         <v>703</v>
       </c>
       <c r="P109" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q109" t="s">
         <v>730</v>
@@ -20655,7 +20655,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>22</v>
       </c>
@@ -20663,7 +20663,7 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D110">
         <v>2020</v>
@@ -20693,7 +20693,7 @@
         <v>703</v>
       </c>
       <c r="P110" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q110" t="s">
         <v>854</v>
@@ -20736,7 +20736,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>22</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D111">
         <v>2020</v>
@@ -20774,7 +20774,7 @@
         <v>703</v>
       </c>
       <c r="P111" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q111" t="s">
         <v>704</v>
@@ -20817,7 +20817,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>22</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D112">
         <v>2020</v>
@@ -20895,7 +20895,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>23</v>
       </c>
@@ -21051,7 +21051,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>23</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>703</v>
       </c>
       <c r="P115" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q115" t="s">
         <v>704</v>
@@ -21129,7 +21129,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>24</v>
       </c>
@@ -21137,7 +21137,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D116" t="s">
         <v>861</v>
@@ -21158,7 +21158,7 @@
         <v>724</v>
       </c>
       <c r="R116" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="W116">
         <v>91</v>
@@ -21185,7 +21185,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>24</v>
       </c>
@@ -21193,7 +21193,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D117" t="s">
         <v>861</v>
@@ -21214,7 +21214,7 @@
         <v>724</v>
       </c>
       <c r="R117" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="W117">
         <v>91</v>
@@ -21241,7 +21241,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>24</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D118" t="s">
         <v>861</v>
@@ -21270,7 +21270,7 @@
         <v>724</v>
       </c>
       <c r="R118" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="W118">
         <v>91</v>
@@ -21297,7 +21297,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>24</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D119" t="s">
         <v>861</v>
@@ -21326,7 +21326,7 @@
         <v>724</v>
       </c>
       <c r="R119" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="W119">
         <v>91</v>
@@ -21353,7 +21353,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>24</v>
       </c>
@@ -21361,7 +21361,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D120" t="s">
         <v>861</v>
@@ -21382,7 +21382,7 @@
         <v>724</v>
       </c>
       <c r="R120" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W120">
         <v>90</v>
@@ -21409,7 +21409,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>24</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D121" t="s">
         <v>861</v>
@@ -21438,7 +21438,7 @@
         <v>724</v>
       </c>
       <c r="R121" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="W121">
         <v>90</v>
@@ -21465,7 +21465,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>24</v>
       </c>
@@ -21473,7 +21473,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D122" t="s">
         <v>861</v>
@@ -21494,7 +21494,7 @@
         <v>724</v>
       </c>
       <c r="R122" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="W122">
         <v>90</v>
@@ -21521,7 +21521,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>24</v>
       </c>
@@ -21529,7 +21529,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D123" t="s">
         <v>861</v>
@@ -21550,7 +21550,7 @@
         <v>724</v>
       </c>
       <c r="R123" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="W123">
         <v>90</v>
@@ -21577,7 +21577,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>24</v>
       </c>
@@ -21585,7 +21585,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D124" t="s">
         <v>861</v>
@@ -21606,7 +21606,7 @@
         <v>724</v>
       </c>
       <c r="R124" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="W124">
         <v>89</v>
@@ -21633,7 +21633,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>24</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D125" t="s">
         <v>861</v>
@@ -21662,7 +21662,7 @@
         <v>724</v>
       </c>
       <c r="R125" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="W125">
         <v>89</v>
@@ -21689,7 +21689,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>24</v>
       </c>
@@ -21697,7 +21697,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D126" t="s">
         <v>861</v>
@@ -21718,7 +21718,7 @@
         <v>724</v>
       </c>
       <c r="R126" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="W126">
         <v>89</v>
@@ -21745,7 +21745,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>24</v>
       </c>
@@ -21753,7 +21753,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D127" t="s">
         <v>861</v>
@@ -21774,7 +21774,7 @@
         <v>724</v>
       </c>
       <c r="R127" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="W127">
         <v>89</v>
@@ -21801,7 +21801,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24</v>
       </c>
@@ -21809,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D128" t="s">
         <v>861</v>
@@ -21830,7 +21830,7 @@
         <v>724</v>
       </c>
       <c r="R128" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="W128">
         <v>88</v>
@@ -21857,7 +21857,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>24</v>
       </c>
@@ -21865,7 +21865,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D129" t="s">
         <v>861</v>
@@ -21886,7 +21886,7 @@
         <v>724</v>
       </c>
       <c r="R129" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="W129">
         <v>88</v>
@@ -21913,7 +21913,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>24</v>
       </c>
@@ -21921,7 +21921,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D130" t="s">
         <v>861</v>
@@ -21942,7 +21942,7 @@
         <v>724</v>
       </c>
       <c r="R130" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="W130">
         <v>88</v>
@@ -21969,7 +21969,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>24</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D131" t="s">
         <v>861</v>
@@ -21998,7 +21998,7 @@
         <v>724</v>
       </c>
       <c r="R131" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="W131">
         <v>88</v>
@@ -22025,7 +22025,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D132" t="s">
         <v>861</v>
@@ -22054,7 +22054,7 @@
         <v>724</v>
       </c>
       <c r="R132" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="W132">
         <v>88</v>
@@ -22081,7 +22081,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>24</v>
       </c>
@@ -22089,7 +22089,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D133" t="s">
         <v>861</v>
@@ -22110,7 +22110,7 @@
         <v>724</v>
       </c>
       <c r="R133" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="W133">
         <v>88</v>
@@ -22137,7 +22137,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>24</v>
       </c>
@@ -22145,7 +22145,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D134" t="s">
         <v>861</v>
@@ -22166,7 +22166,7 @@
         <v>724</v>
       </c>
       <c r="R134" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="W134">
         <v>88</v>
@@ -22193,7 +22193,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>24</v>
       </c>
@@ -22201,7 +22201,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D135" t="s">
         <v>861</v>
@@ -22222,7 +22222,7 @@
         <v>724</v>
       </c>
       <c r="R135" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="W135">
         <v>88</v>
@@ -22249,7 +22249,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>24</v>
       </c>
@@ -22257,7 +22257,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D136" t="s">
         <v>861</v>
@@ -22278,7 +22278,7 @@
         <v>724</v>
       </c>
       <c r="R136" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="W136">
         <v>87</v>
@@ -22305,7 +22305,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>24</v>
       </c>
@@ -22313,7 +22313,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D137" t="s">
         <v>861</v>
@@ -22334,7 +22334,7 @@
         <v>724</v>
       </c>
       <c r="R137" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="W137">
         <v>87</v>
@@ -22361,7 +22361,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>24</v>
       </c>
@@ -22369,7 +22369,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D138" t="s">
         <v>861</v>
@@ -22390,7 +22390,7 @@
         <v>724</v>
       </c>
       <c r="R138" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="W138">
         <v>87</v>
@@ -22417,7 +22417,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>24</v>
       </c>
@@ -22425,7 +22425,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D139" t="s">
         <v>861</v>
@@ -22446,7 +22446,7 @@
         <v>724</v>
       </c>
       <c r="R139" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="W139">
         <v>87</v>
@@ -22473,7 +22473,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D140" t="s">
         <v>861</v>
@@ -22502,7 +22502,7 @@
         <v>724</v>
       </c>
       <c r="R140" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="W140">
         <v>87</v>
@@ -22529,7 +22529,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D141" t="s">
         <v>861</v>
@@ -22558,7 +22558,7 @@
         <v>724</v>
       </c>
       <c r="R141" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="W141">
         <v>87</v>
@@ -22585,7 +22585,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>24</v>
       </c>
@@ -22593,7 +22593,7 @@
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D142" t="s">
         <v>861</v>
@@ -22614,7 +22614,7 @@
         <v>724</v>
       </c>
       <c r="R142" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="W142">
         <v>87</v>
@@ -22641,7 +22641,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>24</v>
       </c>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D143" t="s">
         <v>861</v>
@@ -22670,7 +22670,7 @@
         <v>724</v>
       </c>
       <c r="R143" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="W143">
         <v>87</v>
@@ -22697,7 +22697,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>24</v>
       </c>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D144" t="s">
         <v>861</v>
@@ -22726,7 +22726,7 @@
         <v>724</v>
       </c>
       <c r="R144" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="W144">
         <v>86</v>
@@ -22753,7 +22753,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>24</v>
       </c>
@@ -22761,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D145" t="s">
         <v>861</v>
@@ -22782,7 +22782,7 @@
         <v>724</v>
       </c>
       <c r="R145" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="W145">
         <v>86</v>
@@ -22809,7 +22809,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>24</v>
       </c>
@@ -22817,7 +22817,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D146" t="s">
         <v>861</v>
@@ -22838,7 +22838,7 @@
         <v>724</v>
       </c>
       <c r="R146" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="W146">
         <v>86</v>
@@ -22865,7 +22865,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>24</v>
       </c>
@@ -22873,7 +22873,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D147" t="s">
         <v>861</v>
@@ -22894,7 +22894,7 @@
         <v>724</v>
       </c>
       <c r="R147" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="W147">
         <v>86</v>
@@ -22921,7 +22921,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>24</v>
       </c>
@@ -22929,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D148" t="s">
         <v>861</v>
@@ -22950,7 +22950,7 @@
         <v>724</v>
       </c>
       <c r="R148" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="W148">
         <v>86</v>
@@ -22977,7 +22977,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>24</v>
       </c>
@@ -22985,7 +22985,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D149" t="s">
         <v>861</v>
@@ -23006,7 +23006,7 @@
         <v>724</v>
       </c>
       <c r="R149" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="W149">
         <v>86</v>
@@ -23033,7 +23033,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>24</v>
       </c>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D150" t="s">
         <v>861</v>
@@ -23062,7 +23062,7 @@
         <v>724</v>
       </c>
       <c r="R150" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="W150">
         <v>86</v>
@@ -23089,7 +23089,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>24</v>
       </c>
@@ -23097,7 +23097,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D151" t="s">
         <v>861</v>
@@ -23118,7 +23118,7 @@
         <v>724</v>
       </c>
       <c r="R151" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="W151">
         <v>86</v>
@@ -23145,7 +23145,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>24</v>
       </c>
@@ -23153,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D152" t="s">
         <v>861</v>
@@ -23174,7 +23174,7 @@
         <v>724</v>
       </c>
       <c r="R152" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="W152">
         <v>91</v>
@@ -23201,7 +23201,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24</v>
       </c>
@@ -23209,7 +23209,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D153" t="s">
         <v>861</v>
@@ -23230,7 +23230,7 @@
         <v>724</v>
       </c>
       <c r="R153" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="W153">
         <v>91</v>
@@ -23257,7 +23257,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>24</v>
       </c>
@@ -23265,7 +23265,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D154" t="s">
         <v>861</v>
@@ -23286,7 +23286,7 @@
         <v>724</v>
       </c>
       <c r="R154" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="W154">
         <v>91</v>
@@ -23313,7 +23313,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>24</v>
       </c>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D155" t="s">
         <v>861</v>
@@ -23342,7 +23342,7 @@
         <v>724</v>
       </c>
       <c r="R155" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="W155">
         <v>91</v>
@@ -23369,7 +23369,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>24</v>
       </c>
@@ -23377,7 +23377,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D156" t="s">
         <v>861</v>
@@ -23398,7 +23398,7 @@
         <v>724</v>
       </c>
       <c r="R156" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="W156">
         <v>90</v>
@@ -23425,7 +23425,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>24</v>
       </c>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D157" t="s">
         <v>861</v>
@@ -23454,7 +23454,7 @@
         <v>724</v>
       </c>
       <c r="R157" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="W157">
         <v>90</v>
@@ -23481,7 +23481,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>24</v>
       </c>
@@ -23489,7 +23489,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D158" t="s">
         <v>861</v>
@@ -23510,7 +23510,7 @@
         <v>724</v>
       </c>
       <c r="R158" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="W158">
         <v>90</v>
@@ -23537,7 +23537,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>24</v>
       </c>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D159" t="s">
         <v>861</v>
@@ -23566,7 +23566,7 @@
         <v>724</v>
       </c>
       <c r="R159" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="W159">
         <v>90</v>
@@ -23593,7 +23593,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>24</v>
       </c>
@@ -23601,7 +23601,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D160" t="s">
         <v>861</v>
@@ -23622,7 +23622,7 @@
         <v>724</v>
       </c>
       <c r="R160" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="W160">
         <v>89</v>
@@ -23649,7 +23649,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>24</v>
       </c>
@@ -23657,7 +23657,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D161" t="s">
         <v>861</v>
@@ -23678,7 +23678,7 @@
         <v>724</v>
       </c>
       <c r="R161" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="W161">
         <v>89</v>
@@ -23705,7 +23705,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>24</v>
       </c>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D162" t="s">
         <v>861</v>
@@ -23734,7 +23734,7 @@
         <v>724</v>
       </c>
       <c r="R162" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="W162">
         <v>89</v>
@@ -23761,7 +23761,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>24</v>
       </c>
@@ -23769,7 +23769,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D163" t="s">
         <v>861</v>
@@ -23790,7 +23790,7 @@
         <v>724</v>
       </c>
       <c r="R163" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="W163">
         <v>89</v>
@@ -23817,7 +23817,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>24</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D164" t="s">
         <v>861</v>
@@ -23846,7 +23846,7 @@
         <v>724</v>
       </c>
       <c r="R164" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="W164">
         <v>91</v>
@@ -23873,7 +23873,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>24</v>
       </c>
@@ -23881,7 +23881,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D165" t="s">
         <v>861</v>
@@ -23902,7 +23902,7 @@
         <v>724</v>
       </c>
       <c r="R165" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="W165">
         <v>91</v>
@@ -23929,7 +23929,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>24</v>
       </c>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D166" t="s">
         <v>861</v>
@@ -23958,7 +23958,7 @@
         <v>724</v>
       </c>
       <c r="R166" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="W166">
         <v>91</v>
@@ -23985,7 +23985,7 @@
         <v>4.9158500297560012E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>24</v>
       </c>
@@ -23993,7 +23993,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D167" t="s">
         <v>861</v>
@@ -24014,7 +24014,7 @@
         <v>724</v>
       </c>
       <c r="R167" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="W167">
         <v>91</v>
@@ -24041,7 +24041,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>24</v>
       </c>
@@ -24049,7 +24049,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D168" t="s">
         <v>861</v>
@@ -24070,7 +24070,7 @@
         <v>724</v>
       </c>
       <c r="R168" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="W168">
         <v>90</v>
@@ -24097,7 +24097,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>24</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D169" t="s">
         <v>861</v>
@@ -24126,7 +24126,7 @@
         <v>724</v>
       </c>
       <c r="R169" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="W169">
         <v>90</v>
@@ -24153,7 +24153,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>24</v>
       </c>
@@ -24161,7 +24161,7 @@
         <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D170" t="s">
         <v>861</v>
@@ -24182,7 +24182,7 @@
         <v>724</v>
       </c>
       <c r="R170" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="W170">
         <v>90</v>
@@ -24209,7 +24209,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>24</v>
       </c>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D171" t="s">
         <v>861</v>
@@ -24238,7 +24238,7 @@
         <v>724</v>
       </c>
       <c r="R171" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="W171">
         <v>90</v>
@@ -24265,7 +24265,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>24</v>
       </c>
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D172" t="s">
         <v>861</v>
@@ -24294,7 +24294,7 @@
         <v>724</v>
       </c>
       <c r="R172" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="W172">
         <v>89</v>
@@ -24321,7 +24321,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>24</v>
       </c>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D173" t="s">
         <v>861</v>
@@ -24350,7 +24350,7 @@
         <v>724</v>
       </c>
       <c r="R173" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="W173">
         <v>89</v>
@@ -24377,7 +24377,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>24</v>
       </c>
@@ -24385,7 +24385,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D174" t="s">
         <v>861</v>
@@ -24406,7 +24406,7 @@
         <v>724</v>
       </c>
       <c r="R174" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="W174">
         <v>89</v>
@@ -24433,7 +24433,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>24</v>
       </c>
@@ -24441,7 +24441,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D175" t="s">
         <v>861</v>
@@ -24462,7 +24462,7 @@
         <v>724</v>
       </c>
       <c r="R175" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="W175">
         <v>89</v>
@@ -24489,7 +24489,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>24</v>
       </c>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D176" t="s">
         <v>861</v>
@@ -24518,7 +24518,7 @@
         <v>689</v>
       </c>
       <c r="R176" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="W176">
         <v>90</v>
@@ -24545,7 +24545,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>24</v>
       </c>
@@ -24553,7 +24553,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D177" t="s">
         <v>861</v>
@@ -24574,7 +24574,7 @@
         <v>689</v>
       </c>
       <c r="R177" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="W177">
         <v>90</v>
@@ -24601,7 +24601,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D178" t="s">
         <v>861</v>
@@ -24630,7 +24630,7 @@
         <v>689</v>
       </c>
       <c r="R178" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="W178">
         <v>90</v>
@@ -24657,7 +24657,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>24</v>
       </c>
@@ -24665,7 +24665,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D179" t="s">
         <v>861</v>
@@ -24686,7 +24686,7 @@
         <v>689</v>
       </c>
       <c r="R179" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="W179">
         <v>91</v>
@@ -24713,7 +24713,7 @@
         <v>4.9158500297560012E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>24</v>
       </c>
@@ -24721,7 +24721,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D180" t="s">
         <v>861</v>
@@ -24742,7 +24742,7 @@
         <v>689</v>
       </c>
       <c r="R180" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="W180">
         <v>91</v>
@@ -24769,7 +24769,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>24</v>
       </c>
@@ -24777,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D181" t="s">
         <v>861</v>
@@ -24798,7 +24798,7 @@
         <v>689</v>
       </c>
       <c r="R181" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="W181">
         <v>91</v>
@@ -24825,7 +24825,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>24</v>
       </c>
@@ -24833,7 +24833,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D182" t="s">
         <v>861</v>
@@ -24854,7 +24854,7 @@
         <v>689</v>
       </c>
       <c r="R182" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="W182">
         <v>89</v>
@@ -24881,7 +24881,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>24</v>
       </c>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D183" t="s">
         <v>861</v>
@@ -24910,7 +24910,7 @@
         <v>689</v>
       </c>
       <c r="R183" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="W183">
         <v>89</v>
@@ -24937,7 +24937,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>24</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D184" t="s">
         <v>861</v>
@@ -24966,7 +24966,7 @@
         <v>689</v>
       </c>
       <c r="R184" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="W184">
         <v>89</v>
@@ -24993,7 +24993,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>24</v>
       </c>
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D185" t="s">
         <v>861</v>
@@ -25022,7 +25022,7 @@
         <v>689</v>
       </c>
       <c r="R185" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="W185">
         <v>90</v>
@@ -25049,7 +25049,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>24</v>
       </c>
@@ -25057,7 +25057,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D186" t="s">
         <v>861</v>
@@ -25078,7 +25078,7 @@
         <v>689</v>
       </c>
       <c r="R186" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="W186">
         <v>90</v>
@@ -25105,7 +25105,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>24</v>
       </c>
@@ -25113,7 +25113,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D187" t="s">
         <v>861</v>
@@ -25134,7 +25134,7 @@
         <v>689</v>
       </c>
       <c r="R187" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="W187">
         <v>90</v>
@@ -25161,7 +25161,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>24</v>
       </c>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D188" t="s">
         <v>861</v>
@@ -25190,7 +25190,7 @@
         <v>689</v>
       </c>
       <c r="R188" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="W188">
         <v>88</v>
@@ -25217,7 +25217,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>24</v>
       </c>
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D189" t="s">
         <v>861</v>
@@ -25246,7 +25246,7 @@
         <v>689</v>
       </c>
       <c r="R189" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="W189">
         <v>88</v>
@@ -25273,7 +25273,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>24</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D190" t="s">
         <v>861</v>
@@ -25302,7 +25302,7 @@
         <v>689</v>
       </c>
       <c r="R190" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="W190">
         <v>88</v>
@@ -25329,7 +25329,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>24</v>
       </c>
@@ -25337,7 +25337,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D191" t="s">
         <v>861</v>
@@ -25358,7 +25358,7 @@
         <v>689</v>
       </c>
       <c r="R191" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="W191">
         <v>89</v>
@@ -25385,7 +25385,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>24</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D192" t="s">
         <v>861</v>
@@ -25414,7 +25414,7 @@
         <v>689</v>
       </c>
       <c r="R192" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="W192">
         <v>89</v>
@@ -25441,7 +25441,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>24</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>884</v>
+        <v>1051</v>
       </c>
       <c r="D193" t="s">
         <v>861</v>
@@ -25470,7 +25470,7 @@
         <v>689</v>
       </c>
       <c r="R193" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="W193">
         <v>89</v>
@@ -25497,7 +25497,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>25</v>
       </c>
@@ -25544,13 +25544,13 @@
         <v>703</v>
       </c>
       <c r="P194" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q194" t="s">
         <v>747</v>
       </c>
       <c r="R194" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="S194">
         <v>-1.71</v>
@@ -25583,7 +25583,7 @@
         <v>0.14138938600000001</v>
       </c>
     </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>25</v>
       </c>
@@ -25630,13 +25630,13 @@
         <v>703</v>
       </c>
       <c r="P195" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q195" t="s">
         <v>747</v>
       </c>
       <c r="R195" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="S195">
         <v>-5.36</v>
@@ -25669,7 +25669,7 @@
         <v>0.14138938600000001</v>
       </c>
     </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>25</v>
       </c>
@@ -25716,13 +25716,13 @@
         <v>703</v>
       </c>
       <c r="P196" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q196" t="s">
         <v>724</v>
       </c>
       <c r="R196" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="S196">
         <v>14.87</v>
@@ -25755,7 +25755,7 @@
         <v>0.13196342699999999</v>
       </c>
     </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>25</v>
       </c>
@@ -25802,13 +25802,13 @@
         <v>703</v>
       </c>
       <c r="P197" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q197" t="s">
         <v>724</v>
       </c>
       <c r="R197" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="S197">
         <v>13.17</v>
@@ -25841,7 +25841,7 @@
         <v>0.13196342699999999</v>
       </c>
     </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>26</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D198">
         <v>2020</v>
@@ -25882,7 +25882,7 @@
         <v>704</v>
       </c>
       <c r="R198" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="W198">
         <v>58</v>
@@ -25906,7 +25906,7 @@
         <v>6.8129260999999997E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>26</v>
       </c>
@@ -25914,7 +25914,7 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D199">
         <v>2020</v>
@@ -25947,7 +25947,7 @@
         <v>704</v>
       </c>
       <c r="R199" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="W199">
         <v>58</v>
@@ -25971,7 +25971,7 @@
         <v>6.8129260999999997E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>26</v>
       </c>
@@ -25979,7 +25979,7 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D200">
         <v>2020</v>
@@ -26006,13 +26006,13 @@
         <v>693</v>
       </c>
       <c r="P200" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q200" t="s">
         <v>704</v>
       </c>
       <c r="R200" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="W200">
         <v>58</v>
@@ -26036,7 +26036,7 @@
         <v>7.7862011999999994E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>27</v>
       </c>
@@ -26044,7 +26044,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D201">
         <v>2020</v>
@@ -26089,7 +26089,7 @@
         <v>704</v>
       </c>
       <c r="R201" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="S201">
         <v>16.09</v>
@@ -26126,7 +26126,7 @@
         <v>3.9771102043497181E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>27</v>
       </c>
@@ -26134,7 +26134,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D202">
         <v>2020</v>
@@ -26179,7 +26179,7 @@
         <v>704</v>
       </c>
       <c r="R202" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="S202">
         <v>12.18</v>
@@ -26216,7 +26216,7 @@
         <v>3.9771102043497181E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>27</v>
       </c>
@@ -26224,7 +26224,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D203">
         <v>2020</v>
@@ -26263,13 +26263,13 @@
         <v>703</v>
       </c>
       <c r="P203" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q203" t="s">
         <v>704</v>
       </c>
       <c r="R203" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="S203">
         <v>3.91</v>
@@ -26306,7 +26306,7 @@
         <v>3.9771102043497181E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>27</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D204">
         <v>2020</v>
@@ -26359,7 +26359,7 @@
         <v>704</v>
       </c>
       <c r="R204" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="S204">
         <v>3.41</v>
@@ -26396,7 +26396,7 @@
         <v>1.9902952023471948E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>27</v>
       </c>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D205">
         <v>2020</v>
@@ -26449,7 +26449,7 @@
         <v>704</v>
       </c>
       <c r="R205" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="S205">
         <v>-1.58</v>
@@ -26486,7 +26486,7 @@
         <v>1.9902952023471948E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>27</v>
       </c>
@@ -26494,7 +26494,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D206">
         <v>2020</v>
@@ -26533,13 +26533,13 @@
         <v>703</v>
       </c>
       <c r="P206" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q206" t="s">
         <v>704</v>
       </c>
       <c r="R206" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="S206">
         <v>4.9800000000000004</v>
@@ -26576,7 +26576,7 @@
         <v>1.9902952023471948E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>27</v>
       </c>
@@ -26584,7 +26584,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D207">
         <v>2020</v>
@@ -26629,7 +26629,7 @@
         <v>704</v>
       </c>
       <c r="R207" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="S207">
         <v>6.55</v>
@@ -26666,7 +26666,7 @@
         <v>2.9822222613565319E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>27</v>
       </c>
@@ -26674,7 +26674,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D208">
         <v>2020</v>
@@ -26719,7 +26719,7 @@
         <v>704</v>
       </c>
       <c r="R208" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="S208">
         <v>2.2000000000000002</v>
@@ -26756,7 +26756,7 @@
         <v>2.9822222613565319E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>27</v>
       </c>
@@ -26764,7 +26764,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D209">
         <v>2020</v>
@@ -26803,13 +26803,13 @@
         <v>703</v>
       </c>
       <c r="P209" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q209" t="s">
         <v>704</v>
       </c>
       <c r="R209" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="S209">
         <v>4.3600000000000003</v>
@@ -26862,13 +26862,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>820</v>
       </c>
@@ -26882,7 +26882,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>821</v>
       </c>
@@ -26896,7 +26896,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>823</v>
       </c>
@@ -26910,7 +26910,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>825</v>
       </c>
@@ -26924,7 +26924,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>827</v>
       </c>
@@ -26938,7 +26938,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>829</v>
       </c>
@@ -26952,7 +26952,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>831</v>
       </c>
@@ -26966,7 +26966,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>833</v>
       </c>
@@ -26977,7 +26977,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>835</v>
       </c>
@@ -26988,7 +26988,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>837</v>
       </c>
@@ -26999,20 +26999,20 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C12" t="s">
         <v>841</v>
@@ -27038,21 +27038,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F3729CDE7EAEF44A53FFF2D231E047F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fa77f95735d7b1684a0f9f1d46cbd95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2efe24bd-a7c1-481d-a426-3119fcfe7149" xmlns:ns4="061b3361-47e6-4fd1-b7fc-4e45b1c77d33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9154525a1bae266bab7d07ed10795e6b" ns3:_="" ns4:_="">
     <xsd:import namespace="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
@@ -27275,32 +27260,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B9A47D-9A6D-4087-8FA8-4E1598E50986}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27317,4 +27292,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B9A47D-9A6D-4087-8FA8-4E1598E50986}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>